--- a/big_results.xlsx
+++ b/big_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
   <si>
     <t>model_base</t>
   </si>
@@ -142,9 +142,15 @@
     <t>reco</t>
   </si>
   <si>
+    <t>amazonzh</t>
+  </si>
+  <si>
     <t>['en_ewt']</t>
   </si>
   <si>
+    <t>mldoc</t>
+  </si>
+  <si>
     <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-reco-variant_3-attempt_r0/checkpoint-best/</t>
   </si>
   <si>
@@ -154,6 +160,57 @@
     <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-reco-variant_3-attempt_r2/checkpoint-best/</t>
   </si>
   <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-amazonzh-variant_3-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-amazonzh-variant_3-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-amazonzh-variant_3-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-amazonzh-variant_3-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-amazonzh-variant_3-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-ld_mldoc-variant_3-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-ld_mldoc-variant_3-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-ld_mldoc-variant_3-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-ld_mldoc-variant_3-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-ld_mldoc-variant_3-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-ld_mldoc-variant_3-attempt_r5/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-attempt_r5/checkpoint-best</t>
+  </si>
+  <si>
     <t>fd6ee81ee999aa9e844bce113233547d33e8e4c8994a0ca88ff563fef9b48851</t>
   </si>
   <si>
@@ -161,6 +218,57 @@
   </si>
   <si>
     <t>09a7f4c9abb69d8a8f5dfa91389d2e4a15f9102833484712700634ee1c5398c9</t>
+  </si>
+  <si>
+    <t>4d1441ad964761341cc5a26d03b5f5b136006ffcef50df37d150e3268f78b967</t>
+  </si>
+  <si>
+    <t>5e34b83dd000582efc304401aefa92f51653d1603c664035942799dd14ee49d4</t>
+  </si>
+  <si>
+    <t>2ff2115fccd30323a94f3a4f4c9d8b9c3de1c1825bdb7b2d0e26fb8a62e3fb6c</t>
+  </si>
+  <si>
+    <t>3b6ce05ebe5e477904df5936707483be02b4b68b3977aeefce6af6175c7cd87f</t>
+  </si>
+  <si>
+    <t>b9bba391173b65c9c7a0a72b6dddcad54528119897f95b13c0d0ca0c6e9d96ea</t>
+  </si>
+  <si>
+    <t>327ce97cc6ddf3a09e91a9ceea2999149c29fb46a055665b42862a71740962c1</t>
+  </si>
+  <si>
+    <t>3a79c974514e17e3a3c7e6cb65ed304d375d9b9b429bdb1e232815f5e08c1939</t>
+  </si>
+  <si>
+    <t>3f2ca8fbf1d042f280540a4b1c40cec7011443c187fcc02e3453898817f0d964</t>
+  </si>
+  <si>
+    <t>edb7ffe71bbd40d647bfe53f3a52fe7723ada585c1538e41de0bed79f8c24680</t>
+  </si>
+  <si>
+    <t>77445cc5831b192fdc246bd18d3f3fc6af5fcf773e3699ed724739c5b7ce5591</t>
+  </si>
+  <si>
+    <t>aaebf51b17c0f5bc073a3f5d1da547ccf9d4d69256decafbb852ae46bd82352a</t>
+  </si>
+  <si>
+    <t>de84f98e76f1c616fb6d41e8b84b9b19d52dc16e6e9d6fb39b795af68386370f</t>
+  </si>
+  <si>
+    <t>87bbcf7e91bcf60998b9661bce1725f22e42a2cb19e28f01fe3899cce41bee26</t>
+  </si>
+  <si>
+    <t>eff8a062c6bb1b874a1a88077b0eb2fd6dd22521fc6bd4894ce717ea7b2b421a</t>
+  </si>
+  <si>
+    <t>39a9a32cbe786ddb6eb0d5dfb373c8cf48ba9ae9baac15a2a4143c949d231602</t>
+  </si>
+  <si>
+    <t>53331a0cd34ad7a84127c257314e856d761c744de77d5f9b9fcd47c486ddd40a</t>
+  </si>
+  <si>
+    <t>e7025f1b4497bfc7d6a4b1035dea324632d623396d580ce70714b826e4df5bac</t>
   </si>
 </sst>
 </file>
@@ -518,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W2" t="b">
         <v>0</v>
@@ -726,10 +834,10 @@
         <v>0.586876838814128</v>
       </c>
       <c r="AI2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AJ2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -794,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -824,10 +932,10 @@
         <v>0.5406144299719992</v>
       </c>
       <c r="AI3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -892,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
@@ -922,10 +1030,1709 @@
         <v>0.5667721825824592</v>
       </c>
       <c r="AI4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AJ4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>128</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.105</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>0.3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <v>0.01</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.05</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>16</v>
+      </c>
+      <c r="AA5">
+        <v>1E-05</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1E-08</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>5</v>
+      </c>
+      <c r="AG5">
+        <v>0.4844737174559945</v>
+      </c>
+      <c r="AH5">
+        <v>0.6045533966268596</v>
+      </c>
+      <c r="AI5" t="s">
         <v>48</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>128</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.105</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6">
+        <v>0.3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <v>0.01</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.05</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>16</v>
+      </c>
+      <c r="AA6">
+        <v>1E-05</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>1E-08</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>5</v>
+      </c>
+      <c r="AG6">
+        <v>0.4871113019039524</v>
+      </c>
+      <c r="AH6">
+        <v>0.5962915173237754</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>128</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.105</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>0.3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>0.01</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.05</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>16</v>
+      </c>
+      <c r="AA7">
+        <v>1E-05</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1E-08</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>5</v>
+      </c>
+      <c r="AG7">
+        <v>0.4840424477067907</v>
+      </c>
+      <c r="AH7">
+        <v>0.548275033369672</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>128</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.105</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8">
+        <v>0.3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>0.01</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.05</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>16</v>
+      </c>
+      <c r="AA8">
+        <v>1E-05</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>1E-08</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>5</v>
+      </c>
+      <c r="AG8">
+        <v>0.4949669488951003</v>
+      </c>
+      <c r="AH8">
+        <v>0.5992932797694498</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>128</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.105</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9">
+        <v>0.3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>0.01</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.05</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>16</v>
+      </c>
+      <c r="AA9">
+        <v>1E-05</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1E-08</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>5</v>
+      </c>
+      <c r="AG9">
+        <v>0.4723939909570014</v>
+      </c>
+      <c r="AH9">
+        <v>0.6024706091886282</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>128</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.105</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10">
+        <v>0.3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <v>0.01</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.05</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z10">
+        <v>16</v>
+      </c>
+      <c r="AA10">
+        <v>1E-05</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>1E-08</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>5</v>
+      </c>
+      <c r="AG10">
+        <v>0.4968889912401302</v>
+      </c>
+      <c r="AH10">
+        <v>0.5967769542168483</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>128</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.105</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11">
+        <v>0.3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <v>0.01</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.05</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z11">
+        <v>16</v>
+      </c>
+      <c r="AA11">
+        <v>1E-05</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>1E-08</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
+      <c r="AG11">
+        <v>0.4979061164015381</v>
+      </c>
+      <c r="AH11">
+        <v>0.5515704454402147</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>128</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.105</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <v>0.01</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.05</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12">
+        <v>16</v>
+      </c>
+      <c r="AA12">
+        <v>1E-05</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>1E-08</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>5</v>
+      </c>
+      <c r="AG12">
+        <v>0.4809608763888283</v>
+      </c>
+      <c r="AH12">
+        <v>0.552774178025092</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>128</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.105</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>0.01</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.05</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z13">
+        <v>16</v>
+      </c>
+      <c r="AA13">
+        <v>1E-05</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>1E-08</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>5</v>
+      </c>
+      <c r="AG13">
+        <v>0.4873508023806283</v>
+      </c>
+      <c r="AH13">
+        <v>0.5592074033081228</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>128</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.105</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>0.01</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.05</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z14">
+        <v>16</v>
+      </c>
+      <c r="AA14">
+        <v>1E-05</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>1E-08</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>5</v>
+      </c>
+      <c r="AG14">
+        <v>0.4745359104153727</v>
+      </c>
+      <c r="AH14">
+        <v>0.5417429045080056</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>128</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.105</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15">
+        <v>0.3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <v>0.01</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.05</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>43</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15">
+        <v>16</v>
+      </c>
+      <c r="AA15">
+        <v>1E-05</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>1E-08</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>5</v>
+      </c>
+      <c r="AG15">
+        <v>0.5085469416434867</v>
+      </c>
+      <c r="AH15">
+        <v>0.5698282299315306</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>128</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.105</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16">
+        <v>0.3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16">
+        <v>0.01</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.05</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>16</v>
+      </c>
+      <c r="AA16">
+        <v>1E-05</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>1E-08</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>5</v>
+      </c>
+      <c r="AG16">
+        <v>0.4902630316091732</v>
+      </c>
+      <c r="AH16">
+        <v>0.5810215530620623</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>128</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.105</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17">
+        <v>0.3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <v>0.01</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.05</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+      <c r="AA17">
+        <v>1E-05</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>1E-08</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>5</v>
+      </c>
+      <c r="AG17">
+        <v>0.4773023318731773</v>
+      </c>
+      <c r="AH17">
+        <v>0.5783794487705053</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>128</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.105</v>
+      </c>
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18">
+        <v>0.3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18">
+        <v>0.01</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.05</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>16</v>
+      </c>
+      <c r="AA18">
+        <v>1E-05</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>1E-08</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>5</v>
+      </c>
+      <c r="AG18">
+        <v>0.4823306281980891</v>
+      </c>
+      <c r="AH18">
+        <v>0.5725829868609268</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>128</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.105</v>
+      </c>
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19">
+        <v>0.3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19">
+        <v>0.01</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.05</v>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>16</v>
+      </c>
+      <c r="AA19">
+        <v>1E-05</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>1E-08</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>5</v>
+      </c>
+      <c r="AG19">
+        <v>0.4983525916425852</v>
+      </c>
+      <c r="AH19">
+        <v>0.5874730493255385</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>128</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.105</v>
+      </c>
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20">
+        <v>0.3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20">
+        <v>0.01</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.05</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>16</v>
+      </c>
+      <c r="AA20">
+        <v>1E-05</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>1E-08</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>5</v>
+      </c>
+      <c r="AG20">
+        <v>0.485222505288086</v>
+      </c>
+      <c r="AH20">
+        <v>0.5743165918991666</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>128</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.105</v>
+      </c>
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21">
+        <v>0.3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21">
+        <v>0.01</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.05</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>16</v>
+      </c>
+      <c r="AA21">
+        <v>1E-05</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>1E-08</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>5</v>
+      </c>
+      <c r="AG21">
+        <v>0.4646645499649522</v>
+      </c>
+      <c r="AH21">
+        <v>0.5807680174366916</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/big_results.xlsx
+++ b/big_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="140">
   <si>
     <t>model_base</t>
   </si>
@@ -124,15 +124,36 @@
     <t>hash</t>
   </si>
   <si>
+    <t>random_seed</t>
+  </si>
+  <si>
     <t>microsoft/infoxlm-base</t>
   </si>
   <si>
     <t>['arc', 'argmin', 'fnc1', 'iac1', 'ibmcs', 'perspectrum', 'semeval2016t6', 'snopes', 'twitter2015', 'twitter2017', 'vast']</t>
   </si>
   <si>
+    <t>['arc', 'argmin', 'fnc1', 'iac1', 'ibmcs', 'perspectrum', 'semeval2016t6', 'snopes', 'twitter2015', 'twitter2017', 'vast', 'comb_nlpcc_5']</t>
+  </si>
+  <si>
+    <t>['arc', 'argmin', 'fnc1', 'iac1', 'ibmcs', 'perspectrum', 'semeval2016t6', 'snopes', 'twitter2015', 'twitter2017', 'vast', 'comb_nlpcc_32']</t>
+  </si>
+  <si>
+    <t>['arc', 'argmin', 'fnc1', 'iac1', 'ibmcs', 'perspectrum', 'semeval2016t6', 'snopes', 'twitter2015', 'twitter2017', 'vast', 'comb_nlpcc_128']</t>
+  </si>
+  <si>
+    <t>['arc', 'argmin', 'fnc1', 'iac1', 'ibmcs', 'perspectrum', 'semeval2016t6', 'snopes', 'twitter2015', 'twitter2017', 'vast', 'comb_nlpcc_256']</t>
+  </si>
+  <si>
     <t>stance_3</t>
   </si>
   <si>
+    <t>stance_0</t>
+  </si>
+  <si>
+    <t>senti-stance</t>
+  </si>
+  <si>
     <t>equal</t>
   </si>
   <si>
@@ -211,6 +232,78 @@
     <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-attempt_r5/checkpoint-best</t>
   </si>
   <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-attempt_r5/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-ld_mldoc-extra_mlm-amazonzh-variant_3-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-ld_mldoc-extra_mlm-amazonzh-variant_3-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-ld_mldoc-extra_mlm-amazonzh-variant_3-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-ld_mldoc-extra_mlm-amazonzh-variant_3-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-ld_mldoc-extra_mlm-amazonzh-variant_3-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../senti-stance/outputs/senti-stance_expt-r0/checkpoint-best/</t>
+  </si>
+  <si>
+    <t>../senti-stance/outputs/senti-stance_expt-r1/checkpoint-best/</t>
+  </si>
+  <si>
+    <t>../senti-stance/outputs/senti-stance_expt-r2/checkpoint-best/</t>
+  </si>
+  <si>
+    <t>../senti-stance/outputs/senti-stance_expt-r3/checkpoint-best/</t>
+  </si>
+  <si>
+    <t>../senti-stance/outputs/senti-stance_expt-r4/checkpoint-best/</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-fs5-attempt_0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-fs32-attempt_0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-fs128-attempt_0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-fs256-attempt_0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-fs5-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-fs32-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-fs5-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-fs5-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
     <t>fd6ee81ee999aa9e844bce113233547d33e8e4c8994a0ca88ff563fef9b48851</t>
   </si>
   <si>
@@ -269,6 +362,78 @@
   </si>
   <si>
     <t>e7025f1b4497bfc7d6a4b1035dea324632d623396d580ce70714b826e4df5bac</t>
+  </si>
+  <si>
+    <t>af09d38867693e4016addc04e068c1f9928d009190de9b55b20b29a4cb438670</t>
+  </si>
+  <si>
+    <t>92ac6249c339deec5e54d73eab8af01f1f00e8f9cb48edc3fd999107637edf1d</t>
+  </si>
+  <si>
+    <t>194cc889e3d41e747582c6f138ff0e8e460d1210729a3a69bb800ad82511163b</t>
+  </si>
+  <si>
+    <t>b247c7dbc718bc7dba1de426f654208932d4bfab2fd5a2e61895297d66e29fc3</t>
+  </si>
+  <si>
+    <t>80dc049cb201cb64bcabd100b390f114d6e98ef9a0f77c2455adb2865e024b7b</t>
+  </si>
+  <si>
+    <t>d9511fe22cd096f9e156f74eaa7123abb4619647742796af43726603b483efd5</t>
+  </si>
+  <si>
+    <t>08f42f8dea509b8a368eb92df97fd2a35c73d1e71abd80e9225a84edf406394a</t>
+  </si>
+  <si>
+    <t>aca95d98052d6f2433031d40b027eb42ecf329030bc7e2d801dd9a8304667a39</t>
+  </si>
+  <si>
+    <t>95fd4e246cee80f3dda1b8e7ad85b195cae431bc137d2c5fb1db91b74bb0995e</t>
+  </si>
+  <si>
+    <t>f306366a7e9c15f2ca35473c798a2a560cce1b3deae4bfec4d4971b6264984aa</t>
+  </si>
+  <si>
+    <t>39ed52c21cdac807d16878016ebe0e00f3ecf7b9ab5e6337a858edff3d53fe71</t>
+  </si>
+  <si>
+    <t>748ac50f9f4b304afffc0a961dcb05ddd97188b970e76e24257d450af83582be</t>
+  </si>
+  <si>
+    <t>559d03230475e4559bf51ba18a898d2ff78e6d7ca2d61eccd829a0f231b1d075</t>
+  </si>
+  <si>
+    <t>2687b97c540f03ed9ddbc1143d4133a68ee5494f556047666481507aebc5f1cf</t>
+  </si>
+  <si>
+    <t>8e92accbabc71f06f077b2e9a5512c0379b7c468604dcaf222f1fa5b20031c4d</t>
+  </si>
+  <si>
+    <t>f464c8e5f3264ed6dc150e1bb6874fefbbf14e85265c2ec7c665a361fa5651cc</t>
+  </si>
+  <si>
+    <t>74b9066e604de94398aa8c9705719122ad49a33fde005e5b879322b71ec0af39</t>
+  </si>
+  <si>
+    <t>50f79fcd52604ec0d09e3865fbc93703fc1c5fc03c76acfbb25883586993f91e</t>
+  </si>
+  <si>
+    <t>b9ead73e2d77899b05fe6fc497ad33c989054e7d27fee0ec12fe6963339be8aa</t>
+  </si>
+  <si>
+    <t>7b27b000bc70707aacdd24e96795eadeb00f3002c63d070441f82bb842486924</t>
+  </si>
+  <si>
+    <t>7e5cd4db42d55ddc14dbec9bf82bbc19b2749460e5e01e5ec74d4fa882d1d072</t>
+  </si>
+  <si>
+    <t>3f4228a6f7b4f2701ff1f80c6d315c74d35a012d4e06464b2200bb1f9eb68489</t>
+  </si>
+  <si>
+    <t>09e184713efea0d31ce5a12d31ca9a85e213d985d2060bd7f685fb631c415d3d</t>
+  </si>
+  <si>
+    <t>25549606c3fbfa3808ce744416defa1f81efa4c550bb0c29ad82b43e30de5ef6</t>
   </si>
 </sst>
 </file>
@@ -626,13 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AK45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,16 +906,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>128</v>
@@ -768,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>0.3</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L2">
         <v>0.01</v>
@@ -795,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="T2" t="b">
         <v>0</v>
@@ -804,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W2" t="b">
         <v>0</v>
@@ -834,21 +1002,21 @@
         <v>0.586876838814128</v>
       </c>
       <c r="AI2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AJ2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>128</v>
@@ -866,13 +1034,13 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J3">
         <v>0.3</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L3">
         <v>0.01</v>
@@ -893,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="T3" t="b">
         <v>0</v>
@@ -902,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -932,21 +1100,21 @@
         <v>0.5406144299719992</v>
       </c>
       <c r="AI3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AJ3" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>128</v>
@@ -964,13 +1132,13 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <v>0.3</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L4">
         <v>0.01</v>
@@ -991,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
@@ -1000,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
@@ -1030,21 +1198,21 @@
         <v>0.5667721825824592</v>
       </c>
       <c r="AI4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="AJ4" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>128</v>
@@ -1062,13 +1230,13 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>0.3</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L5">
         <v>0.01</v>
@@ -1089,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="T5" t="b">
         <v>0</v>
@@ -1098,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -1131,21 +1299,21 @@
         <v>0.6045533966268596</v>
       </c>
       <c r="AI5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>128</v>
@@ -1163,13 +1331,13 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>0.3</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L6">
         <v>0.01</v>
@@ -1190,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="T6" t="b">
         <v>0</v>
@@ -1199,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
@@ -1232,21 +1400,21 @@
         <v>0.5962915173237754</v>
       </c>
       <c r="AI6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AJ6" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>128</v>
@@ -1264,13 +1432,13 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>0.3</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L7">
         <v>0.01</v>
@@ -1291,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="T7" t="b">
         <v>0</v>
@@ -1300,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1333,21 +1501,21 @@
         <v>0.548275033369672</v>
       </c>
       <c r="AI7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AJ7" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>128</v>
@@ -1365,13 +1533,13 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J8">
         <v>0.3</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L8">
         <v>0.01</v>
@@ -1392,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
@@ -1401,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -1434,21 +1602,21 @@
         <v>0.5992932797694498</v>
       </c>
       <c r="AI8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AJ8" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>128</v>
@@ -1466,13 +1634,13 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <v>0.3</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L9">
         <v>0.01</v>
@@ -1493,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
@@ -1502,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -1535,21 +1703,21 @@
         <v>0.6024706091886282</v>
       </c>
       <c r="AI9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AJ9" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>128</v>
@@ -1567,13 +1735,13 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>0.3</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L10">
         <v>0.01</v>
@@ -1600,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
@@ -1609,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="Y10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Z10">
         <v>16</v>
@@ -1636,21 +1804,21 @@
         <v>0.5967769542168483</v>
       </c>
       <c r="AI10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>128</v>
@@ -1668,13 +1836,13 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>0.3</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L11">
         <v>0.01</v>
@@ -1701,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
@@ -1710,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="Y11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Z11">
         <v>16</v>
@@ -1737,21 +1905,21 @@
         <v>0.5515704454402147</v>
       </c>
       <c r="AI11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AJ11" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>128</v>
@@ -1769,13 +1937,13 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>0.3</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L12">
         <v>0.01</v>
@@ -1802,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
@@ -1811,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Z12">
         <v>16</v>
@@ -1838,21 +2006,21 @@
         <v>0.552774178025092</v>
       </c>
       <c r="AI12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AJ12" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>128</v>
@@ -1870,13 +2038,13 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J13">
         <v>0.3</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L13">
         <v>0.01</v>
@@ -1903,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
@@ -1912,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="Y13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Z13">
         <v>16</v>
@@ -1939,21 +2107,21 @@
         <v>0.5592074033081228</v>
       </c>
       <c r="AI13" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AJ13" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:37">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>128</v>
@@ -1971,13 +2139,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J14">
         <v>0.3</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L14">
         <v>0.01</v>
@@ -2004,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W14" t="b">
         <v>0</v>
@@ -2013,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="Y14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Z14">
         <v>16</v>
@@ -2040,21 +2208,21 @@
         <v>0.5417429045080056</v>
       </c>
       <c r="AI14" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AJ14" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:37">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>128</v>
@@ -2072,13 +2240,13 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J15">
         <v>0.3</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L15">
         <v>0.01</v>
@@ -2105,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
@@ -2114,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="Y15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Z15">
         <v>16</v>
@@ -2141,21 +2309,21 @@
         <v>0.5698282299315306</v>
       </c>
       <c r="AI15" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:37">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>128</v>
@@ -2173,13 +2341,13 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J16">
         <v>0.3</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L16">
         <v>0.01</v>
@@ -2206,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
@@ -2239,21 +2407,21 @@
         <v>0.5810215530620623</v>
       </c>
       <c r="AI16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AJ16" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:37">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>128</v>
@@ -2271,13 +2439,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J17">
         <v>0.3</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L17">
         <v>0.01</v>
@@ -2304,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W17" t="b">
         <v>0</v>
@@ -2337,21 +2505,21 @@
         <v>0.5783794487705053</v>
       </c>
       <c r="AI17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:37">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>128</v>
@@ -2369,13 +2537,13 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J18">
         <v>0.3</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L18">
         <v>0.01</v>
@@ -2402,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W18" t="b">
         <v>0</v>
@@ -2435,21 +2603,21 @@
         <v>0.5725829868609268</v>
       </c>
       <c r="AI18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AJ18" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:37">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>128</v>
@@ -2467,13 +2635,13 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J19">
         <v>0.3</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L19">
         <v>0.01</v>
@@ -2500,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
@@ -2533,21 +2701,21 @@
         <v>0.5874730493255385</v>
       </c>
       <c r="AI19" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AJ19" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:37">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>128</v>
@@ -2565,13 +2733,13 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J20">
         <v>0.3</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L20">
         <v>0.01</v>
@@ -2598,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
@@ -2631,21 +2799,21 @@
         <v>0.5743165918991666</v>
       </c>
       <c r="AI20" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:37">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D21">
         <v>128</v>
@@ -2663,13 +2831,13 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J21">
         <v>0.3</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L21">
         <v>0.01</v>
@@ -2696,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
@@ -2729,10 +2897,2344 @@
         <v>0.5807680174366916</v>
       </c>
       <c r="AI21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AJ21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>128</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.105</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22">
+        <v>0.3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22">
+        <v>0.01</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.05</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>50</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>16</v>
+      </c>
+      <c r="AA22">
+        <v>1E-05</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>1E-08</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>5</v>
+      </c>
+      <c r="AG22">
+        <v>0.4684228338486369</v>
+      </c>
+      <c r="AH22">
+        <v>0.4684228338486369</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>128</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.105</v>
+      </c>
+      <c r="G23">
+        <v>0.5</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23">
+        <v>0.3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23">
+        <v>0.01</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.05</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>50</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>16</v>
+      </c>
+      <c r="AA23">
+        <v>1E-05</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>1E-08</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>5</v>
+      </c>
+      <c r="AG23">
+        <v>0.4768825516422612</v>
+      </c>
+      <c r="AH23">
+        <v>0.4768825516422612</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>128</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.105</v>
+      </c>
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24">
+        <v>0.3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24">
+        <v>0.01</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.05</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>50</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>16</v>
+      </c>
+      <c r="AA24">
+        <v>1E-05</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>1E-08</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>5</v>
+      </c>
+      <c r="AG24">
+        <v>0.4707042761620226</v>
+      </c>
+      <c r="AH24">
+        <v>0.4707042761620226</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>128</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.105</v>
+      </c>
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25">
+        <v>0.3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25">
+        <v>0.01</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.05</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>50</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>16</v>
+      </c>
+      <c r="AA25">
+        <v>1E-05</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>1E-08</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>5</v>
+      </c>
+      <c r="AG25">
+        <v>0.4838860649382388</v>
+      </c>
+      <c r="AH25">
+        <v>0.4838860649382388</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>128</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.105</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26">
+        <v>0.3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26">
+        <v>0.01</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0.05</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>50</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>16</v>
+      </c>
+      <c r="AA26">
+        <v>1E-05</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>1E-08</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>5</v>
+      </c>
+      <c r="AG26">
+        <v>0.4738659533516283</v>
+      </c>
+      <c r="AH26">
+        <v>0.4738659533516283</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>128</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.105</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27">
+        <v>0.3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27">
+        <v>0.01</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0.05</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>50</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>16</v>
+      </c>
+      <c r="AA27">
+        <v>1E-05</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>1E-08</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>5</v>
+      </c>
+      <c r="AG27">
+        <v>0.4806648190197469</v>
+      </c>
+      <c r="AH27">
+        <v>0.4806648190197469</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>128</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.105</v>
+      </c>
+      <c r="G28">
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28">
+        <v>0.3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28">
+        <v>0.01</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0.05</v>
+      </c>
+      <c r="R28" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>49</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>50</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z28">
+        <v>16</v>
+      </c>
+      <c r="AA28">
+        <v>1E-05</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>1E-08</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>5</v>
+      </c>
+      <c r="AG28">
+        <v>0.4593320196055152</v>
+      </c>
+      <c r="AH28">
+        <v>0.5427824095978321</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>128</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.105</v>
+      </c>
+      <c r="G29">
+        <v>0.5</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29">
+        <v>0.3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29">
+        <v>0.01</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.05</v>
+      </c>
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>49</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" t="b">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>50</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z29">
+        <v>16</v>
+      </c>
+      <c r="AA29">
+        <v>1E-05</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>1E-08</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>5</v>
+      </c>
+      <c r="AG29">
+        <v>0.472590624022142</v>
+      </c>
+      <c r="AH29">
+        <v>0.5965473344148484</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>128</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.105</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30">
+        <v>0.3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30">
+        <v>0.01</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0.05</v>
+      </c>
+      <c r="R30" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s">
+        <v>49</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>50</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z30">
+        <v>16</v>
+      </c>
+      <c r="AA30">
+        <v>1E-05</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>1E-08</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>5</v>
+      </c>
+      <c r="AG30">
+        <v>0.4857640834377365</v>
+      </c>
+      <c r="AH30">
+        <v>0.5744713747778639</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>128</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0.105</v>
+      </c>
+      <c r="G31">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31">
+        <v>0.3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31">
+        <v>0.01</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0.05</v>
+      </c>
+      <c r="R31" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
+        <v>49</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>50</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z31">
+        <v>16</v>
+      </c>
+      <c r="AA31">
+        <v>1E-05</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>1E-08</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>5</v>
+      </c>
+      <c r="AG31">
+        <v>0.4682004331078098</v>
+      </c>
+      <c r="AH31">
+        <v>0.5514921355930711</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK31">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>128</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.105</v>
+      </c>
+      <c r="G32">
+        <v>0.5</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32">
+        <v>0.3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32">
+        <v>0.01</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0.05</v>
+      </c>
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>50</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z32">
+        <v>16</v>
+      </c>
+      <c r="AA32">
+        <v>1E-05</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>1E-08</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>5</v>
+      </c>
+      <c r="AG32">
+        <v>0.4764352888223502</v>
+      </c>
+      <c r="AH32">
+        <v>0.5490202130648935</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK32">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>128</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.125</v>
+      </c>
+      <c r="G33">
+        <v>0.5</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+      <c r="U33" t="b">
+        <v>0</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>128</v>
+      </c>
+      <c r="AA33">
+        <v>1E-05</v>
+      </c>
+      <c r="AB33">
+        <v>0.01</v>
+      </c>
+      <c r="AC33">
+        <v>1E-08</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>5</v>
+      </c>
+      <c r="AF33">
+        <v>0.4058199569393488</v>
+      </c>
+      <c r="AH33">
+        <v>0.609046157025026</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>128</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.125</v>
+      </c>
+      <c r="G34">
+        <v>0.5</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
+      <c r="U34" t="b">
+        <v>0</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>128</v>
+      </c>
+      <c r="AA34">
+        <v>1E-05</v>
+      </c>
+      <c r="AB34">
+        <v>0.01</v>
+      </c>
+      <c r="AC34">
+        <v>1E-08</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>5</v>
+      </c>
+      <c r="AF34">
+        <v>0.3954930782118511</v>
+      </c>
+      <c r="AH34">
+        <v>0.6074798951361772</v>
+      </c>
+      <c r="AI34" t="s">
         <v>84</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>128</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.125</v>
+      </c>
+      <c r="G35">
+        <v>0.5</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35" t="b">
+        <v>0</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>128</v>
+      </c>
+      <c r="AA35">
+        <v>1E-05</v>
+      </c>
+      <c r="AB35">
+        <v>0.01</v>
+      </c>
+      <c r="AC35">
+        <v>1E-08</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>5</v>
+      </c>
+      <c r="AF35">
+        <v>0.3860712387028176</v>
+      </c>
+      <c r="AH35">
+        <v>0.5910942650574863</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>128</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.125</v>
+      </c>
+      <c r="G36">
+        <v>0.5</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+      <c r="U36" t="b">
+        <v>0</v>
+      </c>
+      <c r="W36" t="b">
+        <v>0</v>
+      </c>
+      <c r="X36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>128</v>
+      </c>
+      <c r="AA36">
+        <v>1E-05</v>
+      </c>
+      <c r="AB36">
+        <v>0.01</v>
+      </c>
+      <c r="AC36">
+        <v>1E-08</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>5</v>
+      </c>
+      <c r="AF36">
+        <v>0.3898129691058814</v>
+      </c>
+      <c r="AH36">
+        <v>0.6074982783720261</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK36">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>128</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.125</v>
+      </c>
+      <c r="G37">
+        <v>0.5</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+      <c r="U37" t="b">
+        <v>0</v>
+      </c>
+      <c r="W37" t="b">
+        <v>0</v>
+      </c>
+      <c r="X37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>128</v>
+      </c>
+      <c r="AA37">
+        <v>1E-05</v>
+      </c>
+      <c r="AB37">
+        <v>0.01</v>
+      </c>
+      <c r="AC37">
+        <v>1E-08</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>5</v>
+      </c>
+      <c r="AF37">
+        <v>0.401672840367219</v>
+      </c>
+      <c r="AH37">
+        <v>0.6143510990665462</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK37">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38">
+        <v>128</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0.105</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38">
+        <v>0.3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38">
+        <v>0.01</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0.05</v>
+      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+      <c r="U38" t="b">
+        <v>0</v>
+      </c>
+      <c r="V38" t="s">
+        <v>50</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>16</v>
+      </c>
+      <c r="AA38">
+        <v>1E-05</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>1E-08</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>5</v>
+      </c>
+      <c r="AG38">
+        <v>0.4834330228414243</v>
+      </c>
+      <c r="AH38">
+        <v>0.5653439153439154</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK38">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39">
+        <v>128</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0.105</v>
+      </c>
+      <c r="G39">
+        <v>0.5</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39">
+        <v>0.3</v>
+      </c>
+      <c r="K39" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39">
+        <v>0.01</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0.05</v>
+      </c>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39" t="b">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
+        <v>50</v>
+      </c>
+      <c r="W39" t="b">
+        <v>0</v>
+      </c>
+      <c r="X39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>16</v>
+      </c>
+      <c r="AA39">
+        <v>1E-05</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>1E-08</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>5</v>
+      </c>
+      <c r="AG39">
+        <v>0.4714363399136356</v>
+      </c>
+      <c r="AH39">
+        <v>0.5644254065099296</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK39">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40">
+        <v>128</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0.105</v>
+      </c>
+      <c r="G40">
+        <v>0.5</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40">
+        <v>0.3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40">
+        <v>0.01</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0.05</v>
+      </c>
+      <c r="R40" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40" t="b">
+        <v>0</v>
+      </c>
+      <c r="V40" t="s">
+        <v>50</v>
+      </c>
+      <c r="W40" t="b">
+        <v>0</v>
+      </c>
+      <c r="X40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>16</v>
+      </c>
+      <c r="AA40">
+        <v>1E-05</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>1E-08</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>5</v>
+      </c>
+      <c r="AG40">
+        <v>0.5070068072489867</v>
+      </c>
+      <c r="AH40">
+        <v>0.5727848700085458</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK40">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>128</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0.105</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41">
+        <v>0.3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41">
+        <v>0.01</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0.05</v>
+      </c>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+      <c r="U41" t="b">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>50</v>
+      </c>
+      <c r="W41" t="b">
+        <v>0</v>
+      </c>
+      <c r="X41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>16</v>
+      </c>
+      <c r="AA41">
+        <v>1E-05</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>1E-08</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>5</v>
+      </c>
+      <c r="AG41">
+        <v>0.5695639875996646</v>
+      </c>
+      <c r="AH41">
+        <v>0.5986787818849619</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>128</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0.105</v>
+      </c>
+      <c r="G42">
+        <v>0.5</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42">
+        <v>0.3</v>
+      </c>
+      <c r="K42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42">
+        <v>0.01</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0.05</v>
+      </c>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42" t="b">
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
+        <v>50</v>
+      </c>
+      <c r="W42" t="b">
+        <v>0</v>
+      </c>
+      <c r="X42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>16</v>
+      </c>
+      <c r="AA42">
+        <v>1E-05</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>1E-08</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>5</v>
+      </c>
+      <c r="AG42">
+        <v>0.468034707105281</v>
+      </c>
+      <c r="AH42">
+        <v>0.5465946161700393</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>128</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.105</v>
+      </c>
+      <c r="G43">
+        <v>0.5</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43">
+        <v>0.3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43">
+        <v>0.01</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0.05</v>
+      </c>
+      <c r="R43" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+      <c r="U43" t="b">
+        <v>0</v>
+      </c>
+      <c r="V43" t="s">
+        <v>50</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+      <c r="X43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>16</v>
+      </c>
+      <c r="AA43">
+        <v>1E-05</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>1E-08</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>5</v>
+      </c>
+      <c r="AG43">
+        <v>0.4986878536557414</v>
+      </c>
+      <c r="AH43">
+        <v>0.5868311116139943</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>128</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0.105</v>
+      </c>
+      <c r="G44">
+        <v>0.5</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44">
+        <v>0.3</v>
+      </c>
+      <c r="K44" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44">
+        <v>0.01</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0.05</v>
+      </c>
+      <c r="R44" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+      <c r="U44" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" t="s">
+        <v>50</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+      <c r="X44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>16</v>
+      </c>
+      <c r="AA44">
+        <v>1E-05</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>1E-08</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>5</v>
+      </c>
+      <c r="AG44">
+        <v>0.4773349776838149</v>
+      </c>
+      <c r="AH44">
+        <v>0.571145443984855</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK44">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>128</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.105</v>
+      </c>
+      <c r="G45">
+        <v>0.5</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45">
+        <v>0.3</v>
+      </c>
+      <c r="K45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45">
+        <v>0.01</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0.05</v>
+      </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+      <c r="U45" t="b">
+        <v>0</v>
+      </c>
+      <c r="V45" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" t="b">
+        <v>0</v>
+      </c>
+      <c r="X45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>16</v>
+      </c>
+      <c r="AA45">
+        <v>1E-05</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>1E-08</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>5</v>
+      </c>
+      <c r="AG45">
+        <v>0.4821491251812839</v>
+      </c>
+      <c r="AH45">
+        <v>0.5657308488509448</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK45">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/big_results.xlsx
+++ b/big_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="283">
   <si>
     <t>model_base</t>
   </si>
@@ -127,6 +127,18 @@
     <t>random_seed</t>
   </si>
   <si>
+    <t>xstance_de_f1</t>
+  </si>
+  <si>
+    <t>rita_f1</t>
+  </si>
+  <si>
+    <t>efra_f1</t>
+  </si>
+  <si>
+    <t>trans_comb_nlpcc_f1</t>
+  </si>
+  <si>
     <t>microsoft/infoxlm-base</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t>['arc', 'argmin', 'fnc1', 'iac1', 'ibmcs', 'perspectrum', 'semeval2016t6', 'snopes', 'twitter2015', 'twitter2017', 'vast', 'comb_nlpcc_256']</t>
   </si>
   <si>
+    <t>['sentistance_mwiki']</t>
+  </si>
+  <si>
     <t>stance_3</t>
   </si>
   <si>
@@ -166,12 +181,21 @@
     <t>amazonzh</t>
   </si>
   <si>
+    <t>amazon_de</t>
+  </si>
+  <si>
     <t>['en_ewt']</t>
   </si>
   <si>
     <t>mldoc</t>
   </si>
   <si>
+    <t>mldoc_de</t>
+  </si>
+  <si>
+    <t>mldoc_it</t>
+  </si>
+  <si>
     <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-reco-variant_3-attempt_r0/checkpoint-best/</t>
   </si>
   <si>
@@ -304,6 +328,201 @@
     <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-fs5-attempt_r1/checkpoint-best</t>
   </si>
   <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-xstance_de-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-xstance_de-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-xstance_de-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-xstance_de-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-xstance_de-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-ld_mldoc_de-variant_3-xstance_de-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-ld_mldoc_de-variant_3-xstance_de-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-ld_mldoc_de-variant_3-xstance_de-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-ld_mldoc_de-variant_3-xstance_de-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-ld_mldoc_de-variant_3-xstance_de-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-ld_mldoc_it-variant_3-rita-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-ld_mldoc_it-variant_3-rita-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-ld_mldoc_it-variant_3-rita-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-ld_mldoc_it-variant_3-rita-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-ld_mldoc_it-variant_3-rita-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-rita-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-rita-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-rita-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-rita-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-rita-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-extra_mlm-amazon_de-variant_3-xstance_de-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-extra_mlm-amazon_de-variant_3-xstance_de-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-extra_mlm-amazon_de-variant_3-xstance_de-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-extra_mlm-amazon_de-variant_3-xstance_de-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-extra_mlm-amazon_de-variant_3-xstance_de-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-efra-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-efra-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-efra-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-efra-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-variant_3-efra-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-rita-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-rita-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-rita-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-rita-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-rita-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3_full_eval-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3_full_eval-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3_full_eval-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3_full_eval-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3_full_eval-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-mlm_12.5-2_neg-variant_3-rita-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-mlm_12.5-2_neg-variant_3-rita-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-mlm_12.5-2_neg-variant_3-rita-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-mlm_12.5-2_neg-variant_3-rita-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-mlm_12.5-2_neg-variant_3-rita-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-xstance_de-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-xstance_de-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-xstance_de-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-xstance_de-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-xstance_de-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-amazonde-variant_3-xstance_de-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-amazonde-variant_3-xstance_de-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-amazonde-variant_3-xstance_de-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-amazonde-variant_3-xstance_de-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-extra_mlm-amazonde-variant_3-xstance_de-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-efra-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-efra-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-efra-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-efra-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-efra-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-mwiki-no_mlm-2_neg-rs_rp-variant_3-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-mwiki-no_mlm-2_neg-rs_rp-variant_3-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-mwiki-no_mlm-2_neg-rs_rp-variant_3-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-mwiki-no_mlm-2_neg-rs_rp-variant_3-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-mwiki-no_mlm-2_neg-rs_rp-variant_3-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
     <t>fd6ee81ee999aa9e844bce113233547d33e8e4c8994a0ca88ff563fef9b48851</t>
   </si>
   <si>
@@ -434,6 +653,216 @@
   </si>
   <si>
     <t>25549606c3fbfa3808ce744416defa1f81efa4c550bb0c29ad82b43e30de5ef6</t>
+  </si>
+  <si>
+    <t>bae792763f87195b1a0fd385ddab692873b785bcb1ffa30d3b29550c9c78aeab</t>
+  </si>
+  <si>
+    <t>460a06ca7ae06f85da933847ff369eca74d4ea3d43ac1efc0b35d6ef450ec222</t>
+  </si>
+  <si>
+    <t>81fb77d8d461adee0637b0c90873b5165ecd1252e531ef54fcf1fc7e5c535e9b</t>
+  </si>
+  <si>
+    <t>2d4442fcb8c358ed150d2c08b8dd85312dab4f978d5714d6fc59ada1803d8a2b</t>
+  </si>
+  <si>
+    <t>f3af58575c15e62e305b6de93e9412fa989526fc2dfe469b0f3b9c2e034ae364</t>
+  </si>
+  <si>
+    <t>b386091e8e5447511c987c0e8d903f433bd45a4662db9f6e36941611615f4f39</t>
+  </si>
+  <si>
+    <t>2ae71b2e4114a2589dd2f4a4af8d9c32cb732856c01ccadfd19b4922a159cdf0</t>
+  </si>
+  <si>
+    <t>7b4f9bf04c8d2707ae49f90809aa9ee0cc55fdb0b869e3fb4f53e8e06665bcd5</t>
+  </si>
+  <si>
+    <t>205346b51a1b84c380071b289369bfcf257f78eb0e476fd68c78d02a21b9c81d</t>
+  </si>
+  <si>
+    <t>fddcaaae4d88f4f2f876a98be5554180683212200463bbb77cd281a99636b881</t>
+  </si>
+  <si>
+    <t>e68796f6b2b2b0300f3619f57962319a127416d533aa1331634ca9a1683b8831</t>
+  </si>
+  <si>
+    <t>29e05dd6319e464253dab3a9c78485cb47958ee2990932d8e10c8b5d9248c506</t>
+  </si>
+  <si>
+    <t>2f6ef6c878abfeb48c18d1129dd34ded2bae5b5b44f7d4baebe317949a827eb0</t>
+  </si>
+  <si>
+    <t>15cae430a689b1203bb0dbdef3b2f40e7b972dcc9a3a2c12dba41b10d790d153</t>
+  </si>
+  <si>
+    <t>53a4a65725ecfeef0f98ece63a62da4f7d03f754b8b9c664d2717f83f0ac5462</t>
+  </si>
+  <si>
+    <t>d2201cc10386d74cdf501541a97cabb8d70b7200c3eadc35c8372275d2ed5353</t>
+  </si>
+  <si>
+    <t>edc1720fe1e5270218cfaa2edb9fd40385c72b7fc852b699690e73690eacf984</t>
+  </si>
+  <si>
+    <t>87ed0989e433dd963c877119fac506f6de55e186a35bab5c5f321354c08f8a77</t>
+  </si>
+  <si>
+    <t>01e269cf89ccdb00da22932837b4e297a4bb1730501e98f4336d257f6aa76079</t>
+  </si>
+  <si>
+    <t>ba3c3803d2a2b0681574708276c8bdb2cc0c3058a45eb2cbdbcb9bf475ae06f1</t>
+  </si>
+  <si>
+    <t>81d1f8a20c468b1a9bda4379f11da782512afa8bf0b9062ecc429b4d8d99d9fd</t>
+  </si>
+  <si>
+    <t>ffa976e86cd8d201b2c513326a59e036ef7cb00abccd4fb4ff91ca4a182f381d</t>
+  </si>
+  <si>
+    <t>75d9ed571ed71f5f6629c47a5fad6f0cef4a2aa1355b6caeda27d492c711cf11</t>
+  </si>
+  <si>
+    <t>aa3155f9fdd475a7954133cb5c8d739ccca811dd78305d82417d9f438522f7a5</t>
+  </si>
+  <si>
+    <t>85de1ca64f53205286a94e227660e914d839d371ed2473cbdc851b827f3788f3</t>
+  </si>
+  <si>
+    <t>366ce2c708024b7ae184aef43855f06ba217737d7e45a1f8b14fcdec01636607</t>
+  </si>
+  <si>
+    <t>9fbfad67a28a4c55369791ef0249fe8619948eecc843e741fdbd531f810f895b</t>
+  </si>
+  <si>
+    <t>4b6012454dd82d81d7cef99dba65f2cb9e8afa61789326937e185aac51258624</t>
+  </si>
+  <si>
+    <t>a1e1897991a74bbc92b66416d5368c287da8dd69182367ebd60bbec4064bd7e7</t>
+  </si>
+  <si>
+    <t>ef3a8d75ef426cd59643abfa4203ee568d3e80492c2f602fd3c35613c6302b22</t>
+  </si>
+  <si>
+    <t>37a9be3c8c657ae7cdd827e3006938ae14af67bb247a11164358b52adac8098d</t>
+  </si>
+  <si>
+    <t>9e8aa7303f090bc1568805c17a7120c8627ff3b784ed3f40c284142015e58cdb</t>
+  </si>
+  <si>
+    <t>29b843f9c71a0ed1f85341ddf0061db641a40e81179632e1308ca1373db0a2cc</t>
+  </si>
+  <si>
+    <t>ea730672867c1153d5c6fec74d4c1dcba8566933ed4c676bdbc0d9a8c7877f2c</t>
+  </si>
+  <si>
+    <t>43dfe15a210c4a02ff219eb5ab21364b1c2672e6ec762e22c0a7a8963065a758</t>
+  </si>
+  <si>
+    <t>e3c739f5c3bda2ea88347c9f86d8d6296fd156905865973e40b96116ef70eb36</t>
+  </si>
+  <si>
+    <t>ed1022d56957de060ae64ae15e45c0fdc97512ffd16f254fc19ff89d860ffdea</t>
+  </si>
+  <si>
+    <t>047700951fe9154bd3f78dcd4ff2eaccf6d345878b7c252f35dbc85772d5b053</t>
+  </si>
+  <si>
+    <t>4efdb44d2baffa8e1125781eede95e82c953b730cfeccd335c1f3354287d09e9</t>
+  </si>
+  <si>
+    <t>8adc74b43ad6b74981d1413ce952633b531f6899521ba2ae637d7fc95dd0b230</t>
+  </si>
+  <si>
+    <t>0435ec7a50879efa4cac9f07c9a4070db42d047c2b59837dedf39b93355519e5</t>
+  </si>
+  <si>
+    <t>3d9c75ed61384e720c240033412b6199eaa9d72a726db224ac3d91d5c8c29d38</t>
+  </si>
+  <si>
+    <t>97d1469f90e3ff3123adf0a394211adc8e3256640d79dfc67a5a694355290894</t>
+  </si>
+  <si>
+    <t>fcdfd4f2b47af3dba8de91f2af4503e783d749efa87f47a2043edb658010c60b</t>
+  </si>
+  <si>
+    <t>492b912d01aa4fbe095f3fdbb626e4558b59932fe99a0e66fd83aa909f240633</t>
+  </si>
+  <si>
+    <t>278fbc983f9efe8a9aae339f81079ce4427ec85c3883f4fe01416ff9bb770255</t>
+  </si>
+  <si>
+    <t>fae01e1a538eb66e515c88b93c037e74499504fec6bae89558281f803f1afcf1</t>
+  </si>
+  <si>
+    <t>ab71ab315b7927f56cfa7590b82901646a23b0ca37cf952e7f24349a20f2357d</t>
+  </si>
+  <si>
+    <t>bf4d3395136b779045dd46d9b67ded3b87c8f233931da3788db554d9fd6410ae</t>
+  </si>
+  <si>
+    <t>976c124183f1d8d3b515f91bcd78b1bd17b6900986a254552d5d98da35b7b7d5</t>
+  </si>
+  <si>
+    <t>763258b00780b54d2bf9251faf75ac08032fcbdce267872ee865f33ec2928736</t>
+  </si>
+  <si>
+    <t>9d3ef30e4d17242040914bd977339ae36c06d80ccba03ef5974155ef1e09cc9c</t>
+  </si>
+  <si>
+    <t>451a98d5c416fd37dd9a910d3ce6f4f6064895e67fc85ffaaebe53630980efe8</t>
+  </si>
+  <si>
+    <t>0aaeaf5d6cb372da6c8b4bfc53d5827f1a560862ad98d6acb07e8de2c0ddb216</t>
+  </si>
+  <si>
+    <t>7958efa0a455cb4c09bfc28a4f43d6655c1a114383c32be49c85e46925b35698</t>
+  </si>
+  <si>
+    <t>ecabb1bd37ddf2902b670a62ce62b8a936557e99d937c7241b60b57bd4cc4c7e</t>
+  </si>
+  <si>
+    <t>2af083fc9aab3697ee11bd12c2ab15bb0d7396aa6b485f8a4a3a9c1e644063e0</t>
+  </si>
+  <si>
+    <t>174f802e0cb63dcf0982d807a51b34c6c6375d03df0368088e50dd56c955711a</t>
+  </si>
+  <si>
+    <t>4268a3bcc09226222b42fa2e5e4fc884af484fe4d3e89cd251202308715a4322</t>
+  </si>
+  <si>
+    <t>30a643692721fc226b73a5802cd9084758439db11c6597ea63c17be4c010c29a</t>
+  </si>
+  <si>
+    <t>be9c91180be230536100faabc76f9c10d04abf1af038f2199697edc22fe49e1c</t>
+  </si>
+  <si>
+    <t>3d9a767a3d56d74d929790fe595f19af27f2d96ff8ffc6c79c9313496531832a</t>
+  </si>
+  <si>
+    <t>07c0caa9dfa6b14d23d1b940c8569220b108d4cc6cfacf2359af64994b4f15a8</t>
+  </si>
+  <si>
+    <t>fb199dd3ac82cdf8ba7b699072cafdcd3b5c57857146513302ef33da4c884006</t>
+  </si>
+  <si>
+    <t>a2c4c6fee45deb2972ad7ca1cab3f7ea9faac5089317cd135b2914ca568f32fa</t>
+  </si>
+  <si>
+    <t>04681ff24430cbc21258e4b5b9091faa2433753ee017a87434f6c2212d6873ea</t>
+  </si>
+  <si>
+    <t>c6db9a13a6dbc55aed47975cc856634b1aa92340a8897a027f8be9d0434438f4</t>
+  </si>
+  <si>
+    <t>285677901989421a2138ccf2cf1879564df6ed5dd663c716f4436e5eeb2b6945</t>
+  </si>
+  <si>
+    <t>7ca13a98a5affb269891e21854e3e8e73ddd39ed29d5e5aa7bb51c4307e76b7d</t>
+  </si>
+  <si>
+    <t>c0e86aa42f9c5c0a13f1436d0966450c70822b3e5eccdb0fa8a4dc41bfe52cfc</t>
   </si>
 </sst>
 </file>
@@ -791,13 +1220,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK45"/>
+  <dimension ref="A1:AO115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,16 +1338,28 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>128</v>
@@ -936,13 +1377,13 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J2">
         <v>0.3</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L2">
         <v>0.01</v>
@@ -963,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T2" t="b">
         <v>0</v>
@@ -972,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W2" t="b">
         <v>0</v>
@@ -1002,21 +1443,21 @@
         <v>0.586876838814128</v>
       </c>
       <c r="AI2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>128</v>
@@ -1034,13 +1475,13 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J3">
         <v>0.3</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L3">
         <v>0.01</v>
@@ -1061,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T3" t="b">
         <v>0</v>
@@ -1070,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -1100,21 +1541,21 @@
         <v>0.5406144299719992</v>
       </c>
       <c r="AI3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AJ3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>128</v>
@@ -1132,13 +1573,13 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>0.3</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L4">
         <v>0.01</v>
@@ -1159,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
@@ -1168,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
@@ -1198,21 +1639,21 @@
         <v>0.5667721825824592</v>
       </c>
       <c r="AI4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>128</v>
@@ -1230,13 +1671,13 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J5">
         <v>0.3</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L5">
         <v>0.01</v>
@@ -1257,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T5" t="b">
         <v>0</v>
@@ -1266,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -1299,21 +1740,21 @@
         <v>0.6045533966268596</v>
       </c>
       <c r="AI5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AJ5" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>128</v>
@@ -1331,13 +1772,13 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>0.3</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L6">
         <v>0.01</v>
@@ -1358,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T6" t="b">
         <v>0</v>
@@ -1367,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
@@ -1400,21 +1841,21 @@
         <v>0.5962915173237754</v>
       </c>
       <c r="AI6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="AJ6" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>128</v>
@@ -1432,13 +1873,13 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J7">
         <v>0.3</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L7">
         <v>0.01</v>
@@ -1459,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T7" t="b">
         <v>0</v>
@@ -1468,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1501,21 +1942,21 @@
         <v>0.548275033369672</v>
       </c>
       <c r="AI7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>128</v>
@@ -1533,13 +1974,13 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J8">
         <v>0.3</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L8">
         <v>0.01</v>
@@ -1560,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
@@ -1569,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -1602,21 +2043,21 @@
         <v>0.5992932797694498</v>
       </c>
       <c r="AI8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AJ8" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>128</v>
@@ -1634,13 +2075,13 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J9">
         <v>0.3</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L9">
         <v>0.01</v>
@@ -1661,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
@@ -1670,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -1703,21 +2144,21 @@
         <v>0.6024706091886282</v>
       </c>
       <c r="AI9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AJ9" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>128</v>
@@ -1735,13 +2176,13 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J10">
         <v>0.3</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L10">
         <v>0.01</v>
@@ -1768,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
@@ -1777,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="Y10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Z10">
         <v>16</v>
@@ -1804,21 +2245,21 @@
         <v>0.5967769542168483</v>
       </c>
       <c r="AI10" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AJ10" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>128</v>
@@ -1836,13 +2277,13 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>0.3</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L11">
         <v>0.01</v>
@@ -1869,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
@@ -1878,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="Y11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Z11">
         <v>16</v>
@@ -1905,21 +2346,21 @@
         <v>0.5515704454402147</v>
       </c>
       <c r="AI11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AJ11" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>128</v>
@@ -1937,13 +2378,13 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J12">
         <v>0.3</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L12">
         <v>0.01</v>
@@ -1970,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
@@ -1979,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Z12">
         <v>16</v>
@@ -2006,21 +2447,21 @@
         <v>0.552774178025092</v>
       </c>
       <c r="AI12" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>128</v>
@@ -2038,13 +2479,13 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J13">
         <v>0.3</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L13">
         <v>0.01</v>
@@ -2071,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
@@ -2080,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="Y13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Z13">
         <v>16</v>
@@ -2107,21 +2548,21 @@
         <v>0.5592074033081228</v>
       </c>
       <c r="AI13" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AJ13" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>128</v>
@@ -2139,13 +2580,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>0.3</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L14">
         <v>0.01</v>
@@ -2172,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W14" t="b">
         <v>0</v>
@@ -2181,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="Y14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Z14">
         <v>16</v>
@@ -2208,21 +2649,21 @@
         <v>0.5417429045080056</v>
       </c>
       <c r="AI14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AJ14" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>128</v>
@@ -2240,13 +2681,13 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>0.3</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L15">
         <v>0.01</v>
@@ -2273,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
@@ -2282,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="Y15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Z15">
         <v>16</v>
@@ -2309,21 +2750,21 @@
         <v>0.5698282299315306</v>
       </c>
       <c r="AI15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>128</v>
@@ -2341,13 +2782,13 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J16">
         <v>0.3</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L16">
         <v>0.01</v>
@@ -2374,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
@@ -2407,21 +2848,21 @@
         <v>0.5810215530620623</v>
       </c>
       <c r="AI16" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:37">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>128</v>
@@ -2439,13 +2880,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J17">
         <v>0.3</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L17">
         <v>0.01</v>
@@ -2472,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W17" t="b">
         <v>0</v>
@@ -2505,21 +2946,21 @@
         <v>0.5783794487705053</v>
       </c>
       <c r="AI17" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:37">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>128</v>
@@ -2537,13 +2978,13 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J18">
         <v>0.3</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L18">
         <v>0.01</v>
@@ -2570,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W18" t="b">
         <v>0</v>
@@ -2603,21 +3044,21 @@
         <v>0.5725829868609268</v>
       </c>
       <c r="AI18" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:37">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>128</v>
@@ -2635,13 +3076,13 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J19">
         <v>0.3</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L19">
         <v>0.01</v>
@@ -2668,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
@@ -2701,21 +3142,21 @@
         <v>0.5874730493255385</v>
       </c>
       <c r="AI19" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:37">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>128</v>
@@ -2733,13 +3174,13 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J20">
         <v>0.3</v>
       </c>
       <c r="K20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L20">
         <v>0.01</v>
@@ -2766,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
@@ -2799,21 +3240,21 @@
         <v>0.5743165918991666</v>
       </c>
       <c r="AI20" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:37">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>128</v>
@@ -2831,13 +3272,13 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J21">
         <v>0.3</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L21">
         <v>0.01</v>
@@ -2864,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
@@ -2897,21 +3338,21 @@
         <v>0.5807680174366916</v>
       </c>
       <c r="AI21" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:37">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>128</v>
@@ -2929,13 +3370,13 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>0.3</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L22">
         <v>0.01</v>
@@ -2962,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
@@ -2995,10 +3436,10 @@
         <v>0.4684228338486369</v>
       </c>
       <c r="AI22" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="AK22">
         <v>50</v>
@@ -3006,13 +3447,13 @@
     </row>
     <row r="23" spans="1:37">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>128</v>
@@ -3030,13 +3471,13 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J23">
         <v>0.3</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L23">
         <v>0.01</v>
@@ -3063,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
@@ -3096,10 +3537,10 @@
         <v>0.4768825516422612</v>
       </c>
       <c r="AI23" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="AK23">
         <v>51</v>
@@ -3107,13 +3548,13 @@
     </row>
     <row r="24" spans="1:37">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>128</v>
@@ -3131,13 +3572,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J24">
         <v>0.3</v>
       </c>
       <c r="K24" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L24">
         <v>0.01</v>
@@ -3164,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
@@ -3197,10 +3638,10 @@
         <v>0.4707042761620226</v>
       </c>
       <c r="AI24" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AJ24" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="AK24">
         <v>52</v>
@@ -3208,13 +3649,13 @@
     </row>
     <row r="25" spans="1:37">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D25">
         <v>128</v>
@@ -3232,13 +3673,13 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J25">
         <v>0.3</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L25">
         <v>0.01</v>
@@ -3265,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W25" t="b">
         <v>0</v>
@@ -3298,10 +3739,10 @@
         <v>0.4838860649382388</v>
       </c>
       <c r="AI25" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AJ25" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="AK25">
         <v>53</v>
@@ -3309,13 +3750,13 @@
     </row>
     <row r="26" spans="1:37">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D26">
         <v>128</v>
@@ -3333,13 +3774,13 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J26">
         <v>0.3</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L26">
         <v>0.01</v>
@@ -3366,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W26" t="b">
         <v>0</v>
@@ -3399,10 +3840,10 @@
         <v>0.4738659533516283</v>
       </c>
       <c r="AI26" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ26" t="s">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="AK26">
         <v>54</v>
@@ -3410,13 +3851,13 @@
     </row>
     <row r="27" spans="1:37">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>128</v>
@@ -3434,13 +3875,13 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J27">
         <v>0.3</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L27">
         <v>0.01</v>
@@ -3467,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W27" t="b">
         <v>0</v>
@@ -3500,10 +3941,10 @@
         <v>0.4806648190197469</v>
       </c>
       <c r="AI27" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AJ27" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="AK27">
         <v>55</v>
@@ -3511,13 +3952,13 @@
     </row>
     <row r="28" spans="1:37">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>128</v>
@@ -3535,13 +3976,13 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J28">
         <v>0.3</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L28">
         <v>0.01</v>
@@ -3562,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="S28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T28" t="b">
         <v>0</v>
@@ -3571,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W28" t="b">
         <v>0</v>
@@ -3580,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Z28">
         <v>16</v>
@@ -3601,16 +4042,16 @@
         <v>5</v>
       </c>
       <c r="AG28">
-        <v>0.4593320196055152</v>
+        <v>0.4813710317953635</v>
       </c>
       <c r="AH28">
-        <v>0.5427824095978321</v>
+        <v>0.5645852348036833</v>
       </c>
       <c r="AI28" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AJ28" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="AK28">
         <v>50</v>
@@ -3618,13 +4059,13 @@
     </row>
     <row r="29" spans="1:37">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D29">
         <v>128</v>
@@ -3642,13 +4083,13 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J29">
         <v>0.3</v>
       </c>
       <c r="K29" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L29">
         <v>0.01</v>
@@ -3669,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T29" t="b">
         <v>0</v>
@@ -3678,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W29" t="b">
         <v>0</v>
@@ -3687,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Z29">
         <v>16</v>
@@ -3708,16 +4149,16 @@
         <v>5</v>
       </c>
       <c r="AG29">
-        <v>0.472590624022142</v>
+        <v>0.4971747489606105</v>
       </c>
       <c r="AH29">
-        <v>0.5965473344148484</v>
+        <v>0.6090643893642737</v>
       </c>
       <c r="AI29" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AJ29" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="AK29">
         <v>51</v>
@@ -3725,13 +4166,13 @@
     </row>
     <row r="30" spans="1:37">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D30">
         <v>128</v>
@@ -3749,13 +4190,13 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J30">
         <v>0.3</v>
       </c>
       <c r="K30" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L30">
         <v>0.01</v>
@@ -3776,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="S30" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T30" t="b">
         <v>0</v>
@@ -3785,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W30" t="b">
         <v>0</v>
@@ -3794,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="Y30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Z30">
         <v>16</v>
@@ -3815,16 +4256,16 @@
         <v>5</v>
       </c>
       <c r="AG30">
-        <v>0.4857640834377365</v>
+        <v>0.4945981726950297</v>
       </c>
       <c r="AH30">
-        <v>0.5744713747778639</v>
+        <v>0.5812893517854353</v>
       </c>
       <c r="AI30" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AJ30" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="AK30">
         <v>52</v>
@@ -3832,13 +4273,13 @@
     </row>
     <row r="31" spans="1:37">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D31">
         <v>128</v>
@@ -3856,13 +4297,13 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J31">
         <v>0.3</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L31">
         <v>0.01</v>
@@ -3883,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="S31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T31" t="b">
         <v>0</v>
@@ -3892,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W31" t="b">
         <v>0</v>
@@ -3901,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Z31">
         <v>16</v>
@@ -3922,16 +4363,16 @@
         <v>5</v>
       </c>
       <c r="AG31">
-        <v>0.4682004331078098</v>
+        <v>0.4859887955938509</v>
       </c>
       <c r="AH31">
-        <v>0.5514921355930711</v>
+        <v>0.5714460243650232</v>
       </c>
       <c r="AI31" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AJ31" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="AK31">
         <v>53</v>
@@ -3939,13 +4380,13 @@
     </row>
     <row r="32" spans="1:37">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>128</v>
@@ -3963,13 +4404,13 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J32">
         <v>0.3</v>
       </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L32">
         <v>0.01</v>
@@ -3990,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="T32" t="b">
         <v>0</v>
@@ -3999,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W32" t="b">
         <v>0</v>
@@ -4008,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="Y32" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Z32">
         <v>16</v>
@@ -4029,30 +4470,30 @@
         <v>5</v>
       </c>
       <c r="AG32">
-        <v>0.4764352888223502</v>
+        <v>0.4999357053070248</v>
       </c>
       <c r="AH32">
-        <v>0.5490202130648935</v>
+        <v>0.5689454351697566</v>
       </c>
       <c r="AI32" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AJ32" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="AK32">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:38">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>128</v>
@@ -4070,7 +4511,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -4112,24 +4553,24 @@
         <v>0.609046157025026</v>
       </c>
       <c r="AI33" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AJ33" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="AK33">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:38">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>128</v>
@@ -4147,7 +4588,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -4189,24 +4630,24 @@
         <v>0.6074798951361772</v>
       </c>
       <c r="AI34" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AJ34" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="AK34">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:38">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>128</v>
@@ -4224,7 +4665,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -4266,24 +4707,24 @@
         <v>0.5910942650574863</v>
       </c>
       <c r="AI35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="AK35">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:38">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>128</v>
@@ -4301,7 +4742,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -4343,24 +4784,24 @@
         <v>0.6074982783720261</v>
       </c>
       <c r="AI36" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="AK36">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:38">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <v>128</v>
@@ -4378,7 +4819,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -4420,24 +4861,24 @@
         <v>0.6143510990665462</v>
       </c>
       <c r="AI37" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="AK37">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D38">
         <v>128</v>
@@ -4455,13 +4896,13 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J38">
         <v>0.3</v>
       </c>
       <c r="K38" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L38">
         <v>0.01</v>
@@ -4488,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W38" t="b">
         <v>0</v>
@@ -4521,24 +4962,24 @@
         <v>0.5653439153439154</v>
       </c>
       <c r="AI38" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="AK38">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:38">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D39">
         <v>128</v>
@@ -4556,13 +4997,13 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J39">
         <v>0.3</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L39">
         <v>0.01</v>
@@ -4589,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W39" t="b">
         <v>0</v>
@@ -4622,24 +5063,24 @@
         <v>0.5644254065099296</v>
       </c>
       <c r="AI39" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="AK39">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:38">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D40">
         <v>128</v>
@@ -4657,13 +5098,13 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J40">
         <v>0.3</v>
       </c>
       <c r="K40" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L40">
         <v>0.01</v>
@@ -4690,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W40" t="b">
         <v>0</v>
@@ -4723,24 +5164,24 @@
         <v>0.5727848700085458</v>
       </c>
       <c r="AI40" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="AK40">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:38">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D41">
         <v>128</v>
@@ -4758,13 +5199,13 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J41">
         <v>0.3</v>
       </c>
       <c r="K41" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L41">
         <v>0.01</v>
@@ -4791,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W41" t="b">
         <v>0</v>
@@ -4824,24 +5265,24 @@
         <v>0.5986787818849619</v>
       </c>
       <c r="AI41" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="AK41">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:38">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D42">
         <v>128</v>
@@ -4859,13 +5300,13 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J42">
         <v>0.3</v>
       </c>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L42">
         <v>0.01</v>
@@ -4892,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W42" t="b">
         <v>0</v>
@@ -4925,24 +5366,24 @@
         <v>0.5465946161700393</v>
       </c>
       <c r="AI42" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="AK42">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:38">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D43">
         <v>128</v>
@@ -4960,13 +5401,13 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J43">
         <v>0.3</v>
       </c>
       <c r="K43" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L43">
         <v>0.01</v>
@@ -4993,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W43" t="b">
         <v>0</v>
@@ -5026,24 +5467,24 @@
         <v>0.5868311116139943</v>
       </c>
       <c r="AI43" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="AK43">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:38">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D44">
         <v>128</v>
@@ -5061,13 +5502,13 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J44">
         <v>0.3</v>
       </c>
       <c r="K44" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L44">
         <v>0.01</v>
@@ -5094,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W44" t="b">
         <v>0</v>
@@ -5127,24 +5568,24 @@
         <v>0.571145443984855</v>
       </c>
       <c r="AI44" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AJ44" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="AK44">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:38">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D45">
         <v>128</v>
@@ -5162,13 +5603,13 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J45">
         <v>0.3</v>
       </c>
       <c r="K45" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L45">
         <v>0.01</v>
@@ -5195,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W45" t="b">
         <v>0</v>
@@ -5228,13 +5669,6873 @@
         <v>0.5657308488509448</v>
       </c>
       <c r="AI45" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AJ45" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46">
+        <v>128</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.105</v>
+      </c>
+      <c r="G46">
+        <v>0.5</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46">
+        <v>0.3</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0.05</v>
+      </c>
+      <c r="R46" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="s">
+        <v>56</v>
+      </c>
+      <c r="W46" t="b">
+        <v>0</v>
+      </c>
+      <c r="X46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>16</v>
+      </c>
+      <c r="AA46">
+        <v>1E-05</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>1E-08</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>5</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK46">
+        <v>50</v>
+      </c>
+      <c r="AL46">
+        <v>0.5922056794886592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>128</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.105</v>
+      </c>
+      <c r="G47">
+        <v>0.5</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47">
+        <v>0.3</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0.05</v>
+      </c>
+      <c r="R47" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+      <c r="U47" t="b">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>56</v>
+      </c>
+      <c r="W47" t="b">
+        <v>0</v>
+      </c>
+      <c r="X47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>16</v>
+      </c>
+      <c r="AA47">
+        <v>1E-05</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>1E-08</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>5</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK47">
+        <v>51</v>
+      </c>
+      <c r="AL47">
+        <v>0.5937457757553453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48">
+        <v>128</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0.105</v>
+      </c>
+      <c r="G48">
+        <v>0.5</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48">
+        <v>0.3</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0.05</v>
+      </c>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+      <c r="U48" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>56</v>
+      </c>
+      <c r="W48" t="b">
+        <v>0</v>
+      </c>
+      <c r="X48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>16</v>
+      </c>
+      <c r="AA48">
+        <v>1E-05</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>1E-08</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>5</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK48">
+        <v>52</v>
+      </c>
+      <c r="AL48">
+        <v>0.5988642196352765</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>128</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0.105</v>
+      </c>
+      <c r="G49">
+        <v>0.5</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>51</v>
+      </c>
+      <c r="J49">
+        <v>0.3</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0.05</v>
+      </c>
+      <c r="R49" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>56</v>
+      </c>
+      <c r="W49" t="b">
+        <v>0</v>
+      </c>
+      <c r="X49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>16</v>
+      </c>
+      <c r="AA49">
+        <v>1E-05</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>1E-08</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>5</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK49">
+        <v>53</v>
+      </c>
+      <c r="AL49">
+        <v>0.5867703497506449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>128</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0.105</v>
+      </c>
+      <c r="G50">
+        <v>0.5</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J50">
+        <v>0.3</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0.05</v>
+      </c>
+      <c r="R50" t="b">
+        <v>0</v>
+      </c>
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+      <c r="U50" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" t="s">
+        <v>56</v>
+      </c>
+      <c r="W50" t="b">
+        <v>0</v>
+      </c>
+      <c r="X50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>16</v>
+      </c>
+      <c r="AA50">
+        <v>1E-05</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>1E-08</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>5</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK50">
+        <v>54</v>
+      </c>
+      <c r="AL50">
+        <v>0.5732914027550162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>128</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0.105</v>
+      </c>
+      <c r="G51">
+        <v>0.5</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51">
+        <v>0.3</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0.05</v>
+      </c>
+      <c r="R51" t="b">
+        <v>0</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+      <c r="U51" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
+        <v>56</v>
+      </c>
+      <c r="W51" t="b">
+        <v>0</v>
+      </c>
+      <c r="X51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z51">
+        <v>16</v>
+      </c>
+      <c r="AA51">
+        <v>1E-05</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>1E-08</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <v>5</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK51">
+        <v>50</v>
+      </c>
+      <c r="AL51">
+        <v>0.5808157548281084</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52">
+        <v>128</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0.105</v>
+      </c>
+      <c r="G52">
+        <v>0.5</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52">
+        <v>0.3</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0.05</v>
+      </c>
+      <c r="R52" t="b">
+        <v>0</v>
+      </c>
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+      <c r="U52" t="b">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
+        <v>56</v>
+      </c>
+      <c r="W52" t="b">
+        <v>0</v>
+      </c>
+      <c r="X52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z52">
+        <v>16</v>
+      </c>
+      <c r="AA52">
+        <v>1E-05</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>1E-08</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>5</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK52">
+        <v>51</v>
+      </c>
+      <c r="AL52">
+        <v>0.5771451820353309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53">
+        <v>128</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0.105</v>
+      </c>
+      <c r="G53">
+        <v>0.5</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53">
+        <v>0.3</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0.05</v>
+      </c>
+      <c r="R53" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" t="b">
+        <v>0</v>
+      </c>
+      <c r="U53" t="b">
+        <v>0</v>
+      </c>
+      <c r="V53" t="s">
+        <v>56</v>
+      </c>
+      <c r="W53" t="b">
+        <v>0</v>
+      </c>
+      <c r="X53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z53">
+        <v>16</v>
+      </c>
+      <c r="AA53">
+        <v>1E-05</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>1E-08</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>5</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK53">
+        <v>52</v>
+      </c>
+      <c r="AL53">
+        <v>0.5937608610810695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54">
+        <v>128</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0.105</v>
+      </c>
+      <c r="G54">
+        <v>0.5</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>51</v>
+      </c>
+      <c r="J54">
+        <v>0.3</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0.05</v>
+      </c>
+      <c r="R54" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54" t="b">
+        <v>0</v>
+      </c>
+      <c r="U54" t="b">
+        <v>0</v>
+      </c>
+      <c r="V54" t="s">
+        <v>56</v>
+      </c>
+      <c r="W54" t="b">
+        <v>0</v>
+      </c>
+      <c r="X54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z54">
+        <v>16</v>
+      </c>
+      <c r="AA54">
+        <v>1E-05</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>1E-08</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <v>5</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK54">
+        <v>53</v>
+      </c>
+      <c r="AL54">
+        <v>0.593698143985552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55">
+        <v>128</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.105</v>
+      </c>
+      <c r="G55">
+        <v>0.5</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55">
+        <v>0.3</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0.05</v>
+      </c>
+      <c r="R55" t="b">
+        <v>0</v>
+      </c>
+      <c r="T55" t="b">
+        <v>0</v>
+      </c>
+      <c r="U55" t="b">
+        <v>0</v>
+      </c>
+      <c r="V55" t="s">
+        <v>56</v>
+      </c>
+      <c r="W55" t="b">
+        <v>0</v>
+      </c>
+      <c r="X55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z55">
+        <v>16</v>
+      </c>
+      <c r="AA55">
+        <v>1E-05</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>1E-08</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>5</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK55">
+        <v>54</v>
+      </c>
+      <c r="AL55">
+        <v>0.5888313118249502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56">
+        <v>128</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0.105</v>
+      </c>
+      <c r="G56">
+        <v>0.5</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>51</v>
+      </c>
+      <c r="J56">
+        <v>0.3</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0.05</v>
+      </c>
+      <c r="R56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T56" t="b">
+        <v>0</v>
+      </c>
+      <c r="U56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V56" t="s">
+        <v>56</v>
+      </c>
+      <c r="W56" t="b">
+        <v>0</v>
+      </c>
+      <c r="X56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z56">
+        <v>16</v>
+      </c>
+      <c r="AA56">
+        <v>1E-05</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>1E-08</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>5</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK56">
+        <v>50</v>
+      </c>
+      <c r="AM56">
+        <v>0.4264482567438939</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57">
+        <v>128</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0.105</v>
+      </c>
+      <c r="G57">
+        <v>0.5</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57">
+        <v>0.3</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0.05</v>
+      </c>
+      <c r="R57" t="b">
+        <v>0</v>
+      </c>
+      <c r="T57" t="b">
+        <v>0</v>
+      </c>
+      <c r="U57" t="b">
+        <v>0</v>
+      </c>
+      <c r="V57" t="s">
+        <v>56</v>
+      </c>
+      <c r="W57" t="b">
+        <v>0</v>
+      </c>
+      <c r="X57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z57">
+        <v>16</v>
+      </c>
+      <c r="AA57">
+        <v>1E-05</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>1E-08</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>5</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK57">
+        <v>51</v>
+      </c>
+      <c r="AM57">
+        <v>0.500715157858015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58">
+        <v>128</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.105</v>
+      </c>
+      <c r="G58">
+        <v>0.5</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>51</v>
+      </c>
+      <c r="J58">
+        <v>0.3</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0.05</v>
+      </c>
+      <c r="R58" t="b">
+        <v>0</v>
+      </c>
+      <c r="T58" t="b">
+        <v>0</v>
+      </c>
+      <c r="U58" t="b">
+        <v>0</v>
+      </c>
+      <c r="V58" t="s">
+        <v>56</v>
+      </c>
+      <c r="W58" t="b">
+        <v>0</v>
+      </c>
+      <c r="X58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z58">
+        <v>16</v>
+      </c>
+      <c r="AA58">
+        <v>1E-05</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>1E-08</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>5</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK58">
+        <v>52</v>
+      </c>
+      <c r="AM58">
+        <v>0.5146924222805541</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59">
+        <v>128</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.105</v>
+      </c>
+      <c r="G59">
+        <v>0.5</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>51</v>
+      </c>
+      <c r="J59">
+        <v>0.3</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59" t="b">
+        <v>0</v>
+      </c>
+      <c r="O59" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0.05</v>
+      </c>
+      <c r="R59" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59" t="b">
+        <v>0</v>
+      </c>
+      <c r="U59" t="b">
+        <v>0</v>
+      </c>
+      <c r="V59" t="s">
+        <v>56</v>
+      </c>
+      <c r="W59" t="b">
+        <v>0</v>
+      </c>
+      <c r="X59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z59">
+        <v>16</v>
+      </c>
+      <c r="AA59">
+        <v>1E-05</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>1E-08</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>5</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK59">
+        <v>53</v>
+      </c>
+      <c r="AM59">
+        <v>0.4436563026464504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60">
+        <v>128</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.105</v>
+      </c>
+      <c r="G60">
+        <v>0.5</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>51</v>
+      </c>
+      <c r="J60">
+        <v>0.3</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" t="b">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0.05</v>
+      </c>
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
+      <c r="T60" t="b">
+        <v>0</v>
+      </c>
+      <c r="U60" t="b">
+        <v>0</v>
+      </c>
+      <c r="V60" t="s">
+        <v>56</v>
+      </c>
+      <c r="W60" t="b">
+        <v>0</v>
+      </c>
+      <c r="X60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z60">
+        <v>16</v>
+      </c>
+      <c r="AA60">
+        <v>1E-05</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>1E-08</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AE60">
+        <v>5</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK60">
+        <v>54</v>
+      </c>
+      <c r="AM60">
+        <v>0.4169282404576522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61">
+        <v>128</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0.105</v>
+      </c>
+      <c r="G61">
+        <v>0.5</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>51</v>
+      </c>
+      <c r="J61">
+        <v>0.3</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" t="b">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0.05</v>
+      </c>
+      <c r="R61" t="b">
+        <v>0</v>
+      </c>
+      <c r="T61" t="b">
+        <v>0</v>
+      </c>
+      <c r="U61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V61" t="s">
+        <v>56</v>
+      </c>
+      <c r="W61" t="b">
+        <v>0</v>
+      </c>
+      <c r="X61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>16</v>
+      </c>
+      <c r="AA61">
+        <v>1E-05</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>1E-08</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AE61">
+        <v>5</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK61">
+        <v>50</v>
+      </c>
+      <c r="AM61">
+        <v>0.4792567166709043</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62">
+        <v>128</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0.105</v>
+      </c>
+      <c r="G62">
+        <v>0.5</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62" t="s">
+        <v>51</v>
+      </c>
+      <c r="J62">
+        <v>0.3</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62" t="b">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0.05</v>
+      </c>
+      <c r="R62" t="b">
+        <v>0</v>
+      </c>
+      <c r="T62" t="b">
+        <v>0</v>
+      </c>
+      <c r="U62" t="b">
+        <v>0</v>
+      </c>
+      <c r="V62" t="s">
+        <v>56</v>
+      </c>
+      <c r="W62" t="b">
+        <v>0</v>
+      </c>
+      <c r="X62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>16</v>
+      </c>
+      <c r="AA62">
+        <v>1E-05</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>1E-08</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>5</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK62">
+        <v>51</v>
+      </c>
+      <c r="AM62">
+        <v>0.3721292247320713</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63">
+        <v>128</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0.105</v>
+      </c>
+      <c r="G63">
+        <v>0.5</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>51</v>
+      </c>
+      <c r="J63">
+        <v>0.3</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" t="b">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0.05</v>
+      </c>
+      <c r="R63" t="b">
+        <v>0</v>
+      </c>
+      <c r="T63" t="b">
+        <v>0</v>
+      </c>
+      <c r="U63" t="b">
+        <v>0</v>
+      </c>
+      <c r="V63" t="s">
+        <v>56</v>
+      </c>
+      <c r="W63" t="b">
+        <v>0</v>
+      </c>
+      <c r="X63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>16</v>
+      </c>
+      <c r="AA63">
+        <v>1E-05</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>1E-08</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>5</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK63">
+        <v>52</v>
+      </c>
+      <c r="AM63">
+        <v>0.4100889937214416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64">
+        <v>128</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0.105</v>
+      </c>
+      <c r="G64">
+        <v>0.5</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>51</v>
+      </c>
+      <c r="J64">
+        <v>0.3</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0.05</v>
+      </c>
+      <c r="R64" t="b">
+        <v>0</v>
+      </c>
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+      <c r="U64" t="b">
+        <v>0</v>
+      </c>
+      <c r="V64" t="s">
+        <v>56</v>
+      </c>
+      <c r="W64" t="b">
+        <v>0</v>
+      </c>
+      <c r="X64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>16</v>
+      </c>
+      <c r="AA64">
+        <v>1E-05</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>1E-08</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AE64">
+        <v>5</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK64">
+        <v>53</v>
+      </c>
+      <c r="AM64">
+        <v>0.5385424368475217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65">
+        <v>128</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0.105</v>
+      </c>
+      <c r="G65">
+        <v>0.5</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65" t="s">
+        <v>51</v>
+      </c>
+      <c r="J65">
+        <v>0.3</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65" t="b">
+        <v>0</v>
+      </c>
+      <c r="O65" t="b">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0.05</v>
+      </c>
+      <c r="R65" t="b">
+        <v>0</v>
+      </c>
+      <c r="T65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U65" t="b">
+        <v>0</v>
+      </c>
+      <c r="V65" t="s">
+        <v>56</v>
+      </c>
+      <c r="W65" t="b">
+        <v>0</v>
+      </c>
+      <c r="X65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>16</v>
+      </c>
+      <c r="AA65">
+        <v>1E-05</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>1E-08</v>
+      </c>
+      <c r="AD65">
+        <v>1</v>
+      </c>
+      <c r="AE65">
+        <v>5</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK65">
+        <v>54</v>
+      </c>
+      <c r="AM65">
+        <v>0.4883576505798728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66">
+        <v>128</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0.105</v>
+      </c>
+      <c r="G66">
+        <v>0.5</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>51</v>
+      </c>
+      <c r="J66">
+        <v>0.3</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" t="b">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0.05</v>
+      </c>
+      <c r="R66" t="b">
+        <v>1</v>
+      </c>
+      <c r="S66" t="s">
+        <v>55</v>
+      </c>
+      <c r="T66" t="b">
+        <v>0</v>
+      </c>
+      <c r="U66" t="b">
+        <v>0</v>
+      </c>
+      <c r="V66" t="s">
+        <v>56</v>
+      </c>
+      <c r="W66" t="b">
+        <v>0</v>
+      </c>
+      <c r="X66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>16</v>
+      </c>
+      <c r="AA66">
+        <v>1E-05</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>1E-08</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66">
+        <v>5</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK66">
+        <v>50</v>
+      </c>
+      <c r="AL66">
+        <v>0.5804102701786633</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67">
+        <v>128</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0.105</v>
+      </c>
+      <c r="G67">
+        <v>0.5</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>51</v>
+      </c>
+      <c r="J67">
+        <v>0.3</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67" t="b">
+        <v>0</v>
+      </c>
+      <c r="O67" t="b">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0.05</v>
+      </c>
+      <c r="R67" t="b">
+        <v>1</v>
+      </c>
+      <c r="S67" t="s">
+        <v>55</v>
+      </c>
+      <c r="T67" t="b">
+        <v>0</v>
+      </c>
+      <c r="U67" t="b">
+        <v>0</v>
+      </c>
+      <c r="V67" t="s">
+        <v>56</v>
+      </c>
+      <c r="W67" t="b">
+        <v>0</v>
+      </c>
+      <c r="X67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>16</v>
+      </c>
+      <c r="AA67">
+        <v>1E-05</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>1E-08</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <v>5</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK67">
+        <v>51</v>
+      </c>
+      <c r="AL67">
+        <v>0.562337984149662</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68">
+        <v>128</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0.105</v>
+      </c>
+      <c r="G68">
+        <v>0.5</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>51</v>
+      </c>
+      <c r="J68">
+        <v>0.3</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68" t="b">
+        <v>0</v>
+      </c>
+      <c r="O68" t="b">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0.05</v>
+      </c>
+      <c r="R68" t="b">
+        <v>1</v>
+      </c>
+      <c r="S68" t="s">
+        <v>55</v>
+      </c>
+      <c r="T68" t="b">
+        <v>0</v>
+      </c>
+      <c r="U68" t="b">
+        <v>0</v>
+      </c>
+      <c r="V68" t="s">
+        <v>56</v>
+      </c>
+      <c r="W68" t="b">
+        <v>0</v>
+      </c>
+      <c r="X68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>16</v>
+      </c>
+      <c r="AA68">
+        <v>1E-05</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>1E-08</v>
+      </c>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="AE68">
+        <v>5</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK68">
+        <v>52</v>
+      </c>
+      <c r="AL68">
+        <v>0.5762954048140043</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>128</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0.105</v>
+      </c>
+      <c r="G69">
+        <v>0.5</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>51</v>
+      </c>
+      <c r="J69">
+        <v>0.3</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69" t="b">
+        <v>0</v>
+      </c>
+      <c r="O69" t="b">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0.05</v>
+      </c>
+      <c r="R69" t="b">
+        <v>1</v>
+      </c>
+      <c r="S69" t="s">
+        <v>55</v>
+      </c>
+      <c r="T69" t="b">
+        <v>0</v>
+      </c>
+      <c r="U69" t="b">
+        <v>0</v>
+      </c>
+      <c r="V69" t="s">
+        <v>56</v>
+      </c>
+      <c r="W69" t="b">
+        <v>0</v>
+      </c>
+      <c r="X69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>16</v>
+      </c>
+      <c r="AA69">
+        <v>1E-05</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>1E-08</v>
+      </c>
+      <c r="AD69">
+        <v>1</v>
+      </c>
+      <c r="AE69">
+        <v>5</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK69">
+        <v>53</v>
+      </c>
+      <c r="AL69">
+        <v>0.567361565384775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70">
+        <v>128</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0.105</v>
+      </c>
+      <c r="G70">
+        <v>0.5</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>51</v>
+      </c>
+      <c r="J70">
+        <v>0.3</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70" t="b">
+        <v>0</v>
+      </c>
+      <c r="O70" t="b">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0.05</v>
+      </c>
+      <c r="R70" t="b">
+        <v>1</v>
+      </c>
+      <c r="S70" t="s">
+        <v>55</v>
+      </c>
+      <c r="T70" t="b">
+        <v>0</v>
+      </c>
+      <c r="U70" t="b">
+        <v>0</v>
+      </c>
+      <c r="V70" t="s">
+        <v>56</v>
+      </c>
+      <c r="W70" t="b">
+        <v>0</v>
+      </c>
+      <c r="X70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>16</v>
+      </c>
+      <c r="AA70">
+        <v>1E-05</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>1E-08</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70">
+        <v>5</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK70">
+        <v>54</v>
+      </c>
+      <c r="AL70">
+        <v>0.5611098641817174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71">
+        <v>128</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0.105</v>
+      </c>
+      <c r="G71">
+        <v>0.5</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>51</v>
+      </c>
+      <c r="J71">
+        <v>0.3</v>
+      </c>
+      <c r="M71">
+        <v>3</v>
+      </c>
+      <c r="N71" t="b">
+        <v>0</v>
+      </c>
+      <c r="O71" t="b">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0.05</v>
+      </c>
+      <c r="R71" t="b">
+        <v>0</v>
+      </c>
+      <c r="T71" t="b">
+        <v>0</v>
+      </c>
+      <c r="U71" t="b">
+        <v>0</v>
+      </c>
+      <c r="V71" t="s">
+        <v>56</v>
+      </c>
+      <c r="W71" t="b">
+        <v>0</v>
+      </c>
+      <c r="X71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>16</v>
+      </c>
+      <c r="AA71">
+        <v>1E-05</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>1E-08</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <v>5</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK71">
+        <v>50</v>
+      </c>
+      <c r="AN71">
+        <v>0.4406888181722619</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72">
+        <v>128</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0.105</v>
+      </c>
+      <c r="G72">
+        <v>0.5</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>51</v>
+      </c>
+      <c r="J72">
+        <v>0.3</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72" t="b">
+        <v>0</v>
+      </c>
+      <c r="O72" t="b">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0.05</v>
+      </c>
+      <c r="R72" t="b">
+        <v>0</v>
+      </c>
+      <c r="T72" t="b">
+        <v>0</v>
+      </c>
+      <c r="U72" t="b">
+        <v>0</v>
+      </c>
+      <c r="V72" t="s">
+        <v>56</v>
+      </c>
+      <c r="W72" t="b">
+        <v>0</v>
+      </c>
+      <c r="X72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>16</v>
+      </c>
+      <c r="AA72">
+        <v>1E-05</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>1E-08</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <v>5</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK72">
+        <v>51</v>
+      </c>
+      <c r="AN72">
+        <v>0.3498964803312629</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40">
+      <c r="A73" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73">
+        <v>128</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0.105</v>
+      </c>
+      <c r="G73">
+        <v>0.5</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>51</v>
+      </c>
+      <c r="J73">
+        <v>0.3</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73" t="b">
+        <v>0</v>
+      </c>
+      <c r="O73" t="b">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0.05</v>
+      </c>
+      <c r="R73" t="b">
+        <v>0</v>
+      </c>
+      <c r="T73" t="b">
+        <v>0</v>
+      </c>
+      <c r="U73" t="b">
+        <v>0</v>
+      </c>
+      <c r="V73" t="s">
+        <v>56</v>
+      </c>
+      <c r="W73" t="b">
+        <v>0</v>
+      </c>
+      <c r="X73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>16</v>
+      </c>
+      <c r="AA73">
+        <v>1E-05</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>1E-08</v>
+      </c>
+      <c r="AD73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <v>5</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK73">
+        <v>52</v>
+      </c>
+      <c r="AN73">
+        <v>0.5076995972518361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40">
+      <c r="A74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74">
+        <v>128</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0.105</v>
+      </c>
+      <c r="G74">
+        <v>0.5</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>51</v>
+      </c>
+      <c r="J74">
+        <v>0.3</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74" t="b">
+        <v>0</v>
+      </c>
+      <c r="O74" t="b">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0.05</v>
+      </c>
+      <c r="R74" t="b">
+        <v>0</v>
+      </c>
+      <c r="T74" t="b">
+        <v>0</v>
+      </c>
+      <c r="U74" t="b">
+        <v>0</v>
+      </c>
+      <c r="V74" t="s">
+        <v>56</v>
+      </c>
+      <c r="W74" t="b">
+        <v>0</v>
+      </c>
+      <c r="X74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>16</v>
+      </c>
+      <c r="AA74">
+        <v>1E-05</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>1E-08</v>
+      </c>
+      <c r="AD74">
+        <v>1</v>
+      </c>
+      <c r="AE74">
+        <v>5</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK74">
+        <v>53</v>
+      </c>
+      <c r="AN74">
+        <v>0.3348177111617971</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40">
+      <c r="A75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75">
+        <v>128</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0.105</v>
+      </c>
+      <c r="G75">
+        <v>0.5</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>51</v>
+      </c>
+      <c r="J75">
+        <v>0.3</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75" t="b">
+        <v>0</v>
+      </c>
+      <c r="O75" t="b">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0.05</v>
+      </c>
+      <c r="R75" t="b">
+        <v>0</v>
+      </c>
+      <c r="T75" t="b">
+        <v>0</v>
+      </c>
+      <c r="U75" t="b">
+        <v>0</v>
+      </c>
+      <c r="V75" t="s">
+        <v>56</v>
+      </c>
+      <c r="W75" t="b">
+        <v>0</v>
+      </c>
+      <c r="X75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>16</v>
+      </c>
+      <c r="AA75">
+        <v>1E-05</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>1E-08</v>
+      </c>
+      <c r="AD75">
+        <v>1</v>
+      </c>
+      <c r="AE75">
+        <v>5</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK75">
+        <v>54</v>
+      </c>
+      <c r="AN75">
+        <v>0.3606583573026527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76">
+        <v>128</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0.105</v>
+      </c>
+      <c r="G76">
+        <v>0.5</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>51</v>
+      </c>
+      <c r="J76">
+        <v>0.3</v>
+      </c>
+      <c r="K76" t="s">
+        <v>52</v>
+      </c>
+      <c r="L76">
+        <v>0.01</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76" t="b">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0.05</v>
+      </c>
+      <c r="R76" t="b">
+        <v>0</v>
+      </c>
+      <c r="T76" t="b">
+        <v>0</v>
+      </c>
+      <c r="U76" t="b">
+        <v>0</v>
+      </c>
+      <c r="V76" t="s">
+        <v>56</v>
+      </c>
+      <c r="W76" t="b">
+        <v>0</v>
+      </c>
+      <c r="X76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>16</v>
+      </c>
+      <c r="AA76">
+        <v>1E-05</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>1E-08</v>
+      </c>
+      <c r="AD76">
+        <v>1</v>
+      </c>
+      <c r="AE76">
+        <v>5</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK76">
+        <v>50</v>
+      </c>
+      <c r="AM76">
+        <v>0.4125197198207862</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77">
+        <v>128</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0.105</v>
+      </c>
+      <c r="G77">
+        <v>0.5</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>51</v>
+      </c>
+      <c r="J77">
+        <v>0.3</v>
+      </c>
+      <c r="K77" t="s">
+        <v>52</v>
+      </c>
+      <c r="L77">
+        <v>0.01</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77" t="b">
+        <v>0</v>
+      </c>
+      <c r="O77" t="b">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0.05</v>
+      </c>
+      <c r="R77" t="b">
+        <v>0</v>
+      </c>
+      <c r="T77" t="b">
+        <v>0</v>
+      </c>
+      <c r="U77" t="b">
+        <v>0</v>
+      </c>
+      <c r="V77" t="s">
+        <v>56</v>
+      </c>
+      <c r="W77" t="b">
+        <v>0</v>
+      </c>
+      <c r="X77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>16</v>
+      </c>
+      <c r="AA77">
+        <v>1E-05</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>1E-08</v>
+      </c>
+      <c r="AD77">
+        <v>1</v>
+      </c>
+      <c r="AE77">
+        <v>5</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK77">
+        <v>51</v>
+      </c>
+      <c r="AM77">
+        <v>0.4577362749381098</v>
+      </c>
+    </row>
+    <row r="78" spans="1:40">
+      <c r="A78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78">
+        <v>128</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0.105</v>
+      </c>
+      <c r="G78">
+        <v>0.5</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>51</v>
+      </c>
+      <c r="J78">
+        <v>0.3</v>
+      </c>
+      <c r="K78" t="s">
+        <v>52</v>
+      </c>
+      <c r="L78">
+        <v>0.01</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78" t="b">
+        <v>0</v>
+      </c>
+      <c r="O78" t="b">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0.05</v>
+      </c>
+      <c r="R78" t="b">
+        <v>0</v>
+      </c>
+      <c r="T78" t="b">
+        <v>0</v>
+      </c>
+      <c r="U78" t="b">
+        <v>0</v>
+      </c>
+      <c r="V78" t="s">
+        <v>56</v>
+      </c>
+      <c r="W78" t="b">
+        <v>0</v>
+      </c>
+      <c r="X78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>16</v>
+      </c>
+      <c r="AA78">
+        <v>1E-05</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>1E-08</v>
+      </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
+      <c r="AE78">
+        <v>5</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK78">
+        <v>52</v>
+      </c>
+      <c r="AM78">
+        <v>0.4788939818351582</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79">
+        <v>128</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0.105</v>
+      </c>
+      <c r="G79">
+        <v>0.5</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79" t="s">
+        <v>51</v>
+      </c>
+      <c r="J79">
+        <v>0.3</v>
+      </c>
+      <c r="K79" t="s">
+        <v>52</v>
+      </c>
+      <c r="L79">
+        <v>0.01</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79" t="b">
+        <v>0</v>
+      </c>
+      <c r="O79" t="b">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0.05</v>
+      </c>
+      <c r="R79" t="b">
+        <v>0</v>
+      </c>
+      <c r="T79" t="b">
+        <v>0</v>
+      </c>
+      <c r="U79" t="b">
+        <v>0</v>
+      </c>
+      <c r="V79" t="s">
+        <v>56</v>
+      </c>
+      <c r="W79" t="b">
+        <v>0</v>
+      </c>
+      <c r="X79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>16</v>
+      </c>
+      <c r="AA79">
+        <v>1E-05</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>1E-08</v>
+      </c>
+      <c r="AD79">
+        <v>1</v>
+      </c>
+      <c r="AE79">
+        <v>5</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK79">
+        <v>53</v>
+      </c>
+      <c r="AM79">
+        <v>0.4922605363984675</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80">
+        <v>128</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0.105</v>
+      </c>
+      <c r="G80">
+        <v>0.5</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80" t="s">
+        <v>51</v>
+      </c>
+      <c r="J80">
+        <v>0.3</v>
+      </c>
+      <c r="K80" t="s">
+        <v>52</v>
+      </c>
+      <c r="L80">
+        <v>0.01</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80" t="b">
+        <v>0</v>
+      </c>
+      <c r="O80" t="b">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0.05</v>
+      </c>
+      <c r="R80" t="b">
+        <v>0</v>
+      </c>
+      <c r="T80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U80" t="b">
+        <v>0</v>
+      </c>
+      <c r="V80" t="s">
+        <v>56</v>
+      </c>
+      <c r="W80" t="b">
+        <v>0</v>
+      </c>
+      <c r="X80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>16</v>
+      </c>
+      <c r="AA80">
+        <v>1E-05</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>1E-08</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
+      <c r="AE80">
+        <v>5</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK80">
+        <v>54</v>
+      </c>
+      <c r="AM80">
+        <v>0.4868647922484556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81">
+        <v>128</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0.105</v>
+      </c>
+      <c r="G81">
+        <v>0.5</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>51</v>
+      </c>
+      <c r="J81">
+        <v>0.3</v>
+      </c>
+      <c r="K81" t="s">
+        <v>52</v>
+      </c>
+      <c r="L81">
+        <v>0.01</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81" t="b">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0.05</v>
+      </c>
+      <c r="R81" t="b">
+        <v>0</v>
+      </c>
+      <c r="T81" t="b">
+        <v>0</v>
+      </c>
+      <c r="U81" t="b">
+        <v>0</v>
+      </c>
+      <c r="V81" t="s">
+        <v>56</v>
+      </c>
+      <c r="W81" t="b">
+        <v>0</v>
+      </c>
+      <c r="X81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>16</v>
+      </c>
+      <c r="AA81">
+        <v>1E-05</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>1E-08</v>
+      </c>
+      <c r="AD81">
+        <v>1</v>
+      </c>
+      <c r="AE81">
+        <v>5</v>
+      </c>
+      <c r="AG81">
+        <v>0.4600685489878079</v>
+      </c>
+      <c r="AH81">
+        <v>0.5589680890905702</v>
+      </c>
+      <c r="AI81" t="s">
         <v>139</v>
       </c>
-      <c r="AK45">
-        <v>51</v>
+      <c r="AJ81" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK81">
+        <v>50</v>
+      </c>
+      <c r="AL81">
+        <v>0.5356404958677685</v>
+      </c>
+      <c r="AM81">
+        <v>0.3414230094553545</v>
+      </c>
+      <c r="AN81">
+        <v>0.4836049856184084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82">
+        <v>128</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0.105</v>
+      </c>
+      <c r="G82">
+        <v>0.5</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>51</v>
+      </c>
+      <c r="J82">
+        <v>0.3</v>
+      </c>
+      <c r="K82" t="s">
+        <v>52</v>
+      </c>
+      <c r="L82">
+        <v>0.01</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82" t="b">
+        <v>0</v>
+      </c>
+      <c r="O82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0.05</v>
+      </c>
+      <c r="R82" t="b">
+        <v>0</v>
+      </c>
+      <c r="T82" t="b">
+        <v>0</v>
+      </c>
+      <c r="U82" t="b">
+        <v>0</v>
+      </c>
+      <c r="V82" t="s">
+        <v>56</v>
+      </c>
+      <c r="W82" t="b">
+        <v>0</v>
+      </c>
+      <c r="X82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>16</v>
+      </c>
+      <c r="AA82">
+        <v>1E-05</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>1E-08</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AE82">
+        <v>5</v>
+      </c>
+      <c r="AG82">
+        <v>0.4334420431595452</v>
+      </c>
+      <c r="AH82">
+        <v>0.5425722678536876</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK82">
+        <v>51</v>
+      </c>
+      <c r="AL82">
+        <v>0.5604709195887904</v>
+      </c>
+      <c r="AM82">
+        <v>0.4037067370400704</v>
+      </c>
+      <c r="AN82">
+        <v>0.438438071995119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:40">
+      <c r="A83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83">
+        <v>128</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0.105</v>
+      </c>
+      <c r="G83">
+        <v>0.5</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83" t="s">
+        <v>51</v>
+      </c>
+      <c r="J83">
+        <v>0.3</v>
+      </c>
+      <c r="K83" t="s">
+        <v>52</v>
+      </c>
+      <c r="L83">
+        <v>0.01</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83" t="b">
+        <v>0</v>
+      </c>
+      <c r="O83" t="b">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0.05</v>
+      </c>
+      <c r="R83" t="b">
+        <v>0</v>
+      </c>
+      <c r="T83" t="b">
+        <v>0</v>
+      </c>
+      <c r="U83" t="b">
+        <v>0</v>
+      </c>
+      <c r="V83" t="s">
+        <v>56</v>
+      </c>
+      <c r="W83" t="b">
+        <v>0</v>
+      </c>
+      <c r="X83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>16</v>
+      </c>
+      <c r="AA83">
+        <v>1E-05</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>1E-08</v>
+      </c>
+      <c r="AD83">
+        <v>1</v>
+      </c>
+      <c r="AE83">
+        <v>5</v>
+      </c>
+      <c r="AG83">
+        <v>0.4370990521894789</v>
+      </c>
+      <c r="AH83">
+        <v>0.5572555972031158</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK83">
+        <v>52</v>
+      </c>
+      <c r="AL83">
+        <v>0.5371760331882475</v>
+      </c>
+      <c r="AM83">
+        <v>0.2989442892685126</v>
+      </c>
+      <c r="AN83">
+        <v>0.3809637594583831</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40">
+      <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84">
+        <v>128</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0.105</v>
+      </c>
+      <c r="G84">
+        <v>0.5</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>51</v>
+      </c>
+      <c r="J84">
+        <v>0.3</v>
+      </c>
+      <c r="K84" t="s">
+        <v>52</v>
+      </c>
+      <c r="L84">
+        <v>0.01</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84" t="b">
+        <v>0</v>
+      </c>
+      <c r="O84" t="b">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0.05</v>
+      </c>
+      <c r="R84" t="b">
+        <v>0</v>
+      </c>
+      <c r="T84" t="b">
+        <v>0</v>
+      </c>
+      <c r="U84" t="b">
+        <v>0</v>
+      </c>
+      <c r="V84" t="s">
+        <v>56</v>
+      </c>
+      <c r="W84" t="b">
+        <v>0</v>
+      </c>
+      <c r="X84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>16</v>
+      </c>
+      <c r="AA84">
+        <v>1E-05</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>1E-08</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AE84">
+        <v>5</v>
+      </c>
+      <c r="AG84">
+        <v>0.4548879483495344</v>
+      </c>
+      <c r="AH84">
+        <v>0.573363603850627</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK84">
+        <v>53</v>
+      </c>
+      <c r="AL84">
+        <v>0.4910618723130987</v>
+      </c>
+      <c r="AM84">
+        <v>0.3102963657841707</v>
+      </c>
+      <c r="AN84">
+        <v>0.3609248371206102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85">
+        <v>128</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0.105</v>
+      </c>
+      <c r="G85">
+        <v>0.5</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>51</v>
+      </c>
+      <c r="J85">
+        <v>0.3</v>
+      </c>
+      <c r="K85" t="s">
+        <v>52</v>
+      </c>
+      <c r="L85">
+        <v>0.01</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85" t="b">
+        <v>0</v>
+      </c>
+      <c r="O85" t="b">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0.05</v>
+      </c>
+      <c r="R85" t="b">
+        <v>0</v>
+      </c>
+      <c r="T85" t="b">
+        <v>0</v>
+      </c>
+      <c r="U85" t="b">
+        <v>0</v>
+      </c>
+      <c r="V85" t="s">
+        <v>56</v>
+      </c>
+      <c r="W85" t="b">
+        <v>0</v>
+      </c>
+      <c r="X85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>16</v>
+      </c>
+      <c r="AA85">
+        <v>1E-05</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>1E-08</v>
+      </c>
+      <c r="AD85">
+        <v>1</v>
+      </c>
+      <c r="AE85">
+        <v>5</v>
+      </c>
+      <c r="AG85">
+        <v>0.427440482779673</v>
+      </c>
+      <c r="AH85">
+        <v>0.5668399440726212</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK85">
+        <v>54</v>
+      </c>
+      <c r="AL85">
+        <v>0.5023647393834344</v>
+      </c>
+      <c r="AM85">
+        <v>0.438002440424921</v>
+      </c>
+      <c r="AN85">
+        <v>0.3653321201091901</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40">
+      <c r="A86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86">
+        <v>128</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0.125</v>
+      </c>
+      <c r="G86">
+        <v>0.5</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>51</v>
+      </c>
+      <c r="J86">
+        <v>0.3</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86" t="b">
+        <v>0</v>
+      </c>
+      <c r="O86" t="b">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0.05</v>
+      </c>
+      <c r="R86" t="b">
+        <v>0</v>
+      </c>
+      <c r="T86" t="b">
+        <v>0</v>
+      </c>
+      <c r="U86" t="b">
+        <v>0</v>
+      </c>
+      <c r="V86" t="s">
+        <v>56</v>
+      </c>
+      <c r="W86" t="b">
+        <v>0</v>
+      </c>
+      <c r="X86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>16</v>
+      </c>
+      <c r="AA86">
+        <v>1E-05</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>1E-08</v>
+      </c>
+      <c r="AD86">
+        <v>1</v>
+      </c>
+      <c r="AE86">
+        <v>5</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK86">
+        <v>50</v>
+      </c>
+      <c r="AM86">
+        <v>0.4418604651162791</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40">
+      <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87">
+        <v>128</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0.125</v>
+      </c>
+      <c r="G87">
+        <v>0.5</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>51</v>
+      </c>
+      <c r="J87">
+        <v>0.3</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+      <c r="N87" t="b">
+        <v>0</v>
+      </c>
+      <c r="O87" t="b">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0.05</v>
+      </c>
+      <c r="R87" t="b">
+        <v>0</v>
+      </c>
+      <c r="T87" t="b">
+        <v>0</v>
+      </c>
+      <c r="U87" t="b">
+        <v>0</v>
+      </c>
+      <c r="V87" t="s">
+        <v>56</v>
+      </c>
+      <c r="W87" t="b">
+        <v>0</v>
+      </c>
+      <c r="X87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>16</v>
+      </c>
+      <c r="AA87">
+        <v>1E-05</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>1E-08</v>
+      </c>
+      <c r="AD87">
+        <v>1</v>
+      </c>
+      <c r="AE87">
+        <v>5</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK87">
+        <v>51</v>
+      </c>
+      <c r="AM87">
+        <v>0.4373754416324176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:40">
+      <c r="A88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88">
+        <v>128</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0.125</v>
+      </c>
+      <c r="G88">
+        <v>0.5</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>51</v>
+      </c>
+      <c r="J88">
+        <v>0.3</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88" t="b">
+        <v>0</v>
+      </c>
+      <c r="O88" t="b">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0.05</v>
+      </c>
+      <c r="R88" t="b">
+        <v>0</v>
+      </c>
+      <c r="T88" t="b">
+        <v>0</v>
+      </c>
+      <c r="U88" t="b">
+        <v>0</v>
+      </c>
+      <c r="V88" t="s">
+        <v>56</v>
+      </c>
+      <c r="W88" t="b">
+        <v>0</v>
+      </c>
+      <c r="X88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>16</v>
+      </c>
+      <c r="AA88">
+        <v>1E-05</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>1E-08</v>
+      </c>
+      <c r="AD88">
+        <v>1</v>
+      </c>
+      <c r="AE88">
+        <v>5</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK88">
+        <v>52</v>
+      </c>
+      <c r="AM88">
+        <v>0.4352725844682253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89">
+        <v>128</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0.125</v>
+      </c>
+      <c r="G89">
+        <v>0.5</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>51</v>
+      </c>
+      <c r="J89">
+        <v>0.3</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89" t="b">
+        <v>0</v>
+      </c>
+      <c r="O89" t="b">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0.05</v>
+      </c>
+      <c r="R89" t="b">
+        <v>0</v>
+      </c>
+      <c r="T89" t="b">
+        <v>0</v>
+      </c>
+      <c r="U89" t="b">
+        <v>0</v>
+      </c>
+      <c r="V89" t="s">
+        <v>56</v>
+      </c>
+      <c r="W89" t="b">
+        <v>0</v>
+      </c>
+      <c r="X89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>16</v>
+      </c>
+      <c r="AA89">
+        <v>1E-05</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>1E-08</v>
+      </c>
+      <c r="AD89">
+        <v>1</v>
+      </c>
+      <c r="AE89">
+        <v>5</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK89">
+        <v>53</v>
+      </c>
+      <c r="AM89">
+        <v>0.473717506326202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40">
+      <c r="A90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90">
+        <v>128</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0.125</v>
+      </c>
+      <c r="G90">
+        <v>0.5</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>51</v>
+      </c>
+      <c r="J90">
+        <v>0.3</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90" t="b">
+        <v>0</v>
+      </c>
+      <c r="O90" t="b">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0.05</v>
+      </c>
+      <c r="R90" t="b">
+        <v>0</v>
+      </c>
+      <c r="T90" t="b">
+        <v>0</v>
+      </c>
+      <c r="U90" t="b">
+        <v>0</v>
+      </c>
+      <c r="V90" t="s">
+        <v>56</v>
+      </c>
+      <c r="W90" t="b">
+        <v>0</v>
+      </c>
+      <c r="X90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>16</v>
+      </c>
+      <c r="AA90">
+        <v>1E-05</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>1E-08</v>
+      </c>
+      <c r="AD90">
+        <v>1</v>
+      </c>
+      <c r="AE90">
+        <v>5</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK90">
+        <v>54</v>
+      </c>
+      <c r="AM90">
+        <v>0.4206862745098039</v>
+      </c>
+    </row>
+    <row r="91" spans="1:40">
+      <c r="A91" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91">
+        <v>128</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0.105</v>
+      </c>
+      <c r="G91">
+        <v>0.5</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91" t="s">
+        <v>51</v>
+      </c>
+      <c r="J91">
+        <v>0.3</v>
+      </c>
+      <c r="K91" t="s">
+        <v>52</v>
+      </c>
+      <c r="L91">
+        <v>0.01</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91" t="b">
+        <v>0</v>
+      </c>
+      <c r="O91" t="b">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0.05</v>
+      </c>
+      <c r="R91" t="b">
+        <v>0</v>
+      </c>
+      <c r="T91" t="b">
+        <v>0</v>
+      </c>
+      <c r="U91" t="b">
+        <v>0</v>
+      </c>
+      <c r="V91" t="s">
+        <v>56</v>
+      </c>
+      <c r="W91" t="b">
+        <v>0</v>
+      </c>
+      <c r="X91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>16</v>
+      </c>
+      <c r="AA91">
+        <v>1E-05</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>1E-08</v>
+      </c>
+      <c r="AD91">
+        <v>1</v>
+      </c>
+      <c r="AE91">
+        <v>5</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK91">
+        <v>50</v>
+      </c>
+      <c r="AL91">
+        <v>0.5895184493355559</v>
+      </c>
+    </row>
+    <row r="92" spans="1:40">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92">
+        <v>128</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0.105</v>
+      </c>
+      <c r="G92">
+        <v>0.5</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92" t="s">
+        <v>51</v>
+      </c>
+      <c r="J92">
+        <v>0.3</v>
+      </c>
+      <c r="K92" t="s">
+        <v>52</v>
+      </c>
+      <c r="L92">
+        <v>0.01</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92" t="b">
+        <v>0</v>
+      </c>
+      <c r="O92" t="b">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0.05</v>
+      </c>
+      <c r="R92" t="b">
+        <v>0</v>
+      </c>
+      <c r="T92" t="b">
+        <v>0</v>
+      </c>
+      <c r="U92" t="b">
+        <v>0</v>
+      </c>
+      <c r="V92" t="s">
+        <v>56</v>
+      </c>
+      <c r="W92" t="b">
+        <v>0</v>
+      </c>
+      <c r="X92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>16</v>
+      </c>
+      <c r="AA92">
+        <v>1E-05</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>1E-08</v>
+      </c>
+      <c r="AD92">
+        <v>1</v>
+      </c>
+      <c r="AE92">
+        <v>5</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK92">
+        <v>51</v>
+      </c>
+      <c r="AL92">
+        <v>0.5919881047266298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:40">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93">
+        <v>128</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0.105</v>
+      </c>
+      <c r="G93">
+        <v>0.5</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93" t="s">
+        <v>51</v>
+      </c>
+      <c r="J93">
+        <v>0.3</v>
+      </c>
+      <c r="K93" t="s">
+        <v>52</v>
+      </c>
+      <c r="L93">
+        <v>0.01</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+      <c r="N93" t="b">
+        <v>0</v>
+      </c>
+      <c r="O93" t="b">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0.05</v>
+      </c>
+      <c r="R93" t="b">
+        <v>0</v>
+      </c>
+      <c r="T93" t="b">
+        <v>0</v>
+      </c>
+      <c r="U93" t="b">
+        <v>0</v>
+      </c>
+      <c r="V93" t="s">
+        <v>56</v>
+      </c>
+      <c r="W93" t="b">
+        <v>0</v>
+      </c>
+      <c r="X93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>16</v>
+      </c>
+      <c r="AA93">
+        <v>1E-05</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>1E-08</v>
+      </c>
+      <c r="AD93">
+        <v>1</v>
+      </c>
+      <c r="AE93">
+        <v>5</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>260</v>
+      </c>
+      <c r="AK93">
+        <v>52</v>
+      </c>
+      <c r="AL93">
+        <v>0.5881456126110731</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40">
+      <c r="A94" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94">
+        <v>128</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0.105</v>
+      </c>
+      <c r="G94">
+        <v>0.5</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94" t="s">
+        <v>51</v>
+      </c>
+      <c r="J94">
+        <v>0.3</v>
+      </c>
+      <c r="K94" t="s">
+        <v>52</v>
+      </c>
+      <c r="L94">
+        <v>0.01</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94" t="b">
+        <v>0</v>
+      </c>
+      <c r="O94" t="b">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0.05</v>
+      </c>
+      <c r="R94" t="b">
+        <v>0</v>
+      </c>
+      <c r="T94" t="b">
+        <v>0</v>
+      </c>
+      <c r="U94" t="b">
+        <v>0</v>
+      </c>
+      <c r="V94" t="s">
+        <v>56</v>
+      </c>
+      <c r="W94" t="b">
+        <v>0</v>
+      </c>
+      <c r="X94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>16</v>
+      </c>
+      <c r="AA94">
+        <v>1E-05</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>1E-08</v>
+      </c>
+      <c r="AD94">
+        <v>1</v>
+      </c>
+      <c r="AE94">
+        <v>5</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>261</v>
+      </c>
+      <c r="AK94">
+        <v>53</v>
+      </c>
+      <c r="AL94">
+        <v>0.592170378477241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40">
+      <c r="A95" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95">
+        <v>128</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0.105</v>
+      </c>
+      <c r="G95">
+        <v>0.5</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>51</v>
+      </c>
+      <c r="J95">
+        <v>0.3</v>
+      </c>
+      <c r="K95" t="s">
+        <v>52</v>
+      </c>
+      <c r="L95">
+        <v>0.01</v>
+      </c>
+      <c r="M95">
+        <v>3</v>
+      </c>
+      <c r="N95" t="b">
+        <v>0</v>
+      </c>
+      <c r="O95" t="b">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0.05</v>
+      </c>
+      <c r="R95" t="b">
+        <v>0</v>
+      </c>
+      <c r="T95" t="b">
+        <v>0</v>
+      </c>
+      <c r="U95" t="b">
+        <v>0</v>
+      </c>
+      <c r="V95" t="s">
+        <v>56</v>
+      </c>
+      <c r="W95" t="b">
+        <v>0</v>
+      </c>
+      <c r="X95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>16</v>
+      </c>
+      <c r="AA95">
+        <v>1E-05</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>1E-08</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AE95">
+        <v>5</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK95">
+        <v>54</v>
+      </c>
+      <c r="AL95">
+        <v>0.5886975288197523</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40">
+      <c r="A96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96">
+        <v>128</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0.105</v>
+      </c>
+      <c r="G96">
+        <v>0.5</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96" t="s">
+        <v>51</v>
+      </c>
+      <c r="J96">
+        <v>0.3</v>
+      </c>
+      <c r="K96" t="s">
+        <v>52</v>
+      </c>
+      <c r="L96">
+        <v>0.01</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+      <c r="N96" t="b">
+        <v>0</v>
+      </c>
+      <c r="O96" t="b">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0.05</v>
+      </c>
+      <c r="R96" t="b">
+        <v>1</v>
+      </c>
+      <c r="S96" t="s">
+        <v>55</v>
+      </c>
+      <c r="T96" t="b">
+        <v>0</v>
+      </c>
+      <c r="U96" t="b">
+        <v>0</v>
+      </c>
+      <c r="V96" t="s">
+        <v>56</v>
+      </c>
+      <c r="W96" t="b">
+        <v>0</v>
+      </c>
+      <c r="X96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>16</v>
+      </c>
+      <c r="AA96">
+        <v>1E-05</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>1E-08</v>
+      </c>
+      <c r="AD96">
+        <v>1</v>
+      </c>
+      <c r="AE96">
+        <v>5</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK96">
+        <v>50</v>
+      </c>
+      <c r="AL96">
+        <v>0.5754059683033594</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41">
+      <c r="A97" t="s">
+        <v>41</v>
+      </c>
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97">
+        <v>128</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0.105</v>
+      </c>
+      <c r="G97">
+        <v>0.5</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>51</v>
+      </c>
+      <c r="J97">
+        <v>0.3</v>
+      </c>
+      <c r="K97" t="s">
+        <v>52</v>
+      </c>
+      <c r="L97">
+        <v>0.01</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97" t="b">
+        <v>0</v>
+      </c>
+      <c r="O97" t="b">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0.05</v>
+      </c>
+      <c r="R97" t="b">
+        <v>1</v>
+      </c>
+      <c r="S97" t="s">
+        <v>55</v>
+      </c>
+      <c r="T97" t="b">
+        <v>0</v>
+      </c>
+      <c r="U97" t="b">
+        <v>0</v>
+      </c>
+      <c r="V97" t="s">
+        <v>56</v>
+      </c>
+      <c r="W97" t="b">
+        <v>0</v>
+      </c>
+      <c r="X97" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>16</v>
+      </c>
+      <c r="AA97">
+        <v>1E-05</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>1E-08</v>
+      </c>
+      <c r="AD97">
+        <v>1</v>
+      </c>
+      <c r="AE97">
+        <v>5</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK97">
+        <v>51</v>
+      </c>
+      <c r="AL97">
+        <v>0.6011283160741057</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41">
+      <c r="A98" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98">
+        <v>128</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0.105</v>
+      </c>
+      <c r="G98">
+        <v>0.5</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98" t="s">
+        <v>51</v>
+      </c>
+      <c r="J98">
+        <v>0.3</v>
+      </c>
+      <c r="K98" t="s">
+        <v>52</v>
+      </c>
+      <c r="L98">
+        <v>0.01</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98" t="b">
+        <v>0</v>
+      </c>
+      <c r="O98" t="b">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0.05</v>
+      </c>
+      <c r="R98" t="b">
+        <v>1</v>
+      </c>
+      <c r="S98" t="s">
+        <v>55</v>
+      </c>
+      <c r="T98" t="b">
+        <v>0</v>
+      </c>
+      <c r="U98" t="b">
+        <v>0</v>
+      </c>
+      <c r="V98" t="s">
+        <v>56</v>
+      </c>
+      <c r="W98" t="b">
+        <v>0</v>
+      </c>
+      <c r="X98" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>16</v>
+      </c>
+      <c r="AA98">
+        <v>1E-05</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>1E-08</v>
+      </c>
+      <c r="AD98">
+        <v>1</v>
+      </c>
+      <c r="AE98">
+        <v>5</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK98">
+        <v>52</v>
+      </c>
+      <c r="AL98">
+        <v>0.5784393205371179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99">
+        <v>128</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0.105</v>
+      </c>
+      <c r="G99">
+        <v>0.5</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>51</v>
+      </c>
+      <c r="J99">
+        <v>0.3</v>
+      </c>
+      <c r="K99" t="s">
+        <v>52</v>
+      </c>
+      <c r="L99">
+        <v>0.01</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" t="b">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0.05</v>
+      </c>
+      <c r="R99" t="b">
+        <v>1</v>
+      </c>
+      <c r="S99" t="s">
+        <v>55</v>
+      </c>
+      <c r="T99" t="b">
+        <v>0</v>
+      </c>
+      <c r="U99" t="b">
+        <v>0</v>
+      </c>
+      <c r="V99" t="s">
+        <v>56</v>
+      </c>
+      <c r="W99" t="b">
+        <v>0</v>
+      </c>
+      <c r="X99" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>16</v>
+      </c>
+      <c r="AA99">
+        <v>1E-05</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>1E-08</v>
+      </c>
+      <c r="AD99">
+        <v>1</v>
+      </c>
+      <c r="AE99">
+        <v>5</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK99">
+        <v>53</v>
+      </c>
+      <c r="AL99">
+        <v>0.5721518429332643</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41">
+      <c r="A100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100">
+        <v>128</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0.105</v>
+      </c>
+      <c r="G100">
+        <v>0.5</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>51</v>
+      </c>
+      <c r="J100">
+        <v>0.3</v>
+      </c>
+      <c r="K100" t="s">
+        <v>52</v>
+      </c>
+      <c r="L100">
+        <v>0.01</v>
+      </c>
+      <c r="M100">
+        <v>3</v>
+      </c>
+      <c r="N100" t="b">
+        <v>0</v>
+      </c>
+      <c r="O100" t="b">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0.05</v>
+      </c>
+      <c r="R100" t="b">
+        <v>1</v>
+      </c>
+      <c r="S100" t="s">
+        <v>55</v>
+      </c>
+      <c r="T100" t="b">
+        <v>0</v>
+      </c>
+      <c r="U100" t="b">
+        <v>0</v>
+      </c>
+      <c r="V100" t="s">
+        <v>56</v>
+      </c>
+      <c r="W100" t="b">
+        <v>0</v>
+      </c>
+      <c r="X100" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>16</v>
+      </c>
+      <c r="AA100">
+        <v>1E-05</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>1E-08</v>
+      </c>
+      <c r="AD100">
+        <v>1</v>
+      </c>
+      <c r="AE100">
+        <v>5</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK100">
+        <v>54</v>
+      </c>
+      <c r="AL100">
+        <v>0.5897944594276514</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101">
+        <v>128</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0.105</v>
+      </c>
+      <c r="G101">
+        <v>0.5</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101" t="s">
+        <v>51</v>
+      </c>
+      <c r="J101">
+        <v>0.3</v>
+      </c>
+      <c r="K101" t="s">
+        <v>52</v>
+      </c>
+      <c r="L101">
+        <v>0.01</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101" t="b">
+        <v>0</v>
+      </c>
+      <c r="O101" t="b">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0.05</v>
+      </c>
+      <c r="R101" t="b">
+        <v>0</v>
+      </c>
+      <c r="T101" t="b">
+        <v>0</v>
+      </c>
+      <c r="U101" t="b">
+        <v>0</v>
+      </c>
+      <c r="V101" t="s">
+        <v>56</v>
+      </c>
+      <c r="W101" t="b">
+        <v>0</v>
+      </c>
+      <c r="X101" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>16</v>
+      </c>
+      <c r="AA101">
+        <v>1E-05</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>1E-08</v>
+      </c>
+      <c r="AD101">
+        <v>1</v>
+      </c>
+      <c r="AE101">
+        <v>5</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK101">
+        <v>50</v>
+      </c>
+      <c r="AM101">
+        <v>0.4248866456537901</v>
+      </c>
+      <c r="AN101">
+        <v>0.3581970422577633</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41">
+      <c r="A102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102">
+        <v>128</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0.105</v>
+      </c>
+      <c r="G102">
+        <v>0.5</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102" t="s">
+        <v>51</v>
+      </c>
+      <c r="J102">
+        <v>0.3</v>
+      </c>
+      <c r="K102" t="s">
+        <v>52</v>
+      </c>
+      <c r="L102">
+        <v>0.01</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102" t="b">
+        <v>0</v>
+      </c>
+      <c r="O102" t="b">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0.05</v>
+      </c>
+      <c r="R102" t="b">
+        <v>0</v>
+      </c>
+      <c r="T102" t="b">
+        <v>0</v>
+      </c>
+      <c r="U102" t="b">
+        <v>0</v>
+      </c>
+      <c r="V102" t="s">
+        <v>56</v>
+      </c>
+      <c r="W102" t="b">
+        <v>0</v>
+      </c>
+      <c r="X102" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>16</v>
+      </c>
+      <c r="AA102">
+        <v>1E-05</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>1E-08</v>
+      </c>
+      <c r="AD102">
+        <v>1</v>
+      </c>
+      <c r="AE102">
+        <v>5</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK102">
+        <v>51</v>
+      </c>
+      <c r="AM102">
+        <v>0.4452495974235104</v>
+      </c>
+      <c r="AN102">
+        <v>0.4828890474051764</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41">
+      <c r="A103" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103">
+        <v>128</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0.105</v>
+      </c>
+      <c r="G103">
+        <v>0.5</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103" t="s">
+        <v>51</v>
+      </c>
+      <c r="J103">
+        <v>0.3</v>
+      </c>
+      <c r="K103" t="s">
+        <v>52</v>
+      </c>
+      <c r="L103">
+        <v>0.01</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103" t="b">
+        <v>0</v>
+      </c>
+      <c r="O103" t="b">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0.05</v>
+      </c>
+      <c r="R103" t="b">
+        <v>0</v>
+      </c>
+      <c r="T103" t="b">
+        <v>0</v>
+      </c>
+      <c r="U103" t="b">
+        <v>0</v>
+      </c>
+      <c r="V103" t="s">
+        <v>56</v>
+      </c>
+      <c r="W103" t="b">
+        <v>0</v>
+      </c>
+      <c r="X103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>16</v>
+      </c>
+      <c r="AA103">
+        <v>1E-05</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>1E-08</v>
+      </c>
+      <c r="AD103">
+        <v>1</v>
+      </c>
+      <c r="AE103">
+        <v>5</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK103">
+        <v>52</v>
+      </c>
+      <c r="AM103">
+        <v>0.4425391867016232</v>
+      </c>
+      <c r="AN103">
+        <v>0.366482661004954</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41">
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104">
+        <v>128</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0.105</v>
+      </c>
+      <c r="G104">
+        <v>0.5</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104" t="s">
+        <v>51</v>
+      </c>
+      <c r="J104">
+        <v>0.3</v>
+      </c>
+      <c r="K104" t="s">
+        <v>52</v>
+      </c>
+      <c r="L104">
+        <v>0.01</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104" t="b">
+        <v>0</v>
+      </c>
+      <c r="O104" t="b">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0.05</v>
+      </c>
+      <c r="R104" t="b">
+        <v>0</v>
+      </c>
+      <c r="T104" t="b">
+        <v>0</v>
+      </c>
+      <c r="U104" t="b">
+        <v>0</v>
+      </c>
+      <c r="V104" t="s">
+        <v>56</v>
+      </c>
+      <c r="W104" t="b">
+        <v>0</v>
+      </c>
+      <c r="X104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>16</v>
+      </c>
+      <c r="AA104">
+        <v>1E-05</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>1E-08</v>
+      </c>
+      <c r="AD104">
+        <v>1</v>
+      </c>
+      <c r="AE104">
+        <v>5</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ104" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK104">
+        <v>53</v>
+      </c>
+      <c r="AM104">
+        <v>0.4511342873312312</v>
+      </c>
+      <c r="AN104">
+        <v>0.3140723270440252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41">
+      <c r="A105" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105">
+        <v>128</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0.105</v>
+      </c>
+      <c r="G105">
+        <v>0.5</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105" t="s">
+        <v>51</v>
+      </c>
+      <c r="J105">
+        <v>0.3</v>
+      </c>
+      <c r="K105" t="s">
+        <v>52</v>
+      </c>
+      <c r="L105">
+        <v>0.01</v>
+      </c>
+      <c r="M105">
+        <v>3</v>
+      </c>
+      <c r="N105" t="b">
+        <v>0</v>
+      </c>
+      <c r="O105" t="b">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0.05</v>
+      </c>
+      <c r="R105" t="b">
+        <v>0</v>
+      </c>
+      <c r="T105" t="b">
+        <v>0</v>
+      </c>
+      <c r="U105" t="b">
+        <v>0</v>
+      </c>
+      <c r="V105" t="s">
+        <v>56</v>
+      </c>
+      <c r="W105" t="b">
+        <v>0</v>
+      </c>
+      <c r="X105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>16</v>
+      </c>
+      <c r="AA105">
+        <v>1E-05</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>1E-08</v>
+      </c>
+      <c r="AD105">
+        <v>1</v>
+      </c>
+      <c r="AE105">
+        <v>5</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK105">
+        <v>54</v>
+      </c>
+      <c r="AM105">
+        <v>0.3331800237629834</v>
+      </c>
+      <c r="AN105">
+        <v>0.455298186772875</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41">
+      <c r="A106" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106">
+        <v>128</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0.105</v>
+      </c>
+      <c r="G106">
+        <v>0.5</v>
+      </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106" t="s">
+        <v>51</v>
+      </c>
+      <c r="J106">
+        <v>0.3</v>
+      </c>
+      <c r="K106" t="s">
+        <v>52</v>
+      </c>
+      <c r="L106">
+        <v>0.01</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106" t="b">
+        <v>0</v>
+      </c>
+      <c r="O106" t="b">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0.05</v>
+      </c>
+      <c r="R106" t="b">
+        <v>0</v>
+      </c>
+      <c r="T106" t="b">
+        <v>0</v>
+      </c>
+      <c r="U106" t="b">
+        <v>0</v>
+      </c>
+      <c r="V106" t="s">
+        <v>56</v>
+      </c>
+      <c r="W106" t="b">
+        <v>0</v>
+      </c>
+      <c r="X106" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z106">
+        <v>16</v>
+      </c>
+      <c r="AA106">
+        <v>1E-05</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>1E-08</v>
+      </c>
+      <c r="AD106">
+        <v>1</v>
+      </c>
+      <c r="AE106">
+        <v>5</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK106">
+        <v>50</v>
+      </c>
+      <c r="AO106">
+        <v>0.43856098465731</v>
+      </c>
+    </row>
+    <row r="107" spans="1:41">
+      <c r="A107" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107">
+        <v>128</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0.105</v>
+      </c>
+      <c r="G107">
+        <v>0.5</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107" t="s">
+        <v>51</v>
+      </c>
+      <c r="J107">
+        <v>0.3</v>
+      </c>
+      <c r="K107" t="s">
+        <v>52</v>
+      </c>
+      <c r="L107">
+        <v>0.01</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107" t="b">
+        <v>0</v>
+      </c>
+      <c r="O107" t="b">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0.05</v>
+      </c>
+      <c r="R107" t="b">
+        <v>0</v>
+      </c>
+      <c r="T107" t="b">
+        <v>0</v>
+      </c>
+      <c r="U107" t="b">
+        <v>0</v>
+      </c>
+      <c r="V107" t="s">
+        <v>56</v>
+      </c>
+      <c r="W107" t="b">
+        <v>0</v>
+      </c>
+      <c r="X107" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z107">
+        <v>16</v>
+      </c>
+      <c r="AA107">
+        <v>1E-05</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>1E-08</v>
+      </c>
+      <c r="AD107">
+        <v>1</v>
+      </c>
+      <c r="AE107">
+        <v>5</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ107" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK107">
+        <v>51</v>
+      </c>
+      <c r="AO107">
+        <v>0.4344395824572878</v>
+      </c>
+    </row>
+    <row r="108" spans="1:41">
+      <c r="A108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108">
+        <v>128</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0.105</v>
+      </c>
+      <c r="G108">
+        <v>0.5</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108" t="s">
+        <v>51</v>
+      </c>
+      <c r="J108">
+        <v>0.3</v>
+      </c>
+      <c r="K108" t="s">
+        <v>52</v>
+      </c>
+      <c r="L108">
+        <v>0.01</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+      <c r="N108" t="b">
+        <v>0</v>
+      </c>
+      <c r="O108" t="b">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0.05</v>
+      </c>
+      <c r="R108" t="b">
+        <v>0</v>
+      </c>
+      <c r="T108" t="b">
+        <v>0</v>
+      </c>
+      <c r="U108" t="b">
+        <v>0</v>
+      </c>
+      <c r="V108" t="s">
+        <v>56</v>
+      </c>
+      <c r="W108" t="b">
+        <v>0</v>
+      </c>
+      <c r="X108" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z108">
+        <v>16</v>
+      </c>
+      <c r="AA108">
+        <v>1E-05</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>1E-08</v>
+      </c>
+      <c r="AD108">
+        <v>1</v>
+      </c>
+      <c r="AE108">
+        <v>5</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK108">
+        <v>52</v>
+      </c>
+      <c r="AO108">
+        <v>0.4270054547643661</v>
+      </c>
+    </row>
+    <row r="109" spans="1:41">
+      <c r="A109" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109">
+        <v>128</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0.105</v>
+      </c>
+      <c r="G109">
+        <v>0.5</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109" t="s">
+        <v>51</v>
+      </c>
+      <c r="J109">
+        <v>0.3</v>
+      </c>
+      <c r="K109" t="s">
+        <v>52</v>
+      </c>
+      <c r="L109">
+        <v>0.01</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109" t="b">
+        <v>0</v>
+      </c>
+      <c r="O109" t="b">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0.05</v>
+      </c>
+      <c r="R109" t="b">
+        <v>0</v>
+      </c>
+      <c r="T109" t="b">
+        <v>0</v>
+      </c>
+      <c r="U109" t="b">
+        <v>0</v>
+      </c>
+      <c r="V109" t="s">
+        <v>56</v>
+      </c>
+      <c r="W109" t="b">
+        <v>0</v>
+      </c>
+      <c r="X109" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z109">
+        <v>16</v>
+      </c>
+      <c r="AA109">
+        <v>1E-05</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>1E-08</v>
+      </c>
+      <c r="AD109">
+        <v>1</v>
+      </c>
+      <c r="AE109">
+        <v>5</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK109">
+        <v>53</v>
+      </c>
+      <c r="AO109">
+        <v>0.4270103907071542</v>
+      </c>
+    </row>
+    <row r="110" spans="1:41">
+      <c r="A110" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110">
+        <v>128</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0.105</v>
+      </c>
+      <c r="G110">
+        <v>0.5</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110" t="s">
+        <v>51</v>
+      </c>
+      <c r="J110">
+        <v>0.3</v>
+      </c>
+      <c r="K110" t="s">
+        <v>52</v>
+      </c>
+      <c r="L110">
+        <v>0.01</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110" t="b">
+        <v>0</v>
+      </c>
+      <c r="O110" t="b">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0.05</v>
+      </c>
+      <c r="R110" t="b">
+        <v>0</v>
+      </c>
+      <c r="T110" t="b">
+        <v>0</v>
+      </c>
+      <c r="U110" t="b">
+        <v>0</v>
+      </c>
+      <c r="V110" t="s">
+        <v>56</v>
+      </c>
+      <c r="W110" t="b">
+        <v>0</v>
+      </c>
+      <c r="X110" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z110">
+        <v>16</v>
+      </c>
+      <c r="AA110">
+        <v>1E-05</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>1E-08</v>
+      </c>
+      <c r="AD110">
+        <v>1</v>
+      </c>
+      <c r="AE110">
+        <v>5</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK110">
+        <v>54</v>
+      </c>
+      <c r="AO110">
+        <v>0.427991704980003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:41">
+      <c r="A111" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111">
+        <v>128</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0.105</v>
+      </c>
+      <c r="G111">
+        <v>0.5</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111" t="s">
+        <v>51</v>
+      </c>
+      <c r="J111">
+        <v>0.3</v>
+      </c>
+      <c r="K111" t="s">
+        <v>52</v>
+      </c>
+      <c r="L111">
+        <v>0.01</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111" t="b">
+        <v>0</v>
+      </c>
+      <c r="O111" t="b">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0.05</v>
+      </c>
+      <c r="R111" t="b">
+        <v>0</v>
+      </c>
+      <c r="T111" t="b">
+        <v>0</v>
+      </c>
+      <c r="U111" t="b">
+        <v>0</v>
+      </c>
+      <c r="V111" t="s">
+        <v>56</v>
+      </c>
+      <c r="W111" t="b">
+        <v>0</v>
+      </c>
+      <c r="X111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>16</v>
+      </c>
+      <c r="AA111">
+        <v>1E-05</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>1E-08</v>
+      </c>
+      <c r="AD111">
+        <v>1</v>
+      </c>
+      <c r="AE111">
+        <v>5</v>
+      </c>
+      <c r="AG111">
+        <v>0.366026854104713</v>
+      </c>
+      <c r="AH111">
+        <v>0.2075189658045448</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK111">
+        <v>50</v>
+      </c>
+      <c r="AL111">
+        <v>0.5346185849984331</v>
+      </c>
+      <c r="AM111">
+        <v>0.2639163192158584</v>
+      </c>
+      <c r="AN111">
+        <v>0.3403988461056064</v>
+      </c>
+    </row>
+    <row r="112" spans="1:41">
+      <c r="A112" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112">
+        <v>128</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0.105</v>
+      </c>
+      <c r="G112">
+        <v>0.5</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112" t="s">
+        <v>51</v>
+      </c>
+      <c r="J112">
+        <v>0.3</v>
+      </c>
+      <c r="K112" t="s">
+        <v>52</v>
+      </c>
+      <c r="L112">
+        <v>0.01</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112" t="b">
+        <v>0</v>
+      </c>
+      <c r="O112" t="b">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0.05</v>
+      </c>
+      <c r="R112" t="b">
+        <v>0</v>
+      </c>
+      <c r="T112" t="b">
+        <v>0</v>
+      </c>
+      <c r="U112" t="b">
+        <v>0</v>
+      </c>
+      <c r="V112" t="s">
+        <v>56</v>
+      </c>
+      <c r="W112" t="b">
+        <v>0</v>
+      </c>
+      <c r="X112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>16</v>
+      </c>
+      <c r="AA112">
+        <v>1E-05</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>1E-08</v>
+      </c>
+      <c r="AD112">
+        <v>1</v>
+      </c>
+      <c r="AE112">
+        <v>5</v>
+      </c>
+      <c r="AG112">
+        <v>0.3713469906905253</v>
+      </c>
+      <c r="AH112">
+        <v>0.2142509282310818</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK112">
+        <v>51</v>
+      </c>
+      <c r="AL112">
+        <v>0.5573238179108934</v>
+      </c>
+      <c r="AM112">
+        <v>0.2903774027191748</v>
+      </c>
+      <c r="AN112">
+        <v>0.3691365584813227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:40">
+      <c r="A113" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113">
+        <v>128</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0.105</v>
+      </c>
+      <c r="G113">
+        <v>0.5</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113" t="s">
+        <v>51</v>
+      </c>
+      <c r="J113">
+        <v>0.3</v>
+      </c>
+      <c r="K113" t="s">
+        <v>52</v>
+      </c>
+      <c r="L113">
+        <v>0.01</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113" t="b">
+        <v>0</v>
+      </c>
+      <c r="O113" t="b">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0.05</v>
+      </c>
+      <c r="R113" t="b">
+        <v>0</v>
+      </c>
+      <c r="T113" t="b">
+        <v>0</v>
+      </c>
+      <c r="U113" t="b">
+        <v>0</v>
+      </c>
+      <c r="V113" t="s">
+        <v>56</v>
+      </c>
+      <c r="W113" t="b">
+        <v>0</v>
+      </c>
+      <c r="X113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>16</v>
+      </c>
+      <c r="AA113">
+        <v>1E-05</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>1E-08</v>
+      </c>
+      <c r="AD113">
+        <v>1</v>
+      </c>
+      <c r="AE113">
+        <v>5</v>
+      </c>
+      <c r="AG113">
+        <v>0.3658083658818296</v>
+      </c>
+      <c r="AH113">
+        <v>0.229473370959164</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK113">
+        <v>52</v>
+      </c>
+      <c r="AL113">
+        <v>0.5468023514741248</v>
+      </c>
+      <c r="AM113">
+        <v>0.3039663039663039</v>
+      </c>
+      <c r="AN113">
+        <v>0.3284594193685103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:40">
+      <c r="A114" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114">
+        <v>128</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0.105</v>
+      </c>
+      <c r="G114">
+        <v>0.5</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114" t="s">
+        <v>51</v>
+      </c>
+      <c r="J114">
+        <v>0.3</v>
+      </c>
+      <c r="K114" t="s">
+        <v>52</v>
+      </c>
+      <c r="L114">
+        <v>0.01</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114" t="b">
+        <v>0</v>
+      </c>
+      <c r="O114" t="b">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0.05</v>
+      </c>
+      <c r="R114" t="b">
+        <v>0</v>
+      </c>
+      <c r="T114" t="b">
+        <v>0</v>
+      </c>
+      <c r="U114" t="b">
+        <v>0</v>
+      </c>
+      <c r="V114" t="s">
+        <v>56</v>
+      </c>
+      <c r="W114" t="b">
+        <v>0</v>
+      </c>
+      <c r="X114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>16</v>
+      </c>
+      <c r="AA114">
+        <v>1E-05</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>1E-08</v>
+      </c>
+      <c r="AD114">
+        <v>1</v>
+      </c>
+      <c r="AE114">
+        <v>5</v>
+      </c>
+      <c r="AG114">
+        <v>0.365483383264434</v>
+      </c>
+      <c r="AH114">
+        <v>0.229154138941373</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK114">
+        <v>53</v>
+      </c>
+      <c r="AL114">
+        <v>0.546964069638227</v>
+      </c>
+      <c r="AM114">
+        <v>0.2751760563380282</v>
+      </c>
+      <c r="AN114">
+        <v>0.3536634191912452</v>
+      </c>
+    </row>
+    <row r="115" spans="1:40">
+      <c r="A115" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115">
+        <v>128</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0.105</v>
+      </c>
+      <c r="G115">
+        <v>0.5</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115" t="s">
+        <v>51</v>
+      </c>
+      <c r="J115">
+        <v>0.3</v>
+      </c>
+      <c r="K115" t="s">
+        <v>52</v>
+      </c>
+      <c r="L115">
+        <v>0.01</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+      <c r="N115" t="b">
+        <v>0</v>
+      </c>
+      <c r="O115" t="b">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0.05</v>
+      </c>
+      <c r="R115" t="b">
+        <v>0</v>
+      </c>
+      <c r="T115" t="b">
+        <v>0</v>
+      </c>
+      <c r="U115" t="b">
+        <v>0</v>
+      </c>
+      <c r="V115" t="s">
+        <v>56</v>
+      </c>
+      <c r="W115" t="b">
+        <v>0</v>
+      </c>
+      <c r="X115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>16</v>
+      </c>
+      <c r="AA115">
+        <v>1E-05</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>1E-08</v>
+      </c>
+      <c r="AD115">
+        <v>1</v>
+      </c>
+      <c r="AE115">
+        <v>5</v>
+      </c>
+      <c r="AG115">
+        <v>0.3677111029005142</v>
+      </c>
+      <c r="AH115">
+        <v>0.1931644659020539</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK115">
+        <v>54</v>
+      </c>
+      <c r="AL115">
+        <v>0.5619557822406748</v>
+      </c>
+      <c r="AM115">
+        <v>0.3237888123716322</v>
+      </c>
+      <c r="AN115">
+        <v>0.3436894122097696</v>
       </c>
     </row>
   </sheetData>

--- a/big_results.xlsx
+++ b/big_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="305">
   <si>
     <t>model_base</t>
   </si>
@@ -142,6 +142,9 @@
     <t>microsoft/infoxlm-base</t>
   </si>
   <si>
+    <t>microsoft/infoxlm-large</t>
+  </si>
+  <si>
     <t>['arc', 'argmin', 'fnc1', 'iac1', 'ibmcs', 'perspectrum', 'semeval2016t6', 'snopes', 'twitter2015', 'twitter2017', 'vast']</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>['sentistance_mwiki']</t>
   </si>
   <si>
+    <t>['sentistance_enwiki']</t>
+  </si>
+  <si>
     <t>stance_3</t>
   </si>
   <si>
@@ -523,6 +529,36 @@
     <t>../stance_expts/ml-stance-mwiki-no_mlm-2_neg-rs_rp-variant_3-attempt_r4/checkpoint-best</t>
   </si>
   <si>
+    <t>../stance_expts/ml-stance-enwiki-no_mlm-2_neg-rs_rp-variant_3-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-enwiki-no_mlm-2_neg-rs_rp-variant_3-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-enwiki-no_mlm-2_neg-rs_rp-variant_3-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-enwiki-no_mlm-2_neg-rs_rp-variant_3-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-enwiki-no_mlm-2_neg-rs_rp-variant_3-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-large_model-attempt_r0/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-large_model-attempt_r1/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-large_model-attempt_r2/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-large_model-attempt_r3/checkpoint-best</t>
+  </si>
+  <si>
+    <t>../stance_expts/ml-stance-11_en-no_mlm-2_neg-rs_rp-variant_3-large_model-attempt_r4/checkpoint-best</t>
+  </si>
+  <si>
     <t>fd6ee81ee999aa9e844bce113233547d33e8e4c8994a0ca88ff563fef9b48851</t>
   </si>
   <si>
@@ -565,22 +601,22 @@
     <t>aaebf51b17c0f5bc073a3f5d1da547ccf9d4d69256decafbb852ae46bd82352a</t>
   </si>
   <si>
-    <t>de84f98e76f1c616fb6d41e8b84b9b19d52dc16e6e9d6fb39b795af68386370f</t>
-  </si>
-  <si>
-    <t>87bbcf7e91bcf60998b9661bce1725f22e42a2cb19e28f01fe3899cce41bee26</t>
-  </si>
-  <si>
-    <t>eff8a062c6bb1b874a1a88077b0eb2fd6dd22521fc6bd4894ce717ea7b2b421a</t>
-  </si>
-  <si>
-    <t>39a9a32cbe786ddb6eb0d5dfb373c8cf48ba9ae9baac15a2a4143c949d231602</t>
-  </si>
-  <si>
-    <t>53331a0cd34ad7a84127c257314e856d761c744de77d5f9b9fcd47c486ddd40a</t>
-  </si>
-  <si>
-    <t>e7025f1b4497bfc7d6a4b1035dea324632d623396d580ce70714b826e4df5bac</t>
+    <t>2bc982b8d85abec3ab2d25191108d269520e9d918198a6a673bf747ac4e1d766</t>
+  </si>
+  <si>
+    <t>2ac3577139b144640822c51b24a9ed26c33c993a8a7b774c389c3ed5b10c44a1</t>
+  </si>
+  <si>
+    <t>b98155d5fea1930ebd18ddb38073a3bf39f4c5f4043640f8adb6b0f8a66f34f4</t>
+  </si>
+  <si>
+    <t>dde2474f1e2ba77410891e8131a5d9da46ba15360e2b5eca767bdad23586763a</t>
+  </si>
+  <si>
+    <t>79cc4974c2b5d8637e2b998b28b1d8a65045d48c02e5e9c130462ac87f2d0067</t>
+  </si>
+  <si>
+    <t>19964a8a59a5ea1db9c34efa791d06df6cd8d8d75eee3fe4f56851a502926937</t>
   </si>
   <si>
     <t>af09d38867693e4016addc04e068c1f9928d009190de9b55b20b29a4cb438670</t>
@@ -863,6 +899,36 @@
   </si>
   <si>
     <t>c0e86aa42f9c5c0a13f1436d0966450c70822b3e5eccdb0fa8a4dc41bfe52cfc</t>
+  </si>
+  <si>
+    <t>e80e679e2f1b0dfd655b461be3a4ecc80eea5678a754f646e78fc4a09a9e780a</t>
+  </si>
+  <si>
+    <t>fe07c298e094343b017d68932c63087655e53cf84a32e78660f9807e5eaab6b4</t>
+  </si>
+  <si>
+    <t>0ca6c9a34a35ff49635cc683a7fe82a320170192e8cee4229ea87669e95a7f93</t>
+  </si>
+  <si>
+    <t>2d6beab04552eefd23b78b34e19ceff31b51c8787c19a300690a83cf55f1c339</t>
+  </si>
+  <si>
+    <t>1905ceac87681836ee089614e51995c57e963a110068b6fb4bb8314cdc0a56f5</t>
+  </si>
+  <si>
+    <t>533f6584f74af0929056184c8a013e9ca10e6e49854aa456edfdc17211e69bef</t>
+  </si>
+  <si>
+    <t>d080d0a2b0771b7e7d02efbeab387f200f2bfc719cb9c36a853291f53e593265</t>
+  </si>
+  <si>
+    <t>2d1e8f02fe5d8c44071697f50b1c3696e34697ce67cb281106487ef0135a7d76</t>
+  </si>
+  <si>
+    <t>de6cea682d01f752a9df560177359b0ab3917d2e15f09499bce746496b2879b5</t>
+  </si>
+  <si>
+    <t>f9fc94361b510a7e3f470974780ca73880154bd65c59239616f5f064452403e9</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO115"/>
+  <dimension ref="A1:AO125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1356,10 +1422,10 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>128</v>
@@ -1377,13 +1443,13 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <v>0.3</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L2">
         <v>0.01</v>
@@ -1404,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T2" t="b">
         <v>0</v>
@@ -1413,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W2" t="b">
         <v>0</v>
@@ -1443,10 +1509,10 @@
         <v>0.586876838814128</v>
       </c>
       <c r="AI2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AJ2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -1454,10 +1520,10 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>128</v>
@@ -1475,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>0.3</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L3">
         <v>0.01</v>
@@ -1502,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T3" t="b">
         <v>0</v>
@@ -1511,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W3" t="b">
         <v>0</v>
@@ -1541,10 +1607,10 @@
         <v>0.5406144299719992</v>
       </c>
       <c r="AI3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1552,10 +1618,10 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>128</v>
@@ -1573,13 +1639,13 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>0.3</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L4">
         <v>0.01</v>
@@ -1600,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
@@ -1609,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W4" t="b">
         <v>0</v>
@@ -1639,10 +1705,10 @@
         <v>0.5667721825824592</v>
       </c>
       <c r="AI4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ4" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1650,10 +1716,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>128</v>
@@ -1671,13 +1737,13 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>0.3</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L5">
         <v>0.01</v>
@@ -1698,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T5" t="b">
         <v>0</v>
@@ -1707,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
@@ -1740,10 +1806,10 @@
         <v>0.6045533966268596</v>
       </c>
       <c r="AI5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1751,10 +1817,10 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>128</v>
@@ -1772,13 +1838,13 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>0.3</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L6">
         <v>0.01</v>
@@ -1799,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T6" t="b">
         <v>0</v>
@@ -1808,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W6" t="b">
         <v>0</v>
@@ -1841,10 +1907,10 @@
         <v>0.5962915173237754</v>
       </c>
       <c r="AI6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ6" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1852,10 +1918,10 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>128</v>
@@ -1873,13 +1939,13 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>0.3</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L7">
         <v>0.01</v>
@@ -1900,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T7" t="b">
         <v>0</v>
@@ -1909,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -1942,10 +2008,10 @@
         <v>0.548275033369672</v>
       </c>
       <c r="AI7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AJ7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1953,10 +2019,10 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>128</v>
@@ -1974,13 +2040,13 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>0.3</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L8">
         <v>0.01</v>
@@ -2001,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
@@ -2010,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -2043,10 +2109,10 @@
         <v>0.5992932797694498</v>
       </c>
       <c r="AI8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AJ8" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -2054,10 +2120,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>128</v>
@@ -2075,13 +2141,13 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J9">
         <v>0.3</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L9">
         <v>0.01</v>
@@ -2102,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
@@ -2111,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -2144,10 +2210,10 @@
         <v>0.6024706091886282</v>
       </c>
       <c r="AI9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AJ9" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -2155,10 +2221,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>128</v>
@@ -2176,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J10">
         <v>0.3</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10">
         <v>0.01</v>
@@ -2209,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W10" t="b">
         <v>0</v>
@@ -2218,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="Y10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z10">
         <v>16</v>
@@ -2245,10 +2311,10 @@
         <v>0.5967769542168483</v>
       </c>
       <c r="AI10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2256,10 +2322,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>128</v>
@@ -2277,13 +2343,13 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>0.3</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L11">
         <v>0.01</v>
@@ -2310,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
@@ -2319,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="Y11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z11">
         <v>16</v>
@@ -2346,10 +2412,10 @@
         <v>0.5515704454402147</v>
       </c>
       <c r="AI11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ11" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2357,10 +2423,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>128</v>
@@ -2378,13 +2444,13 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J12">
         <v>0.3</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L12">
         <v>0.01</v>
@@ -2411,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W12" t="b">
         <v>0</v>
@@ -2420,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z12">
         <v>16</v>
@@ -2447,10 +2513,10 @@
         <v>0.552774178025092</v>
       </c>
       <c r="AI12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ12" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2458,10 +2524,10 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>128</v>
@@ -2479,13 +2545,13 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>0.3</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L13">
         <v>0.01</v>
@@ -2512,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W13" t="b">
         <v>0</v>
@@ -2521,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="Y13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z13">
         <v>16</v>
@@ -2548,10 +2614,10 @@
         <v>0.5592074033081228</v>
       </c>
       <c r="AI13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2559,10 +2625,10 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>128</v>
@@ -2580,13 +2646,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J14">
         <v>0.3</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L14">
         <v>0.01</v>
@@ -2613,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W14" t="b">
         <v>0</v>
@@ -2622,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="Y14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z14">
         <v>16</v>
@@ -2649,10 +2715,10 @@
         <v>0.5417429045080056</v>
       </c>
       <c r="AI14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2660,10 +2726,10 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>128</v>
@@ -2681,13 +2747,13 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J15">
         <v>0.3</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L15">
         <v>0.01</v>
@@ -2714,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W15" t="b">
         <v>0</v>
@@ -2723,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="Y15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z15">
         <v>16</v>
@@ -2750,10 +2816,10 @@
         <v>0.5698282299315306</v>
       </c>
       <c r="AI15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2761,10 +2827,10 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>128</v>
@@ -2782,13 +2848,13 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J16">
         <v>0.3</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L16">
         <v>0.01</v>
@@ -2815,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
@@ -2848,10 +2914,10 @@
         <v>0.5810215530620623</v>
       </c>
       <c r="AI16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:37">
@@ -2859,10 +2925,10 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>128</v>
@@ -2880,13 +2946,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J17">
         <v>0.3</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L17">
         <v>0.01</v>
@@ -2913,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W17" t="b">
         <v>0</v>
@@ -2946,10 +3012,10 @@
         <v>0.5783794487705053</v>
       </c>
       <c r="AI17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:37">
@@ -2957,10 +3023,10 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>128</v>
@@ -2978,13 +3044,13 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>0.3</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L18">
         <v>0.01</v>
@@ -3011,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W18" t="b">
         <v>0</v>
@@ -3044,10 +3110,10 @@
         <v>0.5725829868609268</v>
       </c>
       <c r="AI18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:37">
@@ -3055,10 +3121,10 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19">
         <v>128</v>
@@ -3076,13 +3142,13 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <v>0.3</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L19">
         <v>0.01</v>
@@ -3109,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W19" t="b">
         <v>0</v>
@@ -3142,10 +3208,10 @@
         <v>0.5874730493255385</v>
       </c>
       <c r="AI19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:37">
@@ -3153,10 +3219,10 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>128</v>
@@ -3174,13 +3240,13 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>0.3</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L20">
         <v>0.01</v>
@@ -3207,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W20" t="b">
         <v>0</v>
@@ -3240,10 +3306,10 @@
         <v>0.5743165918991666</v>
       </c>
       <c r="AI20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:37">
@@ -3251,10 +3317,10 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>128</v>
@@ -3272,13 +3338,13 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J21">
         <v>0.3</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L21">
         <v>0.01</v>
@@ -3305,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
@@ -3338,10 +3404,10 @@
         <v>0.5807680174366916</v>
       </c>
       <c r="AI21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:37">
@@ -3349,10 +3415,10 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>128</v>
@@ -3370,13 +3436,13 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <v>0.3</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L22">
         <v>0.01</v>
@@ -3403,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W22" t="b">
         <v>0</v>
@@ -3436,10 +3502,10 @@
         <v>0.4684228338486369</v>
       </c>
       <c r="AI22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ22" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="AK22">
         <v>50</v>
@@ -3450,10 +3516,10 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23">
         <v>128</v>
@@ -3471,13 +3537,13 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J23">
         <v>0.3</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L23">
         <v>0.01</v>
@@ -3504,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W23" t="b">
         <v>0</v>
@@ -3537,10 +3603,10 @@
         <v>0.4768825516422612</v>
       </c>
       <c r="AI23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AJ23" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="AK23">
         <v>51</v>
@@ -3551,10 +3617,10 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>128</v>
@@ -3572,13 +3638,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>0.3</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L24">
         <v>0.01</v>
@@ -3605,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
@@ -3638,10 +3704,10 @@
         <v>0.4707042761620226</v>
       </c>
       <c r="AI24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AJ24" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AK24">
         <v>52</v>
@@ -3652,10 +3718,10 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>128</v>
@@ -3673,13 +3739,13 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>0.3</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L25">
         <v>0.01</v>
@@ -3706,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W25" t="b">
         <v>0</v>
@@ -3739,10 +3805,10 @@
         <v>0.4838860649382388</v>
       </c>
       <c r="AI25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AK25">
         <v>53</v>
@@ -3753,10 +3819,10 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>128</v>
@@ -3774,13 +3840,13 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <v>0.3</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L26">
         <v>0.01</v>
@@ -3807,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W26" t="b">
         <v>0</v>
@@ -3840,10 +3906,10 @@
         <v>0.4738659533516283</v>
       </c>
       <c r="AI26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AJ26" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AK26">
         <v>54</v>
@@ -3854,10 +3920,10 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27">
         <v>128</v>
@@ -3875,13 +3941,13 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J27">
         <v>0.3</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L27">
         <v>0.01</v>
@@ -3908,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W27" t="b">
         <v>0</v>
@@ -3941,10 +4007,10 @@
         <v>0.4806648190197469</v>
       </c>
       <c r="AI27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AJ27" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="AK27">
         <v>55</v>
@@ -3955,10 +4021,10 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>128</v>
@@ -3976,13 +4042,13 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J28">
         <v>0.3</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L28">
         <v>0.01</v>
@@ -4003,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="S28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T28" t="b">
         <v>0</v>
@@ -4012,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W28" t="b">
         <v>0</v>
@@ -4021,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z28">
         <v>16</v>
@@ -4048,10 +4114,10 @@
         <v>0.5645852348036833</v>
       </c>
       <c r="AI28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AJ28" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AK28">
         <v>50</v>
@@ -4062,10 +4128,10 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>128</v>
@@ -4083,13 +4149,13 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J29">
         <v>0.3</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L29">
         <v>0.01</v>
@@ -4110,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="S29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T29" t="b">
         <v>0</v>
@@ -4119,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W29" t="b">
         <v>0</v>
@@ -4128,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z29">
         <v>16</v>
@@ -4155,10 +4221,10 @@
         <v>0.6090643893642737</v>
       </c>
       <c r="AI29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AJ29" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AK29">
         <v>51</v>
@@ -4169,10 +4235,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>128</v>
@@ -4190,13 +4256,13 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J30">
         <v>0.3</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L30">
         <v>0.01</v>
@@ -4217,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="S30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T30" t="b">
         <v>0</v>
@@ -4226,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W30" t="b">
         <v>0</v>
@@ -4235,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="Y30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z30">
         <v>16</v>
@@ -4262,10 +4328,10 @@
         <v>0.5812893517854353</v>
       </c>
       <c r="AI30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AJ30" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AK30">
         <v>52</v>
@@ -4276,10 +4342,10 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <v>128</v>
@@ -4297,13 +4363,13 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J31">
         <v>0.3</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L31">
         <v>0.01</v>
@@ -4324,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="S31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T31" t="b">
         <v>0</v>
@@ -4333,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W31" t="b">
         <v>0</v>
@@ -4342,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z31">
         <v>16</v>
@@ -4369,10 +4435,10 @@
         <v>0.5714460243650232</v>
       </c>
       <c r="AI31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AJ31" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AK31">
         <v>53</v>
@@ -4383,10 +4449,10 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>128</v>
@@ -4404,13 +4470,13 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J32">
         <v>0.3</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L32">
         <v>0.01</v>
@@ -4431,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="S32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T32" t="b">
         <v>0</v>
@@ -4440,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W32" t="b">
         <v>0</v>
@@ -4449,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="Y32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z32">
         <v>16</v>
@@ -4476,10 +4542,10 @@
         <v>0.5689454351697566</v>
       </c>
       <c r="AI32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AJ32" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AK32">
         <v>54</v>
@@ -4490,10 +4556,10 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D33">
         <v>128</v>
@@ -4511,7 +4577,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -4553,10 +4619,10 @@
         <v>0.609046157025026</v>
       </c>
       <c r="AI33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AK33">
         <v>50</v>
@@ -4567,10 +4633,10 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D34">
         <v>128</v>
@@ -4588,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -4630,10 +4696,10 @@
         <v>0.6074798951361772</v>
       </c>
       <c r="AI34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AK34">
         <v>51</v>
@@ -4644,10 +4710,10 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D35">
         <v>128</v>
@@ -4665,7 +4731,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -4707,10 +4773,10 @@
         <v>0.5910942650574863</v>
       </c>
       <c r="AI35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="AK35">
         <v>52</v>
@@ -4721,10 +4787,10 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D36">
         <v>128</v>
@@ -4742,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -4784,10 +4850,10 @@
         <v>0.6074982783720261</v>
       </c>
       <c r="AI36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AK36">
         <v>53</v>
@@ -4798,10 +4864,10 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D37">
         <v>128</v>
@@ -4819,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -4861,10 +4927,10 @@
         <v>0.6143510990665462</v>
       </c>
       <c r="AI37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AK37">
         <v>54</v>
@@ -4875,10 +4941,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>128</v>
@@ -4896,13 +4962,13 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J38">
         <v>0.3</v>
       </c>
       <c r="K38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L38">
         <v>0.01</v>
@@ -4929,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W38" t="b">
         <v>0</v>
@@ -4962,10 +5028,10 @@
         <v>0.5653439153439154</v>
       </c>
       <c r="AI38" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AK38">
         <v>43</v>
@@ -4976,10 +5042,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>128</v>
@@ -4997,13 +5063,13 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J39">
         <v>0.3</v>
       </c>
       <c r="K39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L39">
         <v>0.01</v>
@@ -5030,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W39" t="b">
         <v>0</v>
@@ -5063,10 +5129,10 @@
         <v>0.5644254065099296</v>
       </c>
       <c r="AI39" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="AK39">
         <v>43</v>
@@ -5077,10 +5143,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>128</v>
@@ -5098,13 +5164,13 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J40">
         <v>0.3</v>
       </c>
       <c r="K40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L40">
         <v>0.01</v>
@@ -5131,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W40" t="b">
         <v>0</v>
@@ -5164,10 +5230,10 @@
         <v>0.5727848700085458</v>
       </c>
       <c r="AI40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="AK40">
         <v>43</v>
@@ -5178,10 +5244,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <v>128</v>
@@ -5199,13 +5265,13 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J41">
         <v>0.3</v>
       </c>
       <c r="K41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L41">
         <v>0.01</v>
@@ -5232,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W41" t="b">
         <v>0</v>
@@ -5265,10 +5331,10 @@
         <v>0.5986787818849619</v>
       </c>
       <c r="AI41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="AK41">
         <v>43</v>
@@ -5279,10 +5345,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>128</v>
@@ -5300,13 +5366,13 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J42">
         <v>0.3</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L42">
         <v>0.01</v>
@@ -5333,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W42" t="b">
         <v>0</v>
@@ -5366,10 +5432,10 @@
         <v>0.5465946161700393</v>
       </c>
       <c r="AI42" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AJ42" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AK42">
         <v>50</v>
@@ -5380,10 +5446,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>128</v>
@@ -5401,13 +5467,13 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J43">
         <v>0.3</v>
       </c>
       <c r="K43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L43">
         <v>0.01</v>
@@ -5434,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W43" t="b">
         <v>0</v>
@@ -5467,10 +5533,10 @@
         <v>0.5868311116139943</v>
       </c>
       <c r="AI43" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ43" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AK43">
         <v>50</v>
@@ -5481,10 +5547,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>128</v>
@@ -5502,13 +5568,13 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J44">
         <v>0.3</v>
       </c>
       <c r="K44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L44">
         <v>0.01</v>
@@ -5535,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W44" t="b">
         <v>0</v>
@@ -5568,10 +5634,10 @@
         <v>0.571145443984855</v>
       </c>
       <c r="AI44" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ44" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AK44">
         <v>52</v>
@@ -5582,10 +5648,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D45">
         <v>128</v>
@@ -5603,13 +5669,13 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J45">
         <v>0.3</v>
       </c>
       <c r="K45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L45">
         <v>0.01</v>
@@ -5636,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W45" t="b">
         <v>0</v>
@@ -5669,10 +5735,10 @@
         <v>0.5657308488509448</v>
       </c>
       <c r="AI45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AJ45" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AK45">
         <v>51</v>
@@ -5683,10 +5749,10 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D46">
         <v>128</v>
@@ -5704,7 +5770,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J46">
         <v>0.3</v>
@@ -5731,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W46" t="b">
         <v>0</v>
@@ -5758,10 +5824,10 @@
         <v>5</v>
       </c>
       <c r="AI46" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AJ46" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AK46">
         <v>50</v>
@@ -5775,10 +5841,10 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D47">
         <v>128</v>
@@ -5796,7 +5862,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J47">
         <v>0.3</v>
@@ -5823,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W47" t="b">
         <v>0</v>
@@ -5850,10 +5916,10 @@
         <v>5</v>
       </c>
       <c r="AI47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AJ47" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AK47">
         <v>51</v>
@@ -5867,10 +5933,10 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D48">
         <v>128</v>
@@ -5888,7 +5954,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J48">
         <v>0.3</v>
@@ -5915,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W48" t="b">
         <v>0</v>
@@ -5942,10 +6008,10 @@
         <v>5</v>
       </c>
       <c r="AI48" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AJ48" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AK48">
         <v>52</v>
@@ -5959,10 +6025,10 @@
         <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>128</v>
@@ -5980,7 +6046,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>0.3</v>
@@ -6007,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W49" t="b">
         <v>0</v>
@@ -6034,10 +6100,10 @@
         <v>5</v>
       </c>
       <c r="AI49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ49" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AK49">
         <v>53</v>
@@ -6051,10 +6117,10 @@
         <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D50">
         <v>128</v>
@@ -6072,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J50">
         <v>0.3</v>
@@ -6099,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W50" t="b">
         <v>0</v>
@@ -6126,10 +6192,10 @@
         <v>5</v>
       </c>
       <c r="AI50" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AJ50" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AK50">
         <v>54</v>
@@ -6143,10 +6209,10 @@
         <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D51">
         <v>128</v>
@@ -6164,7 +6230,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J51">
         <v>0.3</v>
@@ -6191,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W51" t="b">
         <v>0</v>
@@ -6200,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="Y51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z51">
         <v>16</v>
@@ -6221,10 +6287,10 @@
         <v>5</v>
       </c>
       <c r="AI51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ51" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AK51">
         <v>50</v>
@@ -6238,10 +6304,10 @@
         <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D52">
         <v>128</v>
@@ -6259,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J52">
         <v>0.3</v>
@@ -6286,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W52" t="b">
         <v>0</v>
@@ -6295,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="Y52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z52">
         <v>16</v>
@@ -6316,10 +6382,10 @@
         <v>5</v>
       </c>
       <c r="AI52" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ52" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="AK52">
         <v>51</v>
@@ -6333,10 +6399,10 @@
         <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D53">
         <v>128</v>
@@ -6354,7 +6420,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J53">
         <v>0.3</v>
@@ -6381,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W53" t="b">
         <v>0</v>
@@ -6390,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="Y53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z53">
         <v>16</v>
@@ -6411,10 +6477,10 @@
         <v>5</v>
       </c>
       <c r="AI53" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ53" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="AK53">
         <v>52</v>
@@ -6428,10 +6494,10 @@
         <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D54">
         <v>128</v>
@@ -6449,7 +6515,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J54">
         <v>0.3</v>
@@ -6476,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W54" t="b">
         <v>0</v>
@@ -6485,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="Y54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z54">
         <v>16</v>
@@ -6506,10 +6572,10 @@
         <v>5</v>
       </c>
       <c r="AI54" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AJ54" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="AK54">
         <v>53</v>
@@ -6523,10 +6589,10 @@
         <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D55">
         <v>128</v>
@@ -6544,7 +6610,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J55">
         <v>0.3</v>
@@ -6571,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W55" t="b">
         <v>0</v>
@@ -6580,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="Y55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z55">
         <v>16</v>
@@ -6601,10 +6667,10 @@
         <v>5</v>
       </c>
       <c r="AI55" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ55" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AK55">
         <v>54</v>
@@ -6618,10 +6684,10 @@
         <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D56">
         <v>128</v>
@@ -6639,7 +6705,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J56">
         <v>0.3</v>
@@ -6666,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W56" t="b">
         <v>0</v>
@@ -6675,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="Y56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z56">
         <v>16</v>
@@ -6696,10 +6762,10 @@
         <v>5</v>
       </c>
       <c r="AI56" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJ56" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="AK56">
         <v>50</v>
@@ -6713,10 +6779,10 @@
         <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D57">
         <v>128</v>
@@ -6734,7 +6800,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J57">
         <v>0.3</v>
@@ -6761,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W57" t="b">
         <v>0</v>
@@ -6770,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="Y57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z57">
         <v>16</v>
@@ -6791,10 +6857,10 @@
         <v>5</v>
       </c>
       <c r="AI57" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AJ57" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AK57">
         <v>51</v>
@@ -6808,10 +6874,10 @@
         <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D58">
         <v>128</v>
@@ -6829,7 +6895,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J58">
         <v>0.3</v>
@@ -6856,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W58" t="b">
         <v>0</v>
@@ -6865,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="Y58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z58">
         <v>16</v>
@@ -6886,10 +6952,10 @@
         <v>5</v>
       </c>
       <c r="AI58" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AJ58" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AK58">
         <v>52</v>
@@ -6903,10 +6969,10 @@
         <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D59">
         <v>128</v>
@@ -6924,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J59">
         <v>0.3</v>
@@ -6951,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W59" t="b">
         <v>0</v>
@@ -6960,7 +7026,7 @@
         <v>1</v>
       </c>
       <c r="Y59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z59">
         <v>16</v>
@@ -6981,10 +7047,10 @@
         <v>5</v>
       </c>
       <c r="AI59" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AJ59" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AK59">
         <v>53</v>
@@ -6998,10 +7064,10 @@
         <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D60">
         <v>128</v>
@@ -7019,7 +7085,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J60">
         <v>0.3</v>
@@ -7046,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W60" t="b">
         <v>0</v>
@@ -7055,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="Y60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z60">
         <v>16</v>
@@ -7076,10 +7142,10 @@
         <v>5</v>
       </c>
       <c r="AI60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AJ60" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AK60">
         <v>54</v>
@@ -7093,10 +7159,10 @@
         <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D61">
         <v>128</v>
@@ -7114,7 +7180,7 @@
         <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J61">
         <v>0.3</v>
@@ -7141,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="V61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W61" t="b">
         <v>0</v>
@@ -7168,10 +7234,10 @@
         <v>5</v>
       </c>
       <c r="AI61" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AJ61" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="AK61">
         <v>50</v>
@@ -7185,10 +7251,10 @@
         <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D62">
         <v>128</v>
@@ -7206,7 +7272,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J62">
         <v>0.3</v>
@@ -7233,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W62" t="b">
         <v>0</v>
@@ -7260,10 +7326,10 @@
         <v>5</v>
       </c>
       <c r="AI62" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AJ62" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AK62">
         <v>51</v>
@@ -7277,10 +7343,10 @@
         <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D63">
         <v>128</v>
@@ -7298,7 +7364,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J63">
         <v>0.3</v>
@@ -7325,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W63" t="b">
         <v>0</v>
@@ -7352,10 +7418,10 @@
         <v>5</v>
       </c>
       <c r="AI63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AJ63" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="AK63">
         <v>52</v>
@@ -7369,10 +7435,10 @@
         <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D64">
         <v>128</v>
@@ -7390,7 +7456,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J64">
         <v>0.3</v>
@@ -7417,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="V64" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W64" t="b">
         <v>0</v>
@@ -7444,10 +7510,10 @@
         <v>5</v>
       </c>
       <c r="AI64" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ64" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="AK64">
         <v>53</v>
@@ -7461,10 +7527,10 @@
         <v>41</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D65">
         <v>128</v>
@@ -7482,7 +7548,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J65">
         <v>0.3</v>
@@ -7509,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W65" t="b">
         <v>0</v>
@@ -7536,10 +7602,10 @@
         <v>5</v>
       </c>
       <c r="AI65" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AJ65" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="AK65">
         <v>54</v>
@@ -7553,10 +7619,10 @@
         <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D66">
         <v>128</v>
@@ -7574,7 +7640,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J66">
         <v>0.3</v>
@@ -7595,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="S66" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T66" t="b">
         <v>0</v>
@@ -7604,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="V66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W66" t="b">
         <v>0</v>
@@ -7631,10 +7697,10 @@
         <v>5</v>
       </c>
       <c r="AI66" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AJ66" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="AK66">
         <v>50</v>
@@ -7648,10 +7714,10 @@
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D67">
         <v>128</v>
@@ -7669,7 +7735,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J67">
         <v>0.3</v>
@@ -7690,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="S67" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T67" t="b">
         <v>0</v>
@@ -7699,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W67" t="b">
         <v>0</v>
@@ -7726,10 +7792,10 @@
         <v>5</v>
       </c>
       <c r="AI67" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ67" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AK67">
         <v>51</v>
@@ -7743,10 +7809,10 @@
         <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D68">
         <v>128</v>
@@ -7764,7 +7830,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J68">
         <v>0.3</v>
@@ -7785,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="S68" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T68" t="b">
         <v>0</v>
@@ -7794,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W68" t="b">
         <v>0</v>
@@ -7821,10 +7887,10 @@
         <v>5</v>
       </c>
       <c r="AI68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AJ68" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="AK68">
         <v>52</v>
@@ -7838,10 +7904,10 @@
         <v>41</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D69">
         <v>128</v>
@@ -7859,7 +7925,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J69">
         <v>0.3</v>
@@ -7880,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="S69" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T69" t="b">
         <v>0</v>
@@ -7889,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W69" t="b">
         <v>0</v>
@@ -7916,10 +7982,10 @@
         <v>5</v>
       </c>
       <c r="AI69" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AJ69" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="AK69">
         <v>53</v>
@@ -7933,10 +7999,10 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D70">
         <v>128</v>
@@ -7954,7 +8020,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J70">
         <v>0.3</v>
@@ -7975,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="S70" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T70" t="b">
         <v>0</v>
@@ -7984,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W70" t="b">
         <v>0</v>
@@ -8011,10 +8077,10 @@
         <v>5</v>
       </c>
       <c r="AI70" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AJ70" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AK70">
         <v>54</v>
@@ -8028,10 +8094,10 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D71">
         <v>128</v>
@@ -8049,7 +8115,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J71">
         <v>0.3</v>
@@ -8076,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="V71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W71" t="b">
         <v>0</v>
@@ -8103,10 +8169,10 @@
         <v>5</v>
       </c>
       <c r="AI71" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AJ71" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="AK71">
         <v>50</v>
@@ -8120,10 +8186,10 @@
         <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D72">
         <v>128</v>
@@ -8141,7 +8207,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J72">
         <v>0.3</v>
@@ -8168,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="V72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W72" t="b">
         <v>0</v>
@@ -8195,10 +8261,10 @@
         <v>5</v>
       </c>
       <c r="AI72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AJ72" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="AK72">
         <v>51</v>
@@ -8212,10 +8278,10 @@
         <v>41</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D73">
         <v>128</v>
@@ -8233,7 +8299,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J73">
         <v>0.3</v>
@@ -8260,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="V73" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W73" t="b">
         <v>0</v>
@@ -8287,10 +8353,10 @@
         <v>5</v>
       </c>
       <c r="AI73" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ73" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="AK73">
         <v>52</v>
@@ -8304,10 +8370,10 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D74">
         <v>128</v>
@@ -8325,7 +8391,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J74">
         <v>0.3</v>
@@ -8352,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="V74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W74" t="b">
         <v>0</v>
@@ -8379,10 +8445,10 @@
         <v>5</v>
       </c>
       <c r="AI74" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AJ74" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="AK74">
         <v>53</v>
@@ -8396,10 +8462,10 @@
         <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D75">
         <v>128</v>
@@ -8417,7 +8483,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J75">
         <v>0.3</v>
@@ -8444,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="V75" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W75" t="b">
         <v>0</v>
@@ -8471,10 +8537,10 @@
         <v>5</v>
       </c>
       <c r="AI75" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ75" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AK75">
         <v>54</v>
@@ -8488,10 +8554,10 @@
         <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D76">
         <v>128</v>
@@ -8509,13 +8575,13 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>0.3</v>
       </c>
       <c r="K76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L76">
         <v>0.01</v>
@@ -8542,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W76" t="b">
         <v>0</v>
@@ -8569,10 +8635,10 @@
         <v>5</v>
       </c>
       <c r="AI76" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AJ76" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="AK76">
         <v>50</v>
@@ -8586,10 +8652,10 @@
         <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D77">
         <v>128</v>
@@ -8607,13 +8673,13 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J77">
         <v>0.3</v>
       </c>
       <c r="K77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L77">
         <v>0.01</v>
@@ -8640,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="V77" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W77" t="b">
         <v>0</v>
@@ -8667,10 +8733,10 @@
         <v>5</v>
       </c>
       <c r="AI77" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AJ77" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AK77">
         <v>51</v>
@@ -8684,10 +8750,10 @@
         <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D78">
         <v>128</v>
@@ -8705,13 +8771,13 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J78">
         <v>0.3</v>
       </c>
       <c r="K78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L78">
         <v>0.01</v>
@@ -8738,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="V78" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W78" t="b">
         <v>0</v>
@@ -8765,10 +8831,10 @@
         <v>5</v>
       </c>
       <c r="AI78" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AJ78" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AK78">
         <v>52</v>
@@ -8782,10 +8848,10 @@
         <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D79">
         <v>128</v>
@@ -8803,13 +8869,13 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J79">
         <v>0.3</v>
       </c>
       <c r="K79" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L79">
         <v>0.01</v>
@@ -8836,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="V79" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W79" t="b">
         <v>0</v>
@@ -8863,10 +8929,10 @@
         <v>5</v>
       </c>
       <c r="AI79" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AJ79" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AK79">
         <v>53</v>
@@ -8880,10 +8946,10 @@
         <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D80">
         <v>128</v>
@@ -8901,13 +8967,13 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J80">
         <v>0.3</v>
       </c>
       <c r="K80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L80">
         <v>0.01</v>
@@ -8934,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="V80" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W80" t="b">
         <v>0</v>
@@ -8961,10 +9027,10 @@
         <v>5</v>
       </c>
       <c r="AI80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AJ80" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="AK80">
         <v>54</v>
@@ -8978,10 +9044,10 @@
         <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D81">
         <v>128</v>
@@ -8999,13 +9065,13 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J81">
         <v>0.3</v>
       </c>
       <c r="K81" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L81">
         <v>0.01</v>
@@ -9032,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="V81" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W81" t="b">
         <v>0</v>
@@ -9059,28 +9125,28 @@
         <v>5</v>
       </c>
       <c r="AG81">
-        <v>0.4600685489878079</v>
+        <v>0.4673373185002349</v>
       </c>
       <c r="AH81">
-        <v>0.5589680890905702</v>
+        <v>0.5581078676861547</v>
       </c>
       <c r="AI81" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AJ81" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AK81">
         <v>50</v>
       </c>
       <c r="AL81">
-        <v>0.5356404958677685</v>
+        <v>0.5601025914329492</v>
       </c>
       <c r="AM81">
-        <v>0.3414230094553545</v>
+        <v>0.3545501809740477</v>
       </c>
       <c r="AN81">
-        <v>0.4836049856184084</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="82" spans="1:40">
@@ -9088,10 +9154,10 @@
         <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D82">
         <v>128</v>
@@ -9109,13 +9175,13 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J82">
         <v>0.3</v>
       </c>
       <c r="K82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L82">
         <v>0.01</v>
@@ -9142,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="V82" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W82" t="b">
         <v>0</v>
@@ -9169,28 +9235,28 @@
         <v>5</v>
       </c>
       <c r="AG82">
-        <v>0.4334420431595452</v>
+        <v>0.4563435531265199</v>
       </c>
       <c r="AH82">
-        <v>0.5425722678536876</v>
+        <v>0.5621561758019262</v>
       </c>
       <c r="AI82" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AJ82" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AK82">
         <v>51</v>
       </c>
       <c r="AL82">
-        <v>0.5604709195887904</v>
+        <v>0.5713675432666439</v>
       </c>
       <c r="AM82">
-        <v>0.4037067370400704</v>
+        <v>0.4062482368811133</v>
       </c>
       <c r="AN82">
-        <v>0.438438071995119</v>
+        <v>0.4671885739582242</v>
       </c>
     </row>
     <row r="83" spans="1:40">
@@ -9198,10 +9264,10 @@
         <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D83">
         <v>128</v>
@@ -9219,13 +9285,13 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J83">
         <v>0.3</v>
       </c>
       <c r="K83" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L83">
         <v>0.01</v>
@@ -9252,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="V83" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W83" t="b">
         <v>0</v>
@@ -9279,28 +9345,28 @@
         <v>5</v>
       </c>
       <c r="AG83">
-        <v>0.4370990521894789</v>
+        <v>0.4516814154379678</v>
       </c>
       <c r="AH83">
-        <v>0.5572555972031158</v>
+        <v>0.5579848854680386</v>
       </c>
       <c r="AI83" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ83" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AK83">
         <v>52</v>
       </c>
       <c r="AL83">
-        <v>0.5371760331882475</v>
+        <v>0.5561399054624517</v>
       </c>
       <c r="AM83">
-        <v>0.2989442892685126</v>
+        <v>0.3834526088172712</v>
       </c>
       <c r="AN83">
-        <v>0.3809637594583831</v>
+        <v>0.4182330827067668</v>
       </c>
     </row>
     <row r="84" spans="1:40">
@@ -9308,10 +9374,10 @@
         <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D84">
         <v>128</v>
@@ -9329,13 +9395,13 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J84">
         <v>0.3</v>
       </c>
       <c r="K84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L84">
         <v>0.01</v>
@@ -9362,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="V84" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W84" t="b">
         <v>0</v>
@@ -9389,28 +9455,28 @@
         <v>5</v>
       </c>
       <c r="AG84">
-        <v>0.4548879483495344</v>
+        <v>0.4576054626388598</v>
       </c>
       <c r="AH84">
-        <v>0.573363603850627</v>
+        <v>0.578394481767792</v>
       </c>
       <c r="AI84" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AJ84" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AK84">
         <v>53</v>
       </c>
       <c r="AL84">
-        <v>0.4910618723130987</v>
+        <v>0.4968986346573356</v>
       </c>
       <c r="AM84">
-        <v>0.3102963657841707</v>
+        <v>0.2880872726061102</v>
       </c>
       <c r="AN84">
-        <v>0.3609248371206102</v>
+        <v>0.4092875059318012</v>
       </c>
     </row>
     <row r="85" spans="1:40">
@@ -9418,10 +9484,10 @@
         <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D85">
         <v>128</v>
@@ -9439,13 +9505,13 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J85">
         <v>0.3</v>
       </c>
       <c r="K85" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L85">
         <v>0.01</v>
@@ -9472,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="V85" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W85" t="b">
         <v>0</v>
@@ -9499,28 +9565,28 @@
         <v>5</v>
       </c>
       <c r="AG85">
-        <v>0.427440482779673</v>
+        <v>0.4436109882354533</v>
       </c>
       <c r="AH85">
-        <v>0.5668399440726212</v>
+        <v>0.5660934119444591</v>
       </c>
       <c r="AI85" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AJ85" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AK85">
         <v>54</v>
       </c>
       <c r="AL85">
-        <v>0.5023647393834344</v>
+        <v>0.5229916301604169</v>
       </c>
       <c r="AM85">
-        <v>0.438002440424921</v>
+        <v>0.4052116402116402</v>
       </c>
       <c r="AN85">
-        <v>0.3653321201091901</v>
+        <v>0.374944071588367</v>
       </c>
     </row>
     <row r="86" spans="1:40">
@@ -9528,10 +9594,10 @@
         <v>41</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D86">
         <v>128</v>
@@ -9549,7 +9615,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J86">
         <v>0.3</v>
@@ -9576,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="V86" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W86" t="b">
         <v>0</v>
@@ -9603,10 +9669,10 @@
         <v>5</v>
       </c>
       <c r="AI86" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AJ86" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AK86">
         <v>50</v>
@@ -9620,10 +9686,10 @@
         <v>41</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D87">
         <v>128</v>
@@ -9641,7 +9707,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>0.3</v>
@@ -9668,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="V87" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W87" t="b">
         <v>0</v>
@@ -9695,10 +9761,10 @@
         <v>5</v>
       </c>
       <c r="AI87" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ87" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AK87">
         <v>51</v>
@@ -9712,10 +9778,10 @@
         <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D88">
         <v>128</v>
@@ -9733,7 +9799,7 @@
         <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J88">
         <v>0.3</v>
@@ -9760,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="V88" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W88" t="b">
         <v>0</v>
@@ -9787,10 +9853,10 @@
         <v>5</v>
       </c>
       <c r="AI88" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AJ88" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AK88">
         <v>52</v>
@@ -9804,10 +9870,10 @@
         <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C89" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D89">
         <v>128</v>
@@ -9825,7 +9891,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J89">
         <v>0.3</v>
@@ -9852,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="V89" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W89" t="b">
         <v>0</v>
@@ -9879,10 +9945,10 @@
         <v>5</v>
       </c>
       <c r="AI89" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AJ89" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AK89">
         <v>53</v>
@@ -9896,10 +9962,10 @@
         <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D90">
         <v>128</v>
@@ -9917,7 +9983,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J90">
         <v>0.3</v>
@@ -9944,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="V90" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W90" t="b">
         <v>0</v>
@@ -9971,10 +10037,10 @@
         <v>5</v>
       </c>
       <c r="AI90" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AJ90" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AK90">
         <v>54</v>
@@ -9988,10 +10054,10 @@
         <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D91">
         <v>128</v>
@@ -10009,13 +10075,13 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J91">
         <v>0.3</v>
       </c>
       <c r="K91" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L91">
         <v>0.01</v>
@@ -10042,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="V91" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W91" t="b">
         <v>0</v>
@@ -10069,10 +10135,10 @@
         <v>5</v>
       </c>
       <c r="AI91" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ91" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AK91">
         <v>50</v>
@@ -10086,10 +10152,10 @@
         <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D92">
         <v>128</v>
@@ -10107,13 +10173,13 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J92">
         <v>0.3</v>
       </c>
       <c r="K92" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L92">
         <v>0.01</v>
@@ -10140,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="V92" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W92" t="b">
         <v>0</v>
@@ -10167,10 +10233,10 @@
         <v>5</v>
       </c>
       <c r="AI92" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AJ92" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AK92">
         <v>51</v>
@@ -10184,10 +10250,10 @@
         <v>41</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D93">
         <v>128</v>
@@ -10205,13 +10271,13 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>0.3</v>
       </c>
       <c r="K93" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L93">
         <v>0.01</v>
@@ -10238,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="V93" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W93" t="b">
         <v>0</v>
@@ -10265,10 +10331,10 @@
         <v>5</v>
       </c>
       <c r="AI93" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ93" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AK93">
         <v>52</v>
@@ -10282,10 +10348,10 @@
         <v>41</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D94">
         <v>128</v>
@@ -10303,13 +10369,13 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J94">
         <v>0.3</v>
       </c>
       <c r="K94" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L94">
         <v>0.01</v>
@@ -10336,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="V94" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W94" t="b">
         <v>0</v>
@@ -10363,10 +10429,10 @@
         <v>5</v>
       </c>
       <c r="AI94" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AJ94" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="AK94">
         <v>53</v>
@@ -10380,10 +10446,10 @@
         <v>41</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C95" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D95">
         <v>128</v>
@@ -10401,13 +10467,13 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J95">
         <v>0.3</v>
       </c>
       <c r="K95" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L95">
         <v>0.01</v>
@@ -10434,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="V95" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W95" t="b">
         <v>0</v>
@@ -10461,10 +10527,10 @@
         <v>5</v>
       </c>
       <c r="AI95" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AJ95" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="AK95">
         <v>54</v>
@@ -10478,10 +10544,10 @@
         <v>41</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C96" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D96">
         <v>128</v>
@@ -10499,13 +10565,13 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J96">
         <v>0.3</v>
       </c>
       <c r="K96" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L96">
         <v>0.01</v>
@@ -10526,7 +10592,7 @@
         <v>1</v>
       </c>
       <c r="S96" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T96" t="b">
         <v>0</v>
@@ -10535,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="V96" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W96" t="b">
         <v>0</v>
@@ -10562,10 +10628,10 @@
         <v>5</v>
       </c>
       <c r="AI96" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AJ96" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AK96">
         <v>50</v>
@@ -10579,10 +10645,10 @@
         <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C97" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D97">
         <v>128</v>
@@ -10600,13 +10666,13 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J97">
         <v>0.3</v>
       </c>
       <c r="K97" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L97">
         <v>0.01</v>
@@ -10627,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="S97" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T97" t="b">
         <v>0</v>
@@ -10636,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="V97" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W97" t="b">
         <v>0</v>
@@ -10663,10 +10729,10 @@
         <v>5</v>
       </c>
       <c r="AI97" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AJ97" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AK97">
         <v>51</v>
@@ -10680,10 +10746,10 @@
         <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D98">
         <v>128</v>
@@ -10701,13 +10767,13 @@
         <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J98">
         <v>0.3</v>
       </c>
       <c r="K98" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L98">
         <v>0.01</v>
@@ -10728,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="S98" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T98" t="b">
         <v>0</v>
@@ -10737,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="V98" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W98" t="b">
         <v>0</v>
@@ -10764,10 +10830,10 @@
         <v>5</v>
       </c>
       <c r="AI98" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AJ98" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AK98">
         <v>52</v>
@@ -10781,10 +10847,10 @@
         <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D99">
         <v>128</v>
@@ -10802,13 +10868,13 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J99">
         <v>0.3</v>
       </c>
       <c r="K99" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L99">
         <v>0.01</v>
@@ -10829,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="S99" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T99" t="b">
         <v>0</v>
@@ -10838,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="V99" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W99" t="b">
         <v>0</v>
@@ -10865,10 +10931,10 @@
         <v>5</v>
       </c>
       <c r="AI99" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AJ99" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AK99">
         <v>53</v>
@@ -10882,10 +10948,10 @@
         <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D100">
         <v>128</v>
@@ -10903,13 +10969,13 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J100">
         <v>0.3</v>
       </c>
       <c r="K100" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L100">
         <v>0.01</v>
@@ -10930,7 +10996,7 @@
         <v>1</v>
       </c>
       <c r="S100" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T100" t="b">
         <v>0</v>
@@ -10939,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="V100" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W100" t="b">
         <v>0</v>
@@ -10966,10 +11032,10 @@
         <v>5</v>
       </c>
       <c r="AI100" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AJ100" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AK100">
         <v>54</v>
@@ -10983,10 +11049,10 @@
         <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D101">
         <v>128</v>
@@ -11004,13 +11070,13 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J101">
         <v>0.3</v>
       </c>
       <c r="K101" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L101">
         <v>0.01</v>
@@ -11037,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="V101" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W101" t="b">
         <v>0</v>
@@ -11064,10 +11130,10 @@
         <v>5</v>
       </c>
       <c r="AI101" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AJ101" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AK101">
         <v>50</v>
@@ -11076,7 +11142,7 @@
         <v>0.4248866456537901</v>
       </c>
       <c r="AN101">
-        <v>0.3581970422577633</v>
+        <v>0.6166030639898236</v>
       </c>
     </row>
     <row r="102" spans="1:41">
@@ -11084,10 +11150,10 @@
         <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D102">
         <v>128</v>
@@ -11105,13 +11171,13 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J102">
         <v>0.3</v>
       </c>
       <c r="K102" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L102">
         <v>0.01</v>
@@ -11138,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="V102" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W102" t="b">
         <v>0</v>
@@ -11165,10 +11231,10 @@
         <v>5</v>
       </c>
       <c r="AI102" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AJ102" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AK102">
         <v>51</v>
@@ -11177,7 +11243,7 @@
         <v>0.4452495974235104</v>
       </c>
       <c r="AN102">
-        <v>0.4828890474051764</v>
+        <v>0.6105370582982523</v>
       </c>
     </row>
     <row r="103" spans="1:41">
@@ -11185,10 +11251,10 @@
         <v>41</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D103">
         <v>128</v>
@@ -11206,13 +11272,13 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J103">
         <v>0.3</v>
       </c>
       <c r="K103" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L103">
         <v>0.01</v>
@@ -11239,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="V103" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W103" t="b">
         <v>0</v>
@@ -11266,10 +11332,10 @@
         <v>5</v>
       </c>
       <c r="AI103" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AJ103" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AK103">
         <v>52</v>
@@ -11278,7 +11344,7 @@
         <v>0.4425391867016232</v>
       </c>
       <c r="AN103">
-        <v>0.366482661004954</v>
+        <v>0.6290207269805256</v>
       </c>
     </row>
     <row r="104" spans="1:41">
@@ -11286,10 +11352,10 @@
         <v>41</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D104">
         <v>128</v>
@@ -11307,13 +11373,13 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J104">
         <v>0.3</v>
       </c>
       <c r="K104" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L104">
         <v>0.01</v>
@@ -11340,7 +11406,7 @@
         <v>0</v>
       </c>
       <c r="V104" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W104" t="b">
         <v>0</v>
@@ -11367,10 +11433,10 @@
         <v>5</v>
       </c>
       <c r="AI104" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ104" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AK104">
         <v>53</v>
@@ -11379,7 +11445,7 @@
         <v>0.4511342873312312</v>
       </c>
       <c r="AN104">
-        <v>0.3140723270440252</v>
+        <v>0.5537770321959327</v>
       </c>
     </row>
     <row r="105" spans="1:41">
@@ -11387,10 +11453,10 @@
         <v>41</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D105">
         <v>128</v>
@@ -11408,13 +11474,13 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J105">
         <v>0.3</v>
       </c>
       <c r="K105" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L105">
         <v>0.01</v>
@@ -11441,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="V105" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W105" t="b">
         <v>0</v>
@@ -11468,10 +11534,10 @@
         <v>5</v>
       </c>
       <c r="AI105" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AJ105" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AK105">
         <v>54</v>
@@ -11480,7 +11546,7 @@
         <v>0.3331800237629834</v>
       </c>
       <c r="AN105">
-        <v>0.455298186772875</v>
+        <v>0.5724781692261368</v>
       </c>
     </row>
     <row r="106" spans="1:41">
@@ -11488,10 +11554,10 @@
         <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D106">
         <v>128</v>
@@ -11509,13 +11575,13 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J106">
         <v>0.3</v>
       </c>
       <c r="K106" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L106">
         <v>0.01</v>
@@ -11542,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="V106" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W106" t="b">
         <v>0</v>
@@ -11551,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="Y106" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z106">
         <v>16</v>
@@ -11571,11 +11637,14 @@
       <c r="AE106">
         <v>5</v>
       </c>
+      <c r="AG106">
+        <v>0.4968889912401302</v>
+      </c>
       <c r="AI106" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ106" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AK106">
         <v>50</v>
@@ -11589,10 +11658,10 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D107">
         <v>128</v>
@@ -11610,13 +11679,13 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J107">
         <v>0.3</v>
       </c>
       <c r="K107" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L107">
         <v>0.01</v>
@@ -11643,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="V107" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W107" t="b">
         <v>0</v>
@@ -11652,7 +11721,7 @@
         <v>1</v>
       </c>
       <c r="Y107" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z107">
         <v>16</v>
@@ -11672,11 +11741,14 @@
       <c r="AE107">
         <v>5</v>
       </c>
+      <c r="AG107">
+        <v>0.4979061164015381</v>
+      </c>
       <c r="AI107" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ107" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AK107">
         <v>51</v>
@@ -11690,10 +11762,10 @@
         <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D108">
         <v>128</v>
@@ -11711,13 +11783,13 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J108">
         <v>0.3</v>
       </c>
       <c r="K108" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L108">
         <v>0.01</v>
@@ -11744,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="V108" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W108" t="b">
         <v>0</v>
@@ -11753,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="Y108" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z108">
         <v>16</v>
@@ -11773,11 +11845,14 @@
       <c r="AE108">
         <v>5</v>
       </c>
+      <c r="AG108">
+        <v>0.4809608763888283</v>
+      </c>
       <c r="AI108" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ108" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AK108">
         <v>52</v>
@@ -11791,10 +11866,10 @@
         <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D109">
         <v>128</v>
@@ -11812,13 +11887,13 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J109">
         <v>0.3</v>
       </c>
       <c r="K109" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L109">
         <v>0.01</v>
@@ -11845,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="V109" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W109" t="b">
         <v>0</v>
@@ -11854,7 +11929,7 @@
         <v>1</v>
       </c>
       <c r="Y109" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z109">
         <v>16</v>
@@ -11874,11 +11949,14 @@
       <c r="AE109">
         <v>5</v>
       </c>
+      <c r="AG109">
+        <v>0.4873508023806283</v>
+      </c>
       <c r="AI109" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AJ109" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AK109">
         <v>53</v>
@@ -11892,10 +11970,10 @@
         <v>41</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D110">
         <v>128</v>
@@ -11913,13 +11991,13 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J110">
         <v>0.3</v>
       </c>
       <c r="K110" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L110">
         <v>0.01</v>
@@ -11946,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="V110" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W110" t="b">
         <v>0</v>
@@ -11955,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="Y110" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z110">
         <v>16</v>
@@ -11975,11 +12053,14 @@
       <c r="AE110">
         <v>5</v>
       </c>
+      <c r="AG110">
+        <v>0.4745359104153727</v>
+      </c>
       <c r="AI110" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AJ110" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AK110">
         <v>54</v>
@@ -11993,10 +12074,10 @@
         <v>41</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C111" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D111">
         <v>128</v>
@@ -12014,13 +12095,13 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J111">
         <v>0.3</v>
       </c>
       <c r="K111" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L111">
         <v>0.01</v>
@@ -12047,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="V111" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W111" t="b">
         <v>0</v>
@@ -12080,10 +12161,10 @@
         <v>0.2075189658045448</v>
       </c>
       <c r="AI111" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AJ111" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AK111">
         <v>50</v>
@@ -12103,10 +12184,10 @@
         <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C112" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D112">
         <v>128</v>
@@ -12124,13 +12205,13 @@
         <v>2</v>
       </c>
       <c r="I112" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J112">
         <v>0.3</v>
       </c>
       <c r="K112" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L112">
         <v>0.01</v>
@@ -12157,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="V112" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W112" t="b">
         <v>0</v>
@@ -12190,10 +12271,10 @@
         <v>0.2142509282310818</v>
       </c>
       <c r="AI112" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AJ112" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AK112">
         <v>51</v>
@@ -12213,10 +12294,10 @@
         <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C113" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D113">
         <v>128</v>
@@ -12234,13 +12315,13 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J113">
         <v>0.3</v>
       </c>
       <c r="K113" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L113">
         <v>0.01</v>
@@ -12267,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="V113" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W113" t="b">
         <v>0</v>
@@ -12300,10 +12381,10 @@
         <v>0.229473370959164</v>
       </c>
       <c r="AI113" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AJ113" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AK113">
         <v>52</v>
@@ -12323,10 +12404,10 @@
         <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D114">
         <v>128</v>
@@ -12344,13 +12425,13 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J114">
         <v>0.3</v>
       </c>
       <c r="K114" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L114">
         <v>0.01</v>
@@ -12377,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="V114" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W114" t="b">
         <v>0</v>
@@ -12410,10 +12491,10 @@
         <v>0.229154138941373</v>
       </c>
       <c r="AI114" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AJ114" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="AK114">
         <v>53</v>
@@ -12433,10 +12514,10 @@
         <v>41</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C115" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D115">
         <v>128</v>
@@ -12454,13 +12535,13 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J115">
         <v>0.3</v>
       </c>
       <c r="K115" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L115">
         <v>0.01</v>
@@ -12487,7 +12568,7 @@
         <v>0</v>
       </c>
       <c r="V115" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W115" t="b">
         <v>0</v>
@@ -12520,10 +12601,10 @@
         <v>0.1931644659020539</v>
       </c>
       <c r="AI115" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AJ115" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="AK115">
         <v>54</v>
@@ -12536,6 +12617,1061 @@
       </c>
       <c r="AN115">
         <v>0.3436894122097696</v>
+      </c>
+    </row>
+    <row r="116" spans="1:40">
+      <c r="A116" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116">
+        <v>128</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0.105</v>
+      </c>
+      <c r="G116">
+        <v>0.5</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116" t="s">
+        <v>53</v>
+      </c>
+      <c r="J116">
+        <v>0.3</v>
+      </c>
+      <c r="K116" t="s">
+        <v>54</v>
+      </c>
+      <c r="L116">
+        <v>0.01</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116" t="b">
+        <v>0</v>
+      </c>
+      <c r="O116" t="b">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0.05</v>
+      </c>
+      <c r="R116" t="b">
+        <v>0</v>
+      </c>
+      <c r="T116" t="b">
+        <v>0</v>
+      </c>
+      <c r="U116" t="b">
+        <v>0</v>
+      </c>
+      <c r="V116" t="s">
+        <v>58</v>
+      </c>
+      <c r="W116" t="b">
+        <v>0</v>
+      </c>
+      <c r="X116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>16</v>
+      </c>
+      <c r="AA116">
+        <v>1E-05</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>1E-08</v>
+      </c>
+      <c r="AD116">
+        <v>1</v>
+      </c>
+      <c r="AE116">
+        <v>5</v>
+      </c>
+      <c r="AG116">
+        <v>0.3728020411182503</v>
+      </c>
+      <c r="AH116">
+        <v>0.2020562963873285</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ116" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK116">
+        <v>50</v>
+      </c>
+      <c r="AL116">
+        <v>0.54576802507837</v>
+      </c>
+      <c r="AM116">
+        <v>0.2703196347031964</v>
+      </c>
+      <c r="AN116">
+        <v>0.3611111111111112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:40">
+      <c r="A117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117">
+        <v>128</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0.105</v>
+      </c>
+      <c r="G117">
+        <v>0.5</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117" t="s">
+        <v>53</v>
+      </c>
+      <c r="J117">
+        <v>0.3</v>
+      </c>
+      <c r="K117" t="s">
+        <v>54</v>
+      </c>
+      <c r="L117">
+        <v>0.01</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117" t="b">
+        <v>0</v>
+      </c>
+      <c r="O117" t="b">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0.05</v>
+      </c>
+      <c r="R117" t="b">
+        <v>0</v>
+      </c>
+      <c r="T117" t="b">
+        <v>0</v>
+      </c>
+      <c r="U117" t="b">
+        <v>0</v>
+      </c>
+      <c r="V117" t="s">
+        <v>58</v>
+      </c>
+      <c r="W117" t="b">
+        <v>0</v>
+      </c>
+      <c r="X117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>16</v>
+      </c>
+      <c r="AA117">
+        <v>1E-05</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>1E-08</v>
+      </c>
+      <c r="AD117">
+        <v>1</v>
+      </c>
+      <c r="AE117">
+        <v>5</v>
+      </c>
+      <c r="AG117">
+        <v>0.3707298579080927</v>
+      </c>
+      <c r="AH117">
+        <v>0.1934842713854981</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK117">
+        <v>51</v>
+      </c>
+      <c r="AL117">
+        <v>0.5183727291048859</v>
+      </c>
+      <c r="AM117">
+        <v>0.3117678966735571</v>
+      </c>
+      <c r="AN117">
+        <v>0.3686868686868687</v>
+      </c>
+    </row>
+    <row r="118" spans="1:40">
+      <c r="A118" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118">
+        <v>128</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0.105</v>
+      </c>
+      <c r="G118">
+        <v>0.5</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118" t="s">
+        <v>53</v>
+      </c>
+      <c r="J118">
+        <v>0.3</v>
+      </c>
+      <c r="K118" t="s">
+        <v>54</v>
+      </c>
+      <c r="L118">
+        <v>0.01</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118" t="b">
+        <v>0</v>
+      </c>
+      <c r="O118" t="b">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0.05</v>
+      </c>
+      <c r="R118" t="b">
+        <v>0</v>
+      </c>
+      <c r="T118" t="b">
+        <v>0</v>
+      </c>
+      <c r="U118" t="b">
+        <v>0</v>
+      </c>
+      <c r="V118" t="s">
+        <v>58</v>
+      </c>
+      <c r="W118" t="b">
+        <v>0</v>
+      </c>
+      <c r="X118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>16</v>
+      </c>
+      <c r="AA118">
+        <v>1E-05</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>1E-08</v>
+      </c>
+      <c r="AD118">
+        <v>1</v>
+      </c>
+      <c r="AE118">
+        <v>5</v>
+      </c>
+      <c r="AG118">
+        <v>0.3680560229329908</v>
+      </c>
+      <c r="AH118">
+        <v>0.2011447090655012</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>297</v>
+      </c>
+      <c r="AK118">
+        <v>52</v>
+      </c>
+      <c r="AL118">
+        <v>0.569806231812052</v>
+      </c>
+      <c r="AM118">
+        <v>0.2470657276995305</v>
+      </c>
+      <c r="AN118">
+        <v>0.3551425990450381</v>
+      </c>
+    </row>
+    <row r="119" spans="1:40">
+      <c r="A119" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119">
+        <v>128</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0.105</v>
+      </c>
+      <c r="G119">
+        <v>0.5</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119" t="s">
+        <v>53</v>
+      </c>
+      <c r="J119">
+        <v>0.3</v>
+      </c>
+      <c r="K119" t="s">
+        <v>54</v>
+      </c>
+      <c r="L119">
+        <v>0.01</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119" t="b">
+        <v>0</v>
+      </c>
+      <c r="O119" t="b">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0.05</v>
+      </c>
+      <c r="R119" t="b">
+        <v>0</v>
+      </c>
+      <c r="T119" t="b">
+        <v>0</v>
+      </c>
+      <c r="U119" t="b">
+        <v>0</v>
+      </c>
+      <c r="V119" t="s">
+        <v>58</v>
+      </c>
+      <c r="W119" t="b">
+        <v>0</v>
+      </c>
+      <c r="X119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>16</v>
+      </c>
+      <c r="AA119">
+        <v>1E-05</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>1E-08</v>
+      </c>
+      <c r="AD119">
+        <v>1</v>
+      </c>
+      <c r="AE119">
+        <v>5</v>
+      </c>
+      <c r="AG119">
+        <v>0.3715570135471721</v>
+      </c>
+      <c r="AH119">
+        <v>0.2271469580900976</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK119">
+        <v>53</v>
+      </c>
+      <c r="AL119">
+        <v>0.557448747285854</v>
+      </c>
+      <c r="AM119">
+        <v>0.2472663139329806</v>
+      </c>
+      <c r="AN119">
+        <v>0.3662346294449983</v>
+      </c>
+    </row>
+    <row r="120" spans="1:40">
+      <c r="A120" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120">
+        <v>128</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0.105</v>
+      </c>
+      <c r="G120">
+        <v>0.5</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120" t="s">
+        <v>53</v>
+      </c>
+      <c r="J120">
+        <v>0.3</v>
+      </c>
+      <c r="K120" t="s">
+        <v>54</v>
+      </c>
+      <c r="L120">
+        <v>0.01</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120" t="b">
+        <v>0</v>
+      </c>
+      <c r="O120" t="b">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0.05</v>
+      </c>
+      <c r="R120" t="b">
+        <v>0</v>
+      </c>
+      <c r="T120" t="b">
+        <v>0</v>
+      </c>
+      <c r="U120" t="b">
+        <v>0</v>
+      </c>
+      <c r="V120" t="s">
+        <v>58</v>
+      </c>
+      <c r="W120" t="b">
+        <v>0</v>
+      </c>
+      <c r="X120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>16</v>
+      </c>
+      <c r="AA120">
+        <v>1E-05</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>1E-08</v>
+      </c>
+      <c r="AD120">
+        <v>1</v>
+      </c>
+      <c r="AE120">
+        <v>5</v>
+      </c>
+      <c r="AG120">
+        <v>0.3678116024674578</v>
+      </c>
+      <c r="AH120">
+        <v>0.2205742041807616</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK120">
+        <v>54</v>
+      </c>
+      <c r="AL120">
+        <v>0.5601345039165713</v>
+      </c>
+      <c r="AM120">
+        <v>0.3098541914453108</v>
+      </c>
+      <c r="AN120">
+        <v>0.3754615418835357</v>
+      </c>
+    </row>
+    <row r="121" spans="1:40">
+      <c r="A121" t="s">
+        <v>42</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121">
+        <v>128</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0.105</v>
+      </c>
+      <c r="G121">
+        <v>0.5</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>53</v>
+      </c>
+      <c r="J121">
+        <v>0.3</v>
+      </c>
+      <c r="K121" t="s">
+        <v>54</v>
+      </c>
+      <c r="L121">
+        <v>0.01</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121" t="b">
+        <v>0</v>
+      </c>
+      <c r="O121" t="b">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0.05</v>
+      </c>
+      <c r="R121" t="b">
+        <v>0</v>
+      </c>
+      <c r="T121" t="b">
+        <v>0</v>
+      </c>
+      <c r="U121" t="b">
+        <v>0</v>
+      </c>
+      <c r="V121" t="s">
+        <v>58</v>
+      </c>
+      <c r="W121" t="b">
+        <v>0</v>
+      </c>
+      <c r="X121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>16</v>
+      </c>
+      <c r="AA121">
+        <v>1E-05</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>1E-08</v>
+      </c>
+      <c r="AD121">
+        <v>1</v>
+      </c>
+      <c r="AE121">
+        <v>5</v>
+      </c>
+      <c r="AG121">
+        <v>0.5402067550058829</v>
+      </c>
+      <c r="AH121">
+        <v>0.6732371442849127</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK121">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:40">
+      <c r="A122" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" t="s">
+        <v>50</v>
+      </c>
+      <c r="D122">
+        <v>128</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0.105</v>
+      </c>
+      <c r="G122">
+        <v>0.5</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122" t="s">
+        <v>53</v>
+      </c>
+      <c r="J122">
+        <v>0.3</v>
+      </c>
+      <c r="K122" t="s">
+        <v>54</v>
+      </c>
+      <c r="L122">
+        <v>0.01</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122" t="b">
+        <v>0</v>
+      </c>
+      <c r="O122" t="b">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0.05</v>
+      </c>
+      <c r="R122" t="b">
+        <v>0</v>
+      </c>
+      <c r="T122" t="b">
+        <v>0</v>
+      </c>
+      <c r="U122" t="b">
+        <v>0</v>
+      </c>
+      <c r="V122" t="s">
+        <v>58</v>
+      </c>
+      <c r="W122" t="b">
+        <v>0</v>
+      </c>
+      <c r="X122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>16</v>
+      </c>
+      <c r="AA122">
+        <v>1E-05</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>1E-08</v>
+      </c>
+      <c r="AD122">
+        <v>1</v>
+      </c>
+      <c r="AE122">
+        <v>5</v>
+      </c>
+      <c r="AG122">
+        <v>0.5479903881243421</v>
+      </c>
+      <c r="AH122">
+        <v>0.650427303862798</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ122" t="s">
+        <v>301</v>
+      </c>
+      <c r="AK122">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40">
+      <c r="A123" t="s">
+        <v>42</v>
+      </c>
+      <c r="B123" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" t="s">
+        <v>50</v>
+      </c>
+      <c r="D123">
+        <v>128</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0.105</v>
+      </c>
+      <c r="G123">
+        <v>0.5</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123" t="s">
+        <v>53</v>
+      </c>
+      <c r="J123">
+        <v>0.3</v>
+      </c>
+      <c r="K123" t="s">
+        <v>54</v>
+      </c>
+      <c r="L123">
+        <v>0.01</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123" t="b">
+        <v>0</v>
+      </c>
+      <c r="O123" t="b">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0.05</v>
+      </c>
+      <c r="R123" t="b">
+        <v>0</v>
+      </c>
+      <c r="T123" t="b">
+        <v>0</v>
+      </c>
+      <c r="U123" t="b">
+        <v>0</v>
+      </c>
+      <c r="V123" t="s">
+        <v>58</v>
+      </c>
+      <c r="W123" t="b">
+        <v>0</v>
+      </c>
+      <c r="X123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>16</v>
+      </c>
+      <c r="AA123">
+        <v>1E-05</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <v>1E-08</v>
+      </c>
+      <c r="AD123">
+        <v>1</v>
+      </c>
+      <c r="AE123">
+        <v>5</v>
+      </c>
+      <c r="AG123">
+        <v>0.4507279530045944</v>
+      </c>
+      <c r="AH123">
+        <v>0.570881931770308</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK123">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:40">
+      <c r="A124" t="s">
+        <v>42</v>
+      </c>
+      <c r="B124" t="s">
+        <v>43</v>
+      </c>
+      <c r="C124" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124">
+        <v>128</v>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0.105</v>
+      </c>
+      <c r="G124">
+        <v>0.5</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124" t="s">
+        <v>53</v>
+      </c>
+      <c r="J124">
+        <v>0.3</v>
+      </c>
+      <c r="K124" t="s">
+        <v>54</v>
+      </c>
+      <c r="L124">
+        <v>0.01</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124" t="b">
+        <v>0</v>
+      </c>
+      <c r="O124" t="b">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0.05</v>
+      </c>
+      <c r="R124" t="b">
+        <v>0</v>
+      </c>
+      <c r="T124" t="b">
+        <v>0</v>
+      </c>
+      <c r="U124" t="b">
+        <v>0</v>
+      </c>
+      <c r="V124" t="s">
+        <v>58</v>
+      </c>
+      <c r="W124" t="b">
+        <v>0</v>
+      </c>
+      <c r="X124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>16</v>
+      </c>
+      <c r="AA124">
+        <v>1E-05</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>1E-08</v>
+      </c>
+      <c r="AD124">
+        <v>1</v>
+      </c>
+      <c r="AE124">
+        <v>5</v>
+      </c>
+      <c r="AG124">
+        <v>0.5481293508692243</v>
+      </c>
+      <c r="AH124">
+        <v>0.6235396804082182</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ124" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK124">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:40">
+      <c r="A125" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125">
+        <v>128</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0.105</v>
+      </c>
+      <c r="G125">
+        <v>0.5</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125" t="s">
+        <v>53</v>
+      </c>
+      <c r="J125">
+        <v>0.3</v>
+      </c>
+      <c r="K125" t="s">
+        <v>54</v>
+      </c>
+      <c r="L125">
+        <v>0.01</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+      <c r="N125" t="b">
+        <v>0</v>
+      </c>
+      <c r="O125" t="b">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0.05</v>
+      </c>
+      <c r="R125" t="b">
+        <v>0</v>
+      </c>
+      <c r="T125" t="b">
+        <v>0</v>
+      </c>
+      <c r="U125" t="b">
+        <v>0</v>
+      </c>
+      <c r="V125" t="s">
+        <v>58</v>
+      </c>
+      <c r="W125" t="b">
+        <v>0</v>
+      </c>
+      <c r="X125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>16</v>
+      </c>
+      <c r="AA125">
+        <v>1E-05</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>1E-08</v>
+      </c>
+      <c r="AD125">
+        <v>1</v>
+      </c>
+      <c r="AE125">
+        <v>5</v>
+      </c>
+      <c r="AG125">
+        <v>0.5450301011335549</v>
+      </c>
+      <c r="AH125">
+        <v>0.6375701255565378</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ125" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK125">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
